--- a/Scrapping_test/jobfinder.xlsx
+++ b/Scrapping_test/jobfinder.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,35 +412,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ուղեկցող թիմ </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>Լոգիստ-Կոորդինատոր</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Էքսկուրսավար</t>
+          <t>Առաքում, բեռնափոխադրում</t>
         </is>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>տոկոսային + բոնուսներ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -450,38 +445,38 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13-02-19 00:00</t>
+          <t>01-04-19 00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>13-03-19 23:59</t>
+          <t>01-05-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Տուրերի վաճառքի և հաճախորդների հետ շփման մենեջեր</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ARGE Business LLC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Տուրիստական գործակալ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -500,74 +495,74 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>13-02-19 00:00</t>
+          <t>01-04-19 00:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13-03-19 23:59</t>
+          <t>05-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Transportation Manager</t>
+          <t>Վարկային  մասնագետ/ Գորիս մ/ճ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spayka LLC</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Logistics, Transportation</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Գորիս</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>13-02-19 00:00</t>
+          <t>01-04-19 00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>13-03-19 23:59</t>
+          <t>09-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ճարտարագետ (Տեխնիկական Սպասարկում)</t>
+          <t>Ֆինանսական խորհրդատու /Գորիս մ/ճ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNC-ALFA CJSC, Rostelecom Group</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +572,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -590,52 +585,47 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Գորիս</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13-02-19 00:00</t>
+          <t>01-04-19 00:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>07-03-19 23:59</t>
+          <t>09-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Translator</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">International Committee of the Red Cross Delegation in Armenia </t>
+          <t>Վարորդ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Առաքում, բեռնափոխադրում</t>
         </is>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Միջնակարգ դպրոցի ատեստատ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -645,47 +635,47 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13-02-19 00:00</t>
+          <t>01-04-19 00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>19-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Financial Specialist </t>
+          <t>Заместитель Директора</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Ekra Caucasus LLC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Менеджмент</t>
         </is>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -695,39 +685,39 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Котайкская обл.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12-02-19 00:00</t>
+          <t>01-04-19 00:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>01-05-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Live Dealer</t>
+          <t xml:space="preserve">Ոսկերիչ / Հրազդան մ/ճ </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E8">
@@ -735,39 +725,39 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Հրազդան</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12-03-19 23:59</t>
+          <t>08-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր/Երևան</t>
+          <t>Հաճախորդների սպասարկման գործակալ /Գերմաներեն</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NewPlast CJSC</t>
+          <t>CMX Solutions</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -777,11 +767,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -800,42 +790,42 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12-03-19 23:59</t>
+          <t>29-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SMM մասնագետ</t>
+          <t>Call Center Agent /German</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lia-K Group LLC</t>
+          <t>CMX Solutions</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Մարդկային Ռեսուրսներ, Կադրեր</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -845,29 +835,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12-03-19 23:59</t>
+          <t>29-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Legal Counsel</t>
+          <t xml:space="preserve">Secretary </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -877,7 +867,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E11">
@@ -885,7 +875,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -900,42 +890,42 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>29-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Content Manager</t>
+          <t xml:space="preserve"> Հաշվետար-գանձապահ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EfuSoft LLC</t>
+          <t>Mehrabyan and Sons LLC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -945,47 +935,47 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12-03-19 23:59</t>
+          <t>29-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Customer Support Representative</t>
+          <t>Հաշվապահի օգնական</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Freighthaul</t>
+          <t>Atenk LTD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -995,39 +985,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12-03-19 23:59</t>
+          <t>29-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Store Manager</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>Խանութ սրահի մենեջեր-վաճառող</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E14">
@@ -1035,39 +1020,39 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր աշխատավարձը երաշվավորվում է</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12-03-19 23:59</t>
+          <t>29-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կորպորատիվ մշակույթի և խրախուսման համակարգերի զարգացման պատասխանատու </t>
+          <t xml:space="preserve">Ինժեներ-նախագծող  </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Valan Prof LLC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1077,11 +1062,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1100,74 +1085,74 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>29-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Senior Java Developer</t>
+          <t>Ապրանքանիշի կառավարման մասնագետ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Energize Global Services CJSC</t>
+          <t>Valan Prof LLC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Highly competitive, depending on previous experience and skills. Insurance package and travel opportunities are available.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12-03-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ադմինիստրատիվ օգնական</t>
+          <t>Ակտիվ վաճառքների մասնագետ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Valan Prof LLC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1177,11 +1162,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1190,7 +1175,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>130.000 ՀՀ Դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1200,34 +1185,34 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>11-03-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Social Media Community Administrator_Intern</t>
+          <t>ServiceDesk Specialist</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HSBC Bank Armenia CJSC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E18">
@@ -1250,24 +1235,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>29-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>System Administrator</t>
+          <t>Senior QA specialist</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Digital Edge</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1277,11 +1262,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Computer Services, Support</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1290,7 +1275,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Competitive, depending on previous experience and skills.</t>
+          <t xml:space="preserve">Competitive </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1300,74 +1285,74 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>11-03-19 23:59</t>
+          <t>29-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Հաճախորդների աջակցման կենտրոնի պատասխանատու հերթապահ-օպերատոր /գիշերային/</t>
+          <t>Старший специалист по обеспечению качества</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Информационные технологии</t>
         </is>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kонкурентный</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11-03-19 23:59</t>
+          <t>10-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Հաճախորդների աջակցման կենտրոնի մասնագետ</t>
+          <t>Որակի վերահսկման ավագ մասնագետ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1377,11 +1362,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1390,7 +1375,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1400,24 +1385,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>29-03-19 00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>11-03-19 23:59</t>
+          <t>10-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Մանրէաբան</t>
+          <t>Օպերատոր</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Spayka LLC</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1427,11 +1412,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Սննդի արտադրություն</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1440,7 +1425,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1450,84 +1435,79 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>28-03-19 00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>28-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>QA Specialist</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>IUNetworks LLC</t>
+          <t>խորհրդատու-վաճառող</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, dynamic team of qualified professionals</t>
+          <t>140.000-190.000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>28-03-19 00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>11-03-19 23:59</t>
+          <t>28-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IUNetworks LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="E24">
@@ -1535,89 +1515,89 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>28-03-19 00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11-03-19 23:59</t>
+          <t>28-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Call Center Agent-Chinese Language(Mixed shift)</t>
+          <t>Գլխավոր հաշվապահ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>ԵՐԵՎԱՆԻ ՊՈՂՊԱՏՅԱ ԽՈՂՈՎԱԿՆԵՐԻ ԳՈՐԾԱՐԱՆ «ՄԵՏԱԼ ՍՏԻԼ» ՓԲԸ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>հարցազրույցի արդյունքներից կախված</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>28-03-19 00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12-03-19 23:59</t>
+          <t>11-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Աշխատանքի պլանավորման և վերստուգման մասնագետ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>ԵՐԵՎԱՆԻ ՊՈՂՊԱՏՅԱ ԽՈՂՈՎԱԿՆԵՐԻ ԳՈՐԾԱՐԱՆ «ՄԵՏԱԼ ՍՏԻԼ» ՓԲԸ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1627,11 +1607,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1640,7 +1620,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>140.000 ՀՀԴ</t>
+          <t>Կախված հարցազրույցի արդյունքներից</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1650,24 +1630,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>28-03-19 00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>09-03-19 23:59</t>
+          <t>11-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Սպորտային իրադարձությունների վերլուծաբան</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Վաճառող-խորհրդատու/գանձապահ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1677,11 +1652,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1690,7 +1665,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>130.000 ՀՀ Դրամ+%</t>
+          <t>Մրցունակ աշխատավարձ՝ կախված աշխատանքային փորձից</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1700,34 +1675,34 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>28-03-19 00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11-03-19 23:59</t>
+          <t>28-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Compliance and Assessment Coordinator</t>
+          <t>Կահույքի դիզայներ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>American University of Armenia</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E28">
@@ -1735,39 +1710,39 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>28-03-19 00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>28-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>UX/UI Designer</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>American University of Armenia</t>
+          <t>Cognaize CJSC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1777,15 +1752,15 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Graphics</t>
         </is>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1800,24 +1775,24 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>24-02-19 17:45</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CRM &amp; Analytics Specialist</t>
+          <t>Translator (Persian Language)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HSBC Bank Armenia CJSC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1827,7 +1802,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Translations</t>
         </is>
       </c>
       <c r="E30">
@@ -1835,12 +1810,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1850,24 +1825,19 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>03-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Օպերատոր/Գանձապահ</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Prof Al LLC</t>
+          <t>Վաճառող-խորհրդատուների թիմի ղեկավար</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1877,11 +1847,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1890,7 +1860,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1900,42 +1870,42 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>09-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>խաղավար</t>
+          <t xml:space="preserve">QA Specialist </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1945,79 +1915,79 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>08-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>08-03-19 23:59</t>
+          <t>27-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Վաճառքի մասնագետ</t>
+          <t>Support Specialist</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ֆիքսված աշխտվ., կախված ծավալից՝ բոնուսներ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>08-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>08-03-19 23:59</t>
+          <t>27-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Administrative Associate</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ashley Homestore</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2027,11 +1997,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2040,7 +2010,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Based on experience</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2050,224 +2020,204 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>08-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>08-03-19 23:59</t>
+          <t>27-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Քարտային և վճարային գործառնությունների ենթակառուցվածքի կառավարման բաժնի մասնագետ</t>
+          <t>Customer Support Specialist</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Leaves Garden LLC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Մրցակցային </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>08-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>27-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Специалист отдела управления инфраструктурой карточных и платежных операций </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Ameriabank CJSC</t>
+          <t>Գլխավոր հաշվապահ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Банки, Финансы, Бухгалтерия</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конкурентный </t>
+          <t>400.000-500.000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>08-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Card and payment transactions infrastructure management division specialist</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Ameriabank CJSC</t>
+          <t>Ավագ  գանձապահ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>150,000-200,000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>08-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Call Center Agent-German Language (Night shift)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>BetConstruct</t>
+          <t>Սուպերմարկետի մենեջեր</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>300.000 դրամից սկսած</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>08-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Գլխավոր Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>C&amp;F Co LLC</t>
+          <t>Օպերատոր</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2277,11 +2227,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2290,7 +2240,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>130,000-150,000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2300,92 +2250,92 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>08-02-19 00:00</t>
+          <t>27-03-19 00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>08-03-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
+          <t>Brand Manager</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Թոփ Շինտեխ ՍՊԸ</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>08-02-19 00:00</t>
+          <t>26-03-19 00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>08-03-19 23:59</t>
+          <t>26-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Incident Management Specialist</t>
+          <t>Վաճառքի գծով ներկայացուցիչ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2395,39 +2345,39 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>26-03-19 00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>07-03-19 23:59</t>
+          <t>26-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Նախագծող  Ճարտարագետ</t>
+          <t xml:space="preserve">Data Analyst </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SanTech</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E42">
@@ -2435,7 +2385,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2445,29 +2395,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>26-03-19 00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>07-03-19 23:59</t>
+          <t>02-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Օդափոխման համակարգի ճարտարագետ</t>
+          <t>Ավագ հաշվապահ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SanTech</t>
+          <t>Atenk LTD</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2477,7 +2427,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E43">
@@ -2500,24 +2450,24 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>26-03-19 00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>07-03-19 23:59</t>
+          <t>26-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Media Planner</t>
+          <t>Product Result Analyst</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2527,7 +2477,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E44">
@@ -2535,7 +2485,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2550,42 +2500,42 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>26-03-19 00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>07-03-19 23:59</t>
+          <t>26-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Data Coordinator</t>
+          <t>Internship  (Aspire Program)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>American University of Armenia</t>
+          <t xml:space="preserve">Philip Morris Armenia LLC </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Internship</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Education/Training</t>
         </is>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2600,24 +2550,24 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>26-03-19 00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>28-02-19 17:45</t>
+          <t>22-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Վարկային  մասնագետ/ Հրազդան մ/ճ</t>
+          <t>Կրեդիտային վերահսկման ստորաբաժանման ղեկավար</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>ARGE Business LLC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2627,11 +2577,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Հսկիչ</t>
         </is>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2640,34 +2590,34 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Հայաստան, Հրազդան</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>18-02-19 23:59</t>
+          <t>01-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Գլխավոր հաշվապահ</t>
+          <t>Խաղավար /Հրահանգիչ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Yerevan Mall</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2677,20 +2627,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>400.000-500.000 ՀՀ Դրամ</t>
+          <t>նախնական 90.000 ՀՀ դրամ</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2700,47 +2650,47 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>07-03-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ավագ  գանձապահ</t>
+          <t>Ավտոկայանի աշխատակից</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Yerevan Mall</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Առաքում, բեռնափոխադրում</t>
         </is>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>150,000-200,000 ՀՀ Դրամ</t>
+          <t>5000 ՀՀ դրամ/օր</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2750,24 +2700,24 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>07-03-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Սուպերմարկետի մենեջեր</t>
+          <t>Զանգերի կենտրոնի մասնագետ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2777,7 +2727,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E49">
@@ -2790,7 +2740,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>300.000 դրամից սկսած</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2800,34 +2750,34 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>07-03-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Օպերատոր</t>
+          <t>Специалист по продаже запчастей для горной и строительной техники (PSSR)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>IKO Machinery LLC</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Инженерный, Технологический</t>
         </is>
       </c>
       <c r="E50">
@@ -2835,39 +2785,39 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>130,000-150,000 ՀՀ Դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>07-03-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Գանձապահ</t>
+          <t>Լեռնային և շինարարական տեխնիկայի պահեստամասերի վաճառքի գծով մասնագետ (PSSR)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>IKO Machinery LLC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2877,7 +2827,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E51">
@@ -2900,74 +2850,74 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>07-03-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Software  Engineer</t>
+          <t>Специалист по обслуживанию и ремонту техники (механик)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HSBC Bank Armenia CJSC</t>
+          <t>IKO Machinery LLC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Инженерный, Технологический</t>
         </is>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>07-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>03-03-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Խորհրդատու-վաճառող (ուհի)</t>
+          <t>Տեխնիկայի սպասարկման և վերանորոգման մասնագետ (մեխանիկ)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>IKO Machinery LLC</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2977,11 +2927,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2990,7 +2940,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Գործարքային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3000,24 +2950,24 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>06-03-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Փրկարար</t>
+          <t>Ֆինանսական խորհրդատու – ՓՄՁ հաճախորդների հետ աշխատանքների վարչություն</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3027,20 +2977,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3050,19 +3000,19 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>06-03-19 23:59</t>
+          <t>07-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Վարկային  մասնագետ/  Նաիրի  մ/ճ</t>
+          <t xml:space="preserve">Ֆինանսական խորհրդատու – ՓՄՁ հաճախորդների հետ աշխատանքների վարչության POS տերմինալների ծառայությունների վաճառքի ուղղություն </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3081,7 +3031,7 @@
         </is>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3095,29 +3045,29 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Հայաստան, Եղվարդ</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>07-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Energize Global Services CJSC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3127,11 +3077,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3140,7 +3090,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3150,84 +3100,79 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ծրագրի Ղեկավար</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Ameriabank CJSC</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Graphic Design</t>
         </is>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Մրցակցային </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>25-03-19 00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>25-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Менеджер по проектам</t>
+          <t>Անվտանգության ծառայության տեխնիկական աջակցության բաժնի 1-ին կարգի մասնագետ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Банки, Финансы, Бухгалтерия</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E58">
@@ -3235,139 +3180,139 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конкурентный </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>22-03-19 00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>07-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Web-разработчик PHP</t>
+          <t>.Net  ծրագրավորող</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Информационные технологии</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>120.000 до 400.000 драмов</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>22-03-19 00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>06-03-19 23:59</t>
+          <t>22-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Մանրածախ վարկավորման վարչություն ավագ մասնագետ</t>
+          <t>Database Developer</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Մրցակցային </t>
+          <t>Competitive, based on qualifications and work experience</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>22-03-19 00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>22-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Senior Specialist of Retail Crediting Division</t>
+          <t>Chinese Speaking Account Manager</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3377,11 +3322,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3390,7 +3335,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3400,34 +3345,34 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>22-03-19 00:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>22-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Старший специалист управления розничного кредитования</t>
+          <t>Product Owner</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Банки, Финансы, Бухгалтерия</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E62">
@@ -3435,39 +3380,39 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Profesional School/College</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конкурентный </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>22-03-19 00:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>22-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Գործադիր տնօրենի օգնական-թարգմանիչ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ԻՄԷՔՍ ԳՐՈՒՊ ՍՊԸ</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3477,11 +3422,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3500,19 +3445,19 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>22-03-19 00:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>06-03-19 23:59</t>
+          <t>22-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Senior QA Engineer</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3531,7 +3476,7 @@
         </is>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3540,34 +3485,34 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>Highly competitive, depending on previous experience and skills. Insurance package and travel opportunities are available.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Germany, Frankfurt am Main</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>21-03-19 00:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>06-03-19 23:59</t>
+          <t>21-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t xml:space="preserve">Global IT Recruiter </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Golden Palace Hotel</t>
+          <t>Energize Global Services CJSC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3577,11 +3522,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hospitality, Tourism, Hotel</t>
+          <t>HR, Recruiting, Staffing</t>
         </is>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3590,7 +3535,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Based on experience and qualification + medical insurance package.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3600,92 +3545,87 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>21-03-19 00:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>06-03-19 23:59</t>
+          <t>21-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ՏՀՏ, Ավտոմատացված համակարգերի կառավարման բաժնի 2-րդ կարգի մասնագետ–ադմինիստրատոր</t>
+          <t xml:space="preserve">QA Engineer </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Energize Global Services CJSC</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive, depending on previous experience and skills. Insurance package and travel opportunities are available.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Germany, Frankfurt am Main</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>21-03-19 00:00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>21-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ՏՏՎ, Տեղեկատվական համակարգերի ներդրման 2-րդ  կարգի  մասնագետ</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Անվտանգության ծառայության աշխատակից</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Անվտանգություն</t>
         </is>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Միջնակարգ դպրոցի ատեստատ</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3695,93 +3635,93 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Կոտայքի մարզ</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>06-02-19 00:00</t>
+          <t>21-03-19 00:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>05-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Ներկայացվածության վերահսկողության մասնագետ</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Art Lunch</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>100,000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>05-02-19 00:00</t>
+          <t>21-03-19 00:00</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>05-03-19 23:59</t>
+          <t>21-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Կաթսայատան օպերատոր</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Art Lunch</t>
+          <t>Spayka LLC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3790,29 +3730,29 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Արարատի մարզ</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>05-02-19 00:00</t>
+          <t>21-03-19 00:00</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>05-03-19 23:59</t>
+          <t>21-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Սննդի գծով հաշվապահ</t>
+          <t>Պարսկերեն լեզվի թարգմանչուհի</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3827,11 +3767,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Թարգմանչություն</t>
         </is>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3840,7 +3780,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3850,92 +3790,92 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>05-02-19 00:00</t>
+          <t>21-03-19 00:00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>05-03-19 23:59</t>
+          <t>21-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">UI/UX Designer </t>
+          <t>Վաճառող (ուհի)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>IUNetworks LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>05-02-19 00:00</t>
+          <t>21-03-19 00:00</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>05-03-19 23:59</t>
+          <t>21-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Chief Training and Development Executive</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Education/Training</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3945,43 +3885,38 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>04-02-19 00:00</t>
+          <t>21-03-19 00:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>18-02-19 23:59</t>
+          <t>21-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Contact Center Intern</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>HSBC Bank Armenia CJSC</t>
+          <t>Ավտոտնտեսության վարիչ</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3995,97 +3930,97 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>04-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>18-02-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Web-Редактор</t>
+          <t>Smart Software Engineer (Full Stack)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Factumsoft LLC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Информационные технологии</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>100,000-150,000 AMD</t>
+          <t>Competitive with bonuses from deliveries</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>04-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>04-03-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Spanish Speaking Partners Relationship Manager</t>
+          <t>Հաշվետար</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4095,39 +4030,39 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>04-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>04-03-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Partners Relationship Manager</t>
+          <t>Խաղերի բաժնի աշխատակից</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E76">
@@ -4135,7 +4070,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4145,29 +4080,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>04-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>04-03-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Վերլուծությունների բաժնի ղեկավար</t>
+          <t>Տեղեկատու բաժնի աշխատակցուհի</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lia-K Group LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4177,11 +4112,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4200,88 +4135,83 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>04-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>04-03-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>X-Group</t>
+          <t>Store Manager</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Անկանոն</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Տուրիզմ, Հյուրանոցային գործ</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>04-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>04-03-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
+          <t>Ստաժորների Ներգրավման Մրցույթ/ Վարկային մասնագետ</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պրակտիկա</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4290,7 +4220,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4300,38 +4230,38 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>04-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>04-03-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Դիզայներ</t>
+          <t xml:space="preserve">Ստաժորների Ներգրավման Մրցույթ/ Հաշվապահ-Գանձապահ </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պրակտիկա</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4350,24 +4280,19 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>04-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ֆինանսական Գործառույթների բաժնի մասնագետ</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Sovrano LLC</t>
+          <t>Վաճառող-խորհրդատու</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4377,7 +4302,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E81">
@@ -4400,24 +4325,19 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>04-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Հոսքագծի օպերատոր</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ԻՄԷՔՍ ԳՐՈՒՊ ՍՊԸ</t>
+          <t>Վաճառող-խորհրդատու</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4427,15 +4347,15 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Արտադրություն</t>
+          <t>Մանրածախ առևտուր</t>
         </is>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4450,24 +4370,24 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>01-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>03-03-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Սպասարկող մենեջեր</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ԻՄԷՔՍ ԳՐՈՒՊ ՍՊԸ</t>
+          <t>NewPlast CJSC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4477,11 +4397,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4500,42 +4420,42 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>01-02-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>03-03-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Բժշկական ներկայացուցիչ/Վաճառքի մենեջեր</t>
+          <t>PHP Application Developer</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>«Էսզեթ ֆարմա» ՍՊԸ</t>
+          <t>Ginosi Apartels and Hotels</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4545,47 +4465,47 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>31-01-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>02-03-19 23:59</t>
+          <t>20-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">էլեկտրատեխնիկ ավտոմատացման տեխնոլոգիաների ոլորտում </t>
+          <t>Senior PHP Application Developer</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Ginosi Apartels and Hotels</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Արտադրություն</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4595,39 +4515,39 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Հայաստան, Կոտայքի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>31-01-19 00:00</t>
+          <t>20-03-19 00:00</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>18-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Արտադրական բաժնի աշխատակից/օպերատոր</t>
+          <t>Facility Management Specialist</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>HSBC Bank Armenia CJSC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Արտադրություն</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E86">
@@ -4635,39 +4555,34 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>31-01-19 00:00</t>
+          <t>19-03-19 00:00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>02-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Վերլուծաբան-Համապատասխանության ապահովման վարչության փողերի լվացման  և ահաբեկչության ֆինանսավորման դեմ պայքարի ուղղություն</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Ավագ Հաշվապահ</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4700,24 +4615,24 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>31-01-19 00:00</t>
+          <t>19-03-19 00:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>19-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Գլխավոր քիմիկ-տեխնոլոգ</t>
+          <t>Վաճառքի և արտահանման մենեջեր</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Best Tour LLC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4727,7 +4642,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Սննդի արտադրություն</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E88">
@@ -4735,7 +4650,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4750,24 +4665,24 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>31-01-19 00:00</t>
+          <t>19-03-19 00:00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>14-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CRM Manager</t>
+          <t>Senior Accounting Adviser</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Grant Thornton Legal &amp; Tax LLC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4777,15 +4692,15 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4800,34 +4715,29 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>31-01-19 00:00</t>
+          <t>19-03-19 00:00</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>01-03-19 23:59</t>
+          <t>19-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Envirotech</t>
+          <t>Помощник бухгалтера</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Административная/Офисная</t>
         </is>
       </c>
       <c r="E90">
@@ -4835,39 +4745,34 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>300 USD</t>
+          <t>от 120.000 до 150.000 драм</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>31-01-19 00:00</t>
+          <t>19-03-19 00:00</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>16-02-19 23:59</t>
+          <t>19-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Աշխատանքի անվտանգության ինժեներ</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>SPS Cigaronne  LLC</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4877,11 +4782,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Վերահսկողության գծով ինժեներ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4900,84 +4805,84 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>30-01-19 00:00</t>
+          <t>19-03-19 00:00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>19-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Կահույքի ներմուծման մենեջեր</t>
+          <t>Front-End Developer</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>VOLO LLC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, depending on previous experience and skills</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>30-01-19 00:00</t>
+          <t>18-03-19 00:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>18-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Deputy Executive Director</t>
+          <t>Ռեստորանային համալիրի մենեջեր</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E93">
@@ -4985,39 +4890,34 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>30-01-19 00:00</t>
+          <t>18-03-19 00:00</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>18-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Financial Control Specialist </t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Globbing LLC</t>
+          <t>Marketing and Sales Manager</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5027,15 +4927,15 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5050,42 +4950,42 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>30-01-19 00:00</t>
+          <t>18-03-19 00:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>18-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Կայքի ադմինիստրատոր</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ImDproc.am</t>
+          <t>Cognaize CJSC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Կրթություն/Ուսուցում</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -5095,47 +4995,42 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>29-01-19 00:00</t>
+          <t>18-03-19 00:00</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>18-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Customer Happiness Specialist</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Globbing LLC</t>
+          <t>Լաբորանտ</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Սննդի արտադրություն</t>
         </is>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5145,79 +5040,79 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>29-01-19 00:00</t>
+          <t>18-03-19 00:00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>18-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Product Owner </t>
+          <t>Ֆինանսական բաժնի կրտսեր մասնագետ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ginosi Apartels and Hotels</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Հաշվետար</t>
         </is>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>29-01-19 00:00</t>
+          <t>16-03-19 00:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>06-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SQL Developer/Business Analyst</t>
+          <t>.Net Developer (Full Stack)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t>Praemium RA LLC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5227,11 +5122,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5240,7 +5135,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Competitive, based on experience</t>
+          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5250,24 +5145,24 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>28-01-19 00:00</t>
+          <t>15-03-19 00:00</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
+          <t>06-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Smart Software Engineer (Full Stack)</t>
+          <t xml:space="preserve">Database Administrator (DBA) </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t>Praemium RA LLC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5277,11 +5172,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5290,7 +5185,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Competitive with bonuses from deliveries</t>
+          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5300,24 +5195,24 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>28-01-19 00:00</t>
+          <t>15-03-19 00:00</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
+          <t>06-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">C++, VC++, MFC Software Engineer </t>
+          <t>Automation QA Engineer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t>Praemium RA LLC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5327,20 +5222,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5350,34 +5245,34 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>28-01-19 00:00</t>
+          <t>15-03-19 00:00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
+          <t>06-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Հաշվապահ</t>
+          <t>Digital Marketing Projects Manager</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ecoform</t>
+          <t>Yerevan Mall</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E101">
@@ -5385,89 +5280,89 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>28-01-19 00:00</t>
+          <t>15-03-19 00:00</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>15-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>R&amp;D Engineer, II</t>
+          <t>Վաճառող-խորհրդատու</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Ashley Homestore</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>աշխատավարձ+բոնուս</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>28-01-19 00:00</t>
+          <t>14-03-19 00:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>14-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A&amp;MS Circuit Design Engineer, I</t>
+          <t>Personal Banker</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Byblos Bank Armenia CJSC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5477,11 +5372,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5490,7 +5385,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>Competitive salary, plus benefits</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5500,69 +5395,69 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>28-01-19 00:00</t>
+          <t>14-03-19 00:00</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>14-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A&amp;MS Circuit Design Engineer, II</t>
+          <t>Անհատական Բանկիր</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Byblos Bank Armenia CJSC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>28-01-19 00:00</t>
+          <t>14-03-19 00:00</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>28-02-19 23:59</t>
+          <t>14-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Տեխնիկական գծով ղեկավար</t>
+          <t>Փրկարար</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5577,15 +5472,15 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Մենեջմենթ</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5600,19 +5495,19 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>26-01-19 00:00</t>
+          <t>14-03-19 00:00</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>14-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Շեֆ-խոհարար</t>
+          <t>Կահույքի ներմուծման մենեջեր</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5627,15 +5522,15 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5650,19 +5545,19 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>26-01-19 00:00</t>
+          <t>14-03-19 00:00</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>14-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ֆլորիստ-դիզայներ</t>
+          <t>Շեֆ-խոհարար</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5677,7 +5572,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="E107">
@@ -5695,29 +5590,29 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Ռուսաստան, Մոսկվա</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>26-01-19 00:00</t>
+          <t>14-03-19 00:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>14-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t>Ներմուծման մենեջեր</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Standard Oil LLC</t>
+          <t>VAS Group Ltd</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5727,7 +5622,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E108">
@@ -5740,7 +5635,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>270 000 ՀՀ դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5750,124 +5645,114 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>26-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Մերսող</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>X-Group</t>
+          <t>Контент-менеджер</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Տուրիզմ, Հյուրանոցային գործ</t>
+          <t>Контент менеджер</t>
         </is>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120,000-150,000 AMD</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>26-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ունիվերսալ խոհարար</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>X-Group</t>
+          <t>Специалист Call-центра</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Административная/Офисная</t>
         </is>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>от 100.000 до 250.000 драмов</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>26-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IT Technician</t>
+          <t>Recruiter</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Energize Global Services CJSC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5877,11 +5762,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>HR, Recruiting, Staffing</t>
         </is>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5890,7 +5775,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5900,134 +5785,134 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>26-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>26-02-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Специалист контактного центра / Оператор Call-центра</t>
+          <t>Նախահաշիվ կազմող ինժեներ</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Административная/Офисная</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>от 100.000 до 250.000 драмов</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>02-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Infrastructure Administrator</t>
+          <t>Ադմինիստրատոր-մատենավար</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Computer Services, Support</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, sport activities compensation and professional development opportunities.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Database Administrator (DBA) </t>
+          <t>Միջոցառումների մենեջեր</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E114">
@@ -6035,49 +5920,49 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Automation QA Engineer</t>
+          <t>Սոցիալ Մեդիա Մարքեթինգ մասնագետ</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Գովազդ,Մարկետինգ, PR</t>
         </is>
       </c>
       <c r="E115">
@@ -6085,157 +5970,157 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Manual QA Engineer</t>
+          <t>Շուկայի զարգացման պատասխանատու  (իգական սեռի)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>QA, Quality Control</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>.Net Developer (Full Stack)</t>
+          <t>Հաշվետար</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Digital Marketing Specialist</t>
+          <t>Գլխավոր Հաշվապահ</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>HooK</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6245,39 +6130,34 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>13-03-19 00:00</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>16-02-19 23:59</t>
+          <t>13-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>.Net Developer</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
+          <t>Շուկայի զարգացման պատասխանատու</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E119">
@@ -6285,39 +6165,34 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Competitive, based on qualifications and work experience</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>12-03-19 00:00</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>.Net  ծրագրավորող</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
+          <t>Ավագ հաշվապահ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6327,11 +6202,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6340,7 +6215,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Առձեռն 200,000 դրամ</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6350,24 +6225,19 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>12-03-19 00:00</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Database Developer</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6377,11 +6247,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -6390,7 +6260,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Competitive, based on qualifications and work experience</t>
+          <t>Comprehensive remuneration package</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6400,34 +6270,34 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>12-03-19 00:00</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>08-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Երևան քաղաքի մասնաճյուղերում ստաժոր/փորձնակ/ /հաշվապահ- գանձապահ, վարկային մասնագետ/</t>
+          <t>Սպորտային իրադարձությունների վերլուծաբան</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Պրակտիկա</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E122">
@@ -6440,7 +6310,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>130.000 ՀՀ Դրամ+%</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6450,34 +6320,34 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>25-01-19 00:00</t>
+          <t>12-03-19 00:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>25-02-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Специалист по закупкам</t>
+          <t>Ադմինիստրատիվ օգնական</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Покупки</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E123">
@@ -6485,39 +6355,39 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>120,000-200,000 AMD</t>
+          <t>130.000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>24-01-19 00:00</t>
+          <t>12-03-19 00:00</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ֆինանսատնտեսագիտական բաժնի պետ</t>
+          <t>Աշխատանքի պլանավորման և վերստուգման մասնագետ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>"Grand Candy"  LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6527,11 +6397,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6540,7 +6410,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>140.000 ՀՀԴ</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6550,84 +6420,84 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>24-01-19 00:00</t>
+          <t>12-03-19 00:00</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Chief Marketing and PR Specialist</t>
+          <t>Հեռախոսավար / Զանգերի  կենտրոնի օպերատոր (Ռուսերենի իմացությամբ)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Nikita Mobile</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>24-01-19 00:00</t>
+          <t>12-03-19 00:00</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
+          <t>05-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Մարքեթինգի գլխավոր մասնագետ</t>
+          <t>Investment Officer</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Gazelle Finance Universal Credit Organization LLC</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Loans, Lending, Mortgages</t>
         </is>
       </c>
       <c r="E126">
@@ -6635,107 +6505,107 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive salary, plus participation in the company incentive program and standard benefits.</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>24-01-19 00:00</t>
+          <t>12-03-19 00:00</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ապարատավար</t>
+          <t xml:space="preserve"> Executive Assistant</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ԲԻՈԿԱԹ</t>
+          <t>Gazelle Finance Universal Credit Organization LLC</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Executive Assistant</t>
         </is>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Միջնակարգ դպրոցի ատեստատ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive salary, plus participation in the company incentive program and standard benefits.</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>24-01-19 00:00</t>
+          <t>12-03-19 00:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>12-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Մարդկային  ռեսուրսների  կառավարման  մասնագետ</t>
+          <t>Development Content Writer</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Vardanants CIM</t>
+          <t>American University of Armenia</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Մարդկային Ռեսուրսներ, Կադրեր</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6745,43 +6615,43 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>24-01-19 00:00</t>
+          <t>11-03-19 00:00</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>10-04-19 17:45</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Intern (Technical-Engineering)</t>
+          <t>Legal Advisor</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>AAB Construction</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6790,7 +6660,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6800,74 +6670,74 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>24-01-19 00:00</t>
+          <t>07-03-19 00:00</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>05-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Intern (Technical-Engineering)</t>
+          <t>Վարկային  մասնագետ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>24-01-19 00:00</t>
+          <t>07-03-19 00:00</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>24-02-19 23:59</t>
+          <t>07-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Marketing Manager (Arabian division)</t>
+          <t>Angular Developer</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>AMarkets</t>
+          <t>VOLO LLC</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6877,7 +6747,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E131">
@@ -6890,7 +6760,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, depending on previous experience and skills</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6900,24 +6770,24 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>23-01-19 00:00</t>
+          <t>07-03-19 00:00</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>23-02-19 23:59</t>
+          <t>07-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Software Engineer (C++ Object Oriented)</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6927,15 +6797,15 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Engineering, Technology</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6950,42 +6820,42 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>23-01-19 00:00</t>
+          <t>06-03-19 00:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>13-02-19 23:59</t>
+          <t>06-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Secretary </t>
+          <t>Տնօրենի օգնական</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>ՔԼԱԲ ՍԻՔՍԹԻՆ ԷՅԷՄ ՓԲԸ</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6995,79 +6865,79 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>23-01-19 00:00</t>
+          <t>05-03-19 00:00</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>17-02-19 23:59</t>
+          <t>05-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ուղեկցման բաժնի մասնագետ</t>
+          <t xml:space="preserve">Full Stack Developer </t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>VEHERE Interactive Private  Limited</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>23-01-19 00:00</t>
+          <t>05-03-19 00:00</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>23-02-19 23:59</t>
+          <t>05-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MICE/Tourism Manager</t>
+          <t>C/C++ Developer</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Go2Armenia</t>
+          <t>VEHERE Interactive Private  Limited</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -7077,7 +6947,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Meeting, Events Management</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E135">
@@ -7085,12 +6955,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>High School Diploma</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7100,24 +6970,24 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>05-03-19 00:00</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>15-02-19 23:59</t>
+          <t>05-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Software Engineer .Net oriented (Senior/Mid)</t>
+          <t xml:space="preserve">Database Administrator </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>VEHERE Interactive Private  Limited</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7127,7 +6997,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Engineering, Technology</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E136">
@@ -7135,12 +7005,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7150,24 +7020,24 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>05-03-19 00:00</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>05-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Software Engineer (React.js Oriented)</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>VEHERE Interactive Private  Limited</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -7177,7 +7047,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E137">
@@ -7200,24 +7070,19 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>05-03-19 00:00</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>05-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Վաճառքի թիմի ղեկավար</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>NewPlast CJSC</t>
+          <t>Բեռնափոխադրումների դիսպետչեր</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7227,11 +7092,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Առաքում, բեռնափոխադրում</t>
         </is>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -7250,24 +7115,24 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>04-03-19 00:00</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>04-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Ինժեներ-մեխանիկ</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ԲԻՈԿԱԹ</t>
+          <t>Spayka LLC</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7277,11 +7142,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -7290,7 +7155,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7300,42 +7165,42 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>04-03-19 00:00</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>04-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer</t>
+          <t>Գլխավոր հաշվապահի տեղակալ</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>EfuSoft LLC</t>
+          <t>"Grand Candy"  LLC</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Network Operations</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -7345,29 +7210,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>04-03-19 00:00</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>04-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Էլեկտրոնիկայի մասնագետ</t>
+          <t>Ալյուկաբոնդի արտադրամասի ղեկավար</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SPS Cigaronne  LLC</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7377,11 +7242,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Գործադիր պաշտոններ</t>
         </is>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -7390,7 +7255,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7400,74 +7265,74 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>02-03-19 00:00</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>02-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Senior Analog Design Engineer, I</t>
+          <t>Մերչենդայզեր</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>01-03-19 00:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>01-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Synthesis Specialist Applications Engineer</t>
+          <t>Business Development Specialist</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t xml:space="preserve">Noymed LLC </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7477,11 +7342,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7490,7 +7355,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7500,34 +7365,34 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>01-03-19 00:00</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>01-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>R&amp;D Engineer, I</t>
+          <t>Մսագործ</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Խոհանոցի աշխատակազմ</t>
         </is>
       </c>
       <c r="E144">
@@ -7535,39 +7400,39 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>22-01-19 00:00</t>
+          <t>01-03-19 00:00</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>22-02-19 23:59</t>
+          <t>01-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>խոհարարի օգնական</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Prima Finance LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7577,147 +7442,147 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Ռուսաստան, Մոսկվա</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>21-01-19 00:00</t>
+          <t>01-03-19 00:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>21-02-19 23:59</t>
+          <t>01-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Prima Finance LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Ռուսաստան, Մոսկվա</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>21-01-19 00:00</t>
+          <t>01-03-19 00:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>21-02-19 23:59</t>
+          <t>01-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Information Security Specialist</t>
+          <t>Գլխավոր ինժեներ</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>DeltaPro LLC</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Արտադրության ինժեներ</t>
         </is>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>մրցունակ</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>21-01-19 00:00</t>
+          <t>01-03-19 00:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
+          <t>01-04-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Information Security Engineer</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>EfuSoft LLC</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7727,11 +7592,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7750,1712 +7615,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>21-01-19 00:00</t>
+          <t>01-03-19 00:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>20-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Արտադրամասի / հերթափոխի պետ</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>"Grand Candy"  LLC</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Արտադրություն</t>
-        </is>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>21-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>21-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>ServiceDesk Specialist</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Administrative/Clerical</t>
-        </is>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>21-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>20-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>ՏՏ Մասնագետ</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
-        </is>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>150,000 ՀՀ Դրամ</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>21-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>21-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Վաճառող-Խորհրդատու / Վանաձոր</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Mobile Centre Art LLC</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Հաճախորդների սպասարկում</t>
-        </is>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Բարձր</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Հայաստան, Վանաձոր</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>21-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>21-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Online Marketing Specialist, SEO/Content Writing</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Factumsoft LLC</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Advertising, Marketing, PR</t>
-        </is>
-      </c>
-      <c r="E153">
-        <v>2</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>DOE</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>21-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>20-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Designer, Web UI/UX</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Factumsoft LLC</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Graphics</t>
-        </is>
-      </c>
-      <c r="E154">
-        <v>2</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>21-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>20-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Առևտրային վարկերի գծով մասնագետ</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>21-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>21-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Վարկերի մոնիտորինգի բաժնի մասնագետ</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>21-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>21-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Մարքեթինգի բաժնի մենեջեր</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>“Profpanel” LLC</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
-        </is>
-      </c>
-      <c r="E157">
-        <v>5</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>18-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>18-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Dispatch Agent</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Logistics</t>
-        </is>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Commission based only</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>18-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>18-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Մասնաճյուղի կառավարիչ</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Կրեդո Ֆինանս ՈՒՎԿ ՖԲԸ</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>18-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>18-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Юрист</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Ekra Caucasus LLC</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Полная ставка</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Юриспруденция</t>
-        </is>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Степень бакалавра</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Договорная </t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Армения, Ереван</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>18-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>18-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Հոսքագծի օպերատոր-կարգավորող</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>SPS Cigaronne  LLC</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Հաստոցներ</t>
-        </is>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>18-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>18-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Android Developer</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Advanced Mobile Systems Inc</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E162">
-        <v>2</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>17-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>17-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Արտադրության ղեկավար</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Spayka LLC</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Սննդի արտադրություն</t>
-        </is>
-      </c>
-      <c r="E163">
-        <v>3</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>17-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>17-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Հիդրոինժեներ</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>NewPlast CJSC</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
-        </is>
-      </c>
-      <c r="E164">
-        <v>2</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>16-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>16-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Content Writer</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>First Outsourcing Company</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>16-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>13-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> IT Officer/ ArmSoft Administrator</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Byblos Bank Armenia CJSC</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E166">
-        <v>2</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Competitive salary, plus benefits.</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>16-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>16-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Software Developer</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>IUNetworks LLC</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E167">
-        <v>5</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>16-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>16-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Գլխավոր հաշվապահի օգնական</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Նարսան ՍՊԸ</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E168">
-        <v>2</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Սկսած 180.000 ՀՀ Դրամից</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>15-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>15-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Վաճառքի մասնագետ</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Spayka LLC</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Վաճառք</t>
-        </is>
-      </c>
-      <c r="E169">
-        <v>3</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Աշխատավարձ</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>15-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>15-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Sales Manager</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>EfuSoft LLC</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="E170">
-        <v>3</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>15-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>15-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>RRP Digital Marketing Executive</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philip Morris Armenia LLC </t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Advertising, Marketing, PR</t>
-        </is>
-      </c>
-      <c r="E171">
-        <v>2</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>15-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>15-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Senior Scientist Data Analytics</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philip Morris Armenia LLC </t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Research/Science</t>
-        </is>
-      </c>
-      <c r="E172">
-        <v>5</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Master Degree (MD)</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>15-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>15-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Նախագծի ղեկավար</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Սօս Սիսթեմս ՍՊԸ</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
-        </is>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>Նախնական՝ կախված փորձից</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>15-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>15-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>PR Manager</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Havana Restaurant Complex</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Advertising, Marketing, PR</t>
-        </is>
-      </c>
-      <c r="E174">
-        <v>3</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>15-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>13-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Telesales Specialist - Evening Shift</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>--------</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>Fix + commission</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>15-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>15-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Director of Commercial and Acquisitions</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Ginosi Apartels and Hotels</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-      <c r="E176">
-        <v>5</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Master Degree (MD)</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>14-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>14-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Բժիշկ-խորհրդատու</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Դիագեն Պլյուս ՍՊԸ</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Առողջապահություն</t>
-        </is>
-      </c>
-      <c r="E177">
-        <v>2</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>14-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>14-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Менеджер коммерческого отдела</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Полная ставка</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Реклама/Маркетинг, PR</t>
-        </is>
-      </c>
-      <c r="E178">
-        <v>3</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Степень бакалавра</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>170000</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Армения, Ереван</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>14-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>14-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Հաշվետար-օպերատոր</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Հաշվետար</t>
-        </is>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>13-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>13-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Financial Specialist</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alpha Food Service LLC </t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Banking, Accounting, Financial</t>
-        </is>
-      </c>
-      <c r="E180">
-        <v>3</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>13-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>13-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Ֆինանսական մասնագետ</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alpha Food Service LLC </t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E181">
-        <v>3</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>13-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>13-02-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Ավագ հաշվապահ</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Խայծ Իշխան ՍՊԸ</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E182">
-        <v>3</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Մրցակցային</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>13-01-19 00:00</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>13-02-19 23:59</t>
+          <t>01-04-19 23:59</t>
         </is>
       </c>
     </row>

--- a/Scrapping_test/jobfinder.xlsx
+++ b/Scrapping_test/jobfinder.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,202 +412,207 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Լոգիստ-Կոորդինատոր</t>
+          <t>SQL Developer/Business Analyst</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Factumsoft LLC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Առաքում, բեռնափոխադրում</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>տոկոսային + բոնուսներ</t>
+          <t>Competitive, based on experience</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>01-04-19 00:00</t>
+          <t>01-08-19 00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>01-05-19 23:59</t>
+          <t>01-09-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ARGE Business LLC</t>
+          <t>K-8 Teacher/Music</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Contract</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Education/Training</t>
         </is>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Negotiable and based on experience</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>01-04-19 00:00</t>
+          <t>31-07-19 11:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>05-04-19 23:59</t>
+          <t>21-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Վարկային  մասնագետ/ Գորիս մ/ճ</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
+          <t xml:space="preserve">Competitive </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Հայաստան, Գորիս</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>01-04-19 00:00</t>
+          <t>31-07-19 00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>09-04-19 23:59</t>
+          <t>13-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ֆինանսական խորհրդատու /Գորիս մ/ճ</t>
+          <t>Старший бухгалтер</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Банки, Финансы, Бухгалтерия</t>
         </is>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
+          <t xml:space="preserve">Конкурентный </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Հայաստան, Գորիս</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>01-04-19 00:00</t>
+          <t>31-07-19 00:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>09-04-19 23:59</t>
+          <t>13-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Վարորդ</t>
+          <t>Ավագ Հաշվապահ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,20 +622,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Առաքում, բեռնափոխադրում</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Միջնակարգ դպրոցի ատեստատ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -640,24 +645,19 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>01-04-19 00:00</t>
+          <t>31-07-19 00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19-04-19 23:59</t>
+          <t>13-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Заместитель Директора</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ekra Caucasus LLC</t>
+          <t>Специалист По Закупкам</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,11 +667,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Менеджмент</t>
+          <t>Покупки</t>
         </is>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -680,234 +680,234 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120,000-200,000 AMD</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Армения, Котайкская обл.</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>01-04-19 00:00</t>
+          <t>31-07-19 00:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>01-05-19 23:59</t>
+          <t>31-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ոսկերիչ / Հրազդան մ/ճ </t>
+          <t>Mid-Level Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Factumsoft LLC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
+          <t>Open to your demands</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Հայաստան, Հրազդան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>31-07-19 00:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>08-04-19 23:59</t>
+          <t>31-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկման գործակալ /Գերմաներեն</t>
+          <t>Senior Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CMX Solutions</t>
+          <t>Factumsoft LLC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive with bonuses from deliveries</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>31-07-19 00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>29-04-19 23:59</t>
+          <t>31-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Call Center Agent /German</t>
+          <t>Վաճառող-Խորհրդատու /Աբովյան</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CMX Solutions</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Աբովյան</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>31-07-19 00:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>29-04-19 23:59</t>
+          <t>31-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Secretary </t>
+          <t>Վաճառող-Խորհրդատու /Ապարան</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Ապարան</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>31-07-19 00:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>29-04-19 23:59</t>
+          <t>31-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Հաշվետար-գանձապահ</t>
+          <t>Վարորդ-Առաքիչ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mehrabyan and Sons LLC</t>
+          <t>ARGE Business LLC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -917,15 +917,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Առաքում, բեռնափոխադրում</t>
         </is>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Թերի միջնակարգ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -940,24 +940,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>31-07-19 00:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>29-04-19 23:59</t>
+          <t>31-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Հաշվապահի օգնական</t>
+          <t>Առևտրի ներկայացուցիչ (պրեսելեր)/ Ք. Երևան</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Atenk LTD</t>
+          <t>ARGE Business LLC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,11 +967,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Նախնական վաճառք և հետ վաճառք</t>
         </is>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -990,24 +990,29 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>31-07-19 00:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>29-04-19 23:59</t>
+          <t>31-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Խանութ սրահի մենեջեր-վաճառող</t>
+          <t>Առևտրի ներկայացուցիչ (պրեսելեր) / Ք. Կապան</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ARGE Business LLC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1016,7 +1021,7 @@
         </is>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1025,44 +1030,44 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Բարձր աշխատավարձը երաշվավորվում է</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Սյունիքի մարզ</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>30-07-19 00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>29-04-19 23:59</t>
+          <t>30-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ինժեներ-նախագծող  </t>
+          <t>Training &amp; Performance Evaluation Coordinator</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Valan Prof LLC</t>
+          <t>American University of Armenia</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Education/Training</t>
         </is>
       </c>
       <c r="E15">
@@ -1070,7 +1075,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1080,29 +1085,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>30-07-19 00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>29-04-19 23:59</t>
+          <t>31-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ապրանքանիշի կառավարման մասնագետ</t>
+          <t xml:space="preserve">Ինժեներ-Չափագրող </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Valan Prof LLC</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1112,7 +1117,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E16">
@@ -1135,24 +1140,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>30-07-19 00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>30-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ակտիվ վաճառքների մասնագետ</t>
+          <t xml:space="preserve">Ոսկերիչ / Էջմիածին մ/ճ </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Valan Prof LLC</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1162,15 +1167,15 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1180,29 +1185,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Էջմիածին</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>30-07-19 00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>07-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ServiceDesk Specialist</t>
+          <t>Documentation QA/Technical Writer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1212,11 +1217,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1225,7 +1230,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1235,24 +1240,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>30-07-19 00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>29-04-19 23:59</t>
+          <t>20-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Senior QA specialist</t>
+          <t>Mid-level A&amp;MS Circuit Design Engineer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1266,7 +1271,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1275,7 +1280,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Competitive </t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1285,74 +1290,74 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>30-07-19 00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>29-04-19 23:59</t>
+          <t>20-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Старший специалист по обеспечению качества</t>
+          <t>Senior A&amp;MS Layout Design Engineer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Информационные технологии</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Kонкурентный</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>30-07-19 00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10-04-19 23:59</t>
+          <t>20-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Որակի վերահսկման ավագ մասնագետ</t>
+          <t xml:space="preserve">Թարգմանիչ </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Ֆաբերլիկ Զակավկազյե ՍՊԸ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1362,11 +1367,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Թարգմանչություն</t>
         </is>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1375,7 +1380,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>180 000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1385,19 +1390,19 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>29-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10-04-19 23:59</t>
+          <t>29-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Օպերատոր</t>
+          <t>Զոդոզ/Փականագործ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1412,20 +1417,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1435,19 +1440,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>28-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>28-04-19 23:59</t>
+          <t>29-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>խորհրդատու-վաճառող</t>
+          <t xml:space="preserve"> Ագրոնոմ/ Կանաչապատման մասնագետ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1457,20 +1467,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Գյուղատնտեսություն</t>
         </is>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>140.000-190.000 ՀՀ Դրամ</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1480,24 +1490,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>28-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>28-04-19 23:59</t>
+          <t>29-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Ալյումինե դռներ և պատուհաններ  տեղադրող</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1507,7 +1517,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E24">
@@ -1520,7 +1530,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1530,84 +1540,84 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>28-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>28-04-19 23:59</t>
+          <t>29-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Գլխավոր հաշվապահ</t>
+          <t>Brand Manager</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ԵՐԵՎԱՆԻ ՊՈՂՊԱՏՅԱ ԽՈՂՈՎԱԿՆԵՐԻ ԳՈՐԾԱՐԱՆ «ՄԵՏԱԼ ՍՏԻԼ» ՓԲԸ</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>հարցազրույցի արդյունքներից կախված</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>28-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11-04-19 23:59</t>
+          <t>08-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ԵՐԵՎԱՆԻ ՊՈՂՊԱՏՅԱ ԽՈՂՈՎԱԿՆԵՐԻ ԳՈՐԾԱՐԱՆ «ՄԵՏԱԼ ՍՏԻԼ» ՓԲԸ</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E26">
@@ -1615,34 +1625,39 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Կախված հարցազրույցի արդյունքներից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>28-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11-04-19 23:59</t>
+          <t>08-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Վաճառող-խորհրդատու/գանձապահ</t>
+          <t>Վաճառքի գծով ներկայացուցիչ /Մասիս</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1656,7 +1671,7 @@
         </is>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1665,44 +1680,44 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Մրցունակ աշխատավարձ՝ կախված աշխատանքային փորձից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Մասիս</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>28-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>28-04-19 23:59</t>
+          <t>19-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Կահույքի դիզայներ</t>
+          <t>1C 8.3 ծրագրավորող</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Անկանոն</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E28">
@@ -1715,7 +1730,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1725,24 +1740,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>28-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>28-04-19 23:59</t>
+          <t>03-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UX/UI Designer</t>
+          <t>Data Architect</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cognaize CJSC</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1752,11 +1767,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Graphics</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1765,7 +1780,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1775,24 +1790,24 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Translator (Persian Language)</t>
+          <t>Java Engineer — Senior</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1802,11 +1817,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Translations</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1815,7 +1830,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1825,69 +1840,74 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>03-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Վաճառող-խորհրդատուների թիմի ղեկավար</t>
+          <t>Python Developer — Team Leader</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>09-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">QA Specialist </t>
+          <t>VoIP Engineer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1901,16 +1921,16 @@
         </is>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1920,24 +1940,24 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>29-07-19 00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>27-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Support Specialist</t>
+          <t>PR and Brand Manager</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1947,15 +1967,15 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1970,34 +1990,34 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>26-07-19 00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>27-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Administrative Associate</t>
+          <t>Հաշվարկների Գծով Մասնագետ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E34">
@@ -2005,7 +2025,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2015,47 +2035,47 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>26-07-19 00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>27-04-19 23:59</t>
+          <t>20-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Customer Support Specialist</t>
+          <t>Ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Leaves Garden LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2065,24 +2085,29 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>26-07-19 00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>27-04-19 23:59</t>
+          <t>26-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Գլխավոր հաշվապահ</t>
+          <t>Օգնական-գործավարուհի</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2092,11 +2117,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2105,7 +2130,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>400.000-500.000 ՀՀ Դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2115,29 +2140,34 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>26-07-19 00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>26-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ավագ  գանձապահ</t>
+          <t>Technical Writer</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E37">
@@ -2145,179 +2175,184 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>150,000-200,000 ՀՀ Դրամ</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>26-07-19 00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>06-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Սուպերմարկետի մենեջեր</t>
+          <t>ASIC/Layout Design Engineer</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>300.000 դրամից սկսած</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>26-07-19 00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Օպերատոր</t>
+          <t>Senior ASIC Digital Design Engineer</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>130,000-150,000 ՀՀ Դրամ</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>27-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>25-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brand Manager</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Sovrano LLC</t>
+          <t>Специалист Call-центра</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Административная/Офисная</t>
         </is>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>120,000-250,000 AMD</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>26-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>26-04-19 23:59</t>
+          <t>25-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
+          <t>Գործավարուհի</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>M-Group LLC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2327,11 +2362,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Վարչական օգնական</t>
         </is>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2350,24 +2385,19 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>26-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>26-04-19 23:59</t>
+          <t>25-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data Analyst </t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>BetConstruct</t>
+          <t>Graphic Designer</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2377,11 +2407,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Graphic Design</t>
         </is>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2400,24 +2430,24 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>26-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>02-04-19 23:59</t>
+          <t>25-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ավագ հաշվապահ</t>
+          <t xml:space="preserve">Ադմինիստրատիվ ասիստենտ </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Atenk LTD</t>
+          <t>SPS Cigaronne  LLC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2427,11 +2457,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2450,34 +2480,34 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>26-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>26-04-19 23:59</t>
+          <t>25-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Product Result Analyst</t>
+          <t>Մատակարար</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E44">
@@ -2485,7 +2515,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2495,47 +2525,47 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>26-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>26-04-19 23:59</t>
+          <t>25-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Internship  (Aspire Program)</t>
+          <t>Սպորտային բժիշկ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philip Morris Armenia LLC </t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Education/Training</t>
+          <t>Առողջապահություն</t>
         </is>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2545,247 +2575,247 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>26-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>22-04-19 23:59</t>
+          <t>25-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Կրեդիտային վերահսկման ստորաբաժանման ղեկավար</t>
+          <t>Junior A&amp;MS Circuit Design Engineer</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ARGE Business LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Հսկիչ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>01-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Խաղավար /Հրահանգիչ</t>
+          <t>Mid-level A&amp;MS Circuit Design Engineer, II</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Yerevan Mall</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>նախնական 90.000 ՀՀ դրամ</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ավտոկայանի աշխատակից</t>
+          <t xml:space="preserve">Mid-level A&amp;MS Circuit Design Engineer </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Yerevan Mall</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Առաքում, բեռնափոխադրում</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5000 ՀՀ դրամ/օր</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Զանգերի կենտրոնի մասնագետ</t>
+          <t>A&amp;MS Circuit Design Engineer, Staff</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Специалист по продаже запчастей для горной и строительной техники (PSSR)</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IKO Machinery LLC</t>
+          <t xml:space="preserve">Noymed LLC </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Инженерный, Технологический</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2795,47 +2825,47 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>25-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Լեռնային և շինարարական տեխնիկայի պահեստամասերի վաճառքի գծով մասնագետ (PSSR)</t>
+          <t>Senior SAS Programmer</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IKO Machinery LLC</t>
+          <t xml:space="preserve">Noymed LLC </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2845,47 +2875,47 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>25-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Специалист по обслуживанию и ремонту техники (механик)</t>
+          <t>Գնումների մասնագետ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IKO Machinery LLC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Инженерный, Технологический</t>
+          <t>Գնումներ</t>
         </is>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2895,29 +2925,29 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>07-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Տեխնիկայի սպասարկման և վերանորոգման մասնագետ (մեխանիկ)</t>
+          <t>Մաքրուհի</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IKO Machinery LLC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2927,15 +2957,15 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2950,38 +2980,38 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ֆինանսական խորհրդատու – ՓՄՁ հաճախորդների հետ աշխատանքների վարչություն</t>
+          <t>Սպորտային լրագրող (պրակտիկանտ)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Լրագրող</t>
         </is>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2990,7 +3020,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3000,24 +3030,24 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>25-07-19 00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>07-04-19 23:59</t>
+          <t>07-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ֆինանսական խորհրդատու – ՓՄՁ հաճախորդների հետ աշխատանքների վարչության POS տերմինալների ծառայությունների վաճառքի ուղղություն </t>
+          <t xml:space="preserve">Օբյեկտ  մենեջեր </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Թոփ Շինտեխ ՍՊԸ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3027,7 +3057,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Վաճառքի գծով ներկայացուցիչ</t>
         </is>
       </c>
       <c r="E55">
@@ -3040,7 +3070,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3050,24 +3080,24 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>24-07-19 00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>07-04-19 23:59</t>
+          <t>24-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>ServiceDesk Specialist</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Energize Global Services CJSC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3077,11 +3107,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3090,7 +3120,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3100,19 +3130,24 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>24-07-19 00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>24-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Incident Management Specialist</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3122,11 +3157,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Graphic Design</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3145,42 +3180,42 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>25-03-19 00:00</t>
+          <t>24-07-19 00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>25-04-19 23:59</t>
+          <t>24-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Անվտանգության ծառայության տեխնիկական աջակցության բաժնի 1-ին կարգի մասնագետ</t>
+          <t>Junior Key Account Manager</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3190,47 +3225,47 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>22-03-19 00:00</t>
+          <t>24-07-19 00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>07-04-19 23:59</t>
+          <t>03-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>.Net  ծրագրավորող</t>
+          <t>Social Media Marketing Specialist</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>M-Group LLC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3240,79 +3275,79 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>22-03-19 00:00</t>
+          <t>24-07-19 00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>22-04-19 23:59</t>
+          <t>24-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Database Developer</t>
+          <t>Խանութների ցանցի համակարգչային օպերատոր</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>SALI</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Competitive, based on qualifications and work experience</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>22-03-19 00:00</t>
+          <t>24-07-19 00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>22-04-19 23:59</t>
+          <t>19-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Chinese Speaking Account Manager</t>
+          <t>DevOps Engineer with Docker Experience</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3322,20 +3357,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3345,24 +3380,24 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>22-03-19 00:00</t>
+          <t>24-07-19 00:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>22-04-19 23:59</t>
+          <t>17-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Product Owner</t>
+          <t>Node.js Engineer — Senior</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3376,16 +3411,16 @@
         </is>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Profesional School/College</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3395,124 +3430,124 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>22-03-19 00:00</t>
+          <t>24-07-19 00:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>22-04-19 23:59</t>
+          <t>17-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Գործադիր տնօրենի օգնական-թարգմանիչ</t>
+          <t>Contact Center Agent</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>HSBC Bank Armenia CJSC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>22-03-19 00:00</t>
+          <t>24-07-19 00:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>22-04-19 23:59</t>
+          <t>18-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Senior QA Engineer</t>
+          <t>Ներմուծման գծով մասնագետ</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Energize Global Services CJSC</t>
+          <t>360  Շինբազա ՍՊԸ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Highly competitive, depending on previous experience and skills. Insurance package and travel opportunities are available.</t>
+          <t>150000</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Germany, Frankfurt am Main</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>21-03-19 00:00</t>
+          <t>23-07-19 00:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>21-04-19 23:59</t>
+          <t>23-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Global IT Recruiter </t>
+          <t>Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Energize Global Services CJSC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3535,7 +3570,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Based on experience and qualification + medical insurance package.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3545,79 +3580,84 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>21-03-19 00:00</t>
+          <t>23-07-19 00:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>21-04-19 23:59</t>
+          <t>22-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">QA Engineer </t>
+          <t>Հաճախորդների սպասարկման գործակալ /Գերմաներեն</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Energize Global Services CJSC</t>
+          <t>CMX Solutions</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Highly competitive, depending on previous experience and skills. Insurance package and travel opportunities are available.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Germany, Frankfurt am Main</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>21-03-19 00:00</t>
+          <t>23-07-19 00:00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>21-04-19 23:59</t>
+          <t>23-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Անվտանգության ծառայության աշխատակից</t>
+          <t>Call Center Agent /German</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CMX Solutions</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Անվտանգություն</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E67">
@@ -3625,7 +3665,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Միջնակարգ դպրոցի ատեստատ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3635,89 +3675,89 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Հայաստան, Կոտայքի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>21-03-19 00:00</t>
+          <t>23-07-19 00:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>05-04-19 23:59</t>
+          <t>23-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ներկայացվածության վերահսկողության մասնագետ</t>
+          <t>Managing Editor</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>American University of Armenia</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Editor</t>
         </is>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>100,000 ՀՀ Դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>21-03-19 00:00</t>
+          <t>23-07-19 00:00</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>21-04-19 23:59</t>
+          <t>06-08-19 17:45</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Կաթսայատան օպերատոր</t>
+          <t>Արտահանման մասնագետ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Spayka LLC</t>
+          <t>Երևանի Շամպայն Գինիների Գործարան</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E69">
@@ -3730,34 +3770,34 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Հայաստան, Արարատի մարզ</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>21-03-19 00:00</t>
+          <t>23-07-19 00:00</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>21-04-19 23:59</t>
+          <t>23-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Պարսկերեն լեզվի թարգմանչուհի</t>
+          <t>Շուկայի զարգացման պատասխանատու</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Երևանի Շամպայն Գինիների Գործարան</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3767,11 +3807,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Թարգմանչություն</t>
+          <t>Վաճառքի գծով ներկայացուցիչ</t>
         </is>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3790,24 +3830,24 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>21-03-19 00:00</t>
+          <t>23-07-19 00:00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>21-04-19 23:59</t>
+          <t>23-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Վաճառող (ուհի)</t>
+          <t>Կադրերի Բաժնի մասնագետ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Երևանի Շամպայն Գինիների Գործարան</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3817,15 +3857,15 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Մարդկային Ռեսուրսներ, Կադրեր</t>
         </is>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3840,24 +3880,24 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>21-03-19 00:00</t>
+          <t>23-07-19 00:00</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>21-04-19 23:59</t>
+          <t>23-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Գանձապահ</t>
+          <t>Մարքեթինգային հաղորդակցությունների վարչության պետ</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3867,11 +3907,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Գովազդ,Մարկետինգ, PR</t>
         </is>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3890,19 +3930,24 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>21-03-19 00:00</t>
+          <t>23-07-19 00:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>21-04-19 23:59</t>
+          <t>04-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ավտոտնտեսության վարիչ</t>
+          <t>Ճարտարագետ (Տեխնիկական Սպասարկում)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>GNC-ALFA CJSC, Rostelecom Group</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3912,15 +3957,15 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3935,24 +3980,24 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>23-07-19 00:00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Smart Software Engineer (Full Stack)</t>
+          <t>Call Center Agent-German Language (Night shift)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3962,11 +4007,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3975,7 +4020,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Competitive with bonuses from deliveries</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3985,42 +4030,42 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>22-07-19 00:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>05-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
+          <t>Senior Auditor</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t xml:space="preserve">Asatryans LLC </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Audit</t>
         </is>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4030,47 +4075,47 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>22-07-19 00:00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Խաղերի բաժնի աշխատակից</t>
+          <t xml:space="preserve">QA Specialist </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4080,47 +4125,47 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>22-07-19 00:00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>22-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Տեղեկատու բաժնի աշխատակցուհի</t>
+          <t>Full Stack .Net Developer</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4130,24 +4175,29 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>22-07-19 00:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>22-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Store Manager</t>
+          <t>IT Specialist</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4157,11 +4207,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Computer Services, Support</t>
         </is>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4170,7 +4220,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4180,34 +4230,34 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>22-07-19 00:00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>22-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ստաժորների Ներգրավման Մրցույթ/ Վարկային մասնագետ</t>
+          <t>Contact Center Hero</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Ginosi Apartels and Hotels</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Պրակտիկա</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="E79">
@@ -4215,7 +4265,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4225,219 +4275,229 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>22-07-19 00:00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>22-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ստաժորների Ներգրավման Մրցույթ/ Հաշվապահ-Գանձապահ </t>
+          <t>A&amp;MS Circuit Design Manager II</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Պրակտիկա</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>22-07-19 00:00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>12-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Վաճառող-խորհրդատու</t>
+          <t>Senior R&amp;D Engineer</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>22-07-19 00:00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>12-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Վաճառող-խորհրդատու</t>
+          <t>Mid-level Technical Writer</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Մանրածախ առևտուր</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>22-07-19 00:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>12-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Senior-Level Embedded Developer</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NewPlast CJSC</t>
+          <t>Heltun</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, based on previous experience + company shares</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>20-07-19 00:00</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>20-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PHP Application Developer</t>
+          <t>Analog &amp;Mixed Signal Circuit Design Engineer</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ginosi Apartels and Hotels</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4455,12 +4515,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4470,24 +4530,24 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>20-07-19 00:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>20-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Senior PHP Application Developer</t>
+          <t>Senior Layout Design Engineer</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ginosi Apartels and Hotels</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4501,16 +4561,16 @@
         </is>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4520,24 +4580,24 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>20-03-19 00:00</t>
+          <t>20-07-19 00:00</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>18-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Facility Management Specialist</t>
+          <t>R&amp;D Manager, II</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HSBC Bank Armenia CJSC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4547,7 +4607,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E86">
@@ -4560,7 +4620,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4570,19 +4630,24 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>19-03-19 00:00</t>
+          <t>20-07-19 00:00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>02-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ավագ Հաշվապահ</t>
+          <t>Գլխավոր հաշվապահ</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"HEM" LLC </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4615,42 +4680,42 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>19-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>19-04-19 23:59</t>
+          <t>19-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Վաճառքի և արտահանման մենեջեր</t>
+          <t>Video Editor</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Best Tour LLC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4660,119 +4725,129 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>19-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>14-04-19 23:59</t>
+          <t>02-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Senior Accounting Adviser</t>
+          <t>Ռիսկերի կառավարման գլխավոր մասնագետ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Grant Thornton Legal &amp; Tax LLC</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>19-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>19-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Помощник бухгалтера</t>
+          <t>Ներքին աուդիտի բաժնի պետ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Административная/Офисная</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>от 120.000 до 150.000 драм</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>19-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>19-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Գլխավոր հաշվապահ</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Armenia Wine Factory LLC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4782,11 +4857,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4800,29 +4875,29 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Արագածոտնի մարզ</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>19-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>19-04-19 23:59</t>
+          <t>19-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
+          <t>Payment Services Agent</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>VOLO LLC</t>
+          <t>HSBC Bank Armenia CJSC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4832,11 +4907,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4845,7 +4920,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Competitive, depending on previous experience and skills</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4855,24 +4930,24 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>18-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>18-04-19 23:59</t>
+          <t>06-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ռեստորանային համալիրի մենեջեր</t>
+          <t>Ավագ հաշվապահ</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Նարսան ՍՊԸ</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4882,11 +4957,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4895,7 +4970,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>Բարձր` կախված փորձից</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4905,19 +4980,24 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>18-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>18-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Marketing and Sales Manager</t>
+          <t>Copywriter</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4927,7 +5007,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E94">
@@ -4935,7 +5015,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4950,42 +5030,42 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>18-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>18-04-19 23:59</t>
+          <t>02-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Համակարգային ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cognaize CJSC</t>
+          <t>Հայկական Ծրագրեր ՍՊԸ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4995,24 +5075,29 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>18-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>18-04-19 23:59</t>
+          <t>19-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Լաբորանտ</t>
+          <t>Կորպորատիվ վաճառքի մենեջեր</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>360  Շինբազա ՍՊԸ</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5022,20 +5107,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Սննդի արտադրություն</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> 100 000 դրամ + % վաճաքներից + պարգևավճարներ</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5045,34 +5130,34 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>18-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>18-04-19 23:59</t>
+          <t>19-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ֆինանսական բաժնի կրտսեր մասնագետ</t>
+          <t>VIP Account Manager</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E97">
@@ -5080,39 +5165,39 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>16-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>06-04-19 23:59</t>
+          <t>02-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>.Net Developer (Full Stack)</t>
+          <t xml:space="preserve"> SEO Specialist</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5122,7 +5207,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E98">
@@ -5135,7 +5220,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5145,24 +5230,24 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>15-03-19 00:00</t>
+          <t>19-07-19 00:00</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>06-04-19 23:59</t>
+          <t>02-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Database Administrator (DBA) </t>
+          <t>Information Security Specialist</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>BetConstruct</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5185,7 +5270,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5195,124 +5280,119 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>15-03-19 00:00</t>
+          <t>18-07-19 00:00</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>06-04-19 23:59</t>
+          <t>01-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Automation QA Engineer</t>
+          <t>Որակի  վերահսկման պատասխանատու, Ապրանքագետ</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>Spayka LLC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Գյուղատնտեսություն</t>
         </is>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>15-03-19 00:00</t>
+          <t>18-07-19 00:00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>06-04-19 23:59</t>
+          <t>18-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Digital Marketing Projects Manager</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Yerevan Mall</t>
+          <t xml:space="preserve">Խաղավար </t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>15-03-19 00:00</t>
+          <t>18-07-19 00:00</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>15-04-19 23:59</t>
+          <t>18-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Վաճառող-խորհրդատու</t>
+          <t>Ավիատոմսերի վաճառքի գործակալ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ashley Homestore</t>
+          <t>Best Tour  Travel Agency</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5322,11 +5402,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Տուրիզմ, Հյուրանոցային գործ</t>
         </is>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5335,7 +5415,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>աշխատավարձ+բոնուս</t>
+          <t>Հարցազրույցի արդյունքներով</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5345,24 +5425,24 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>14-03-19 00:00</t>
+          <t>18-07-19 00:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>14-04-19 23:59</t>
+          <t>18-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Personal Banker</t>
+          <t>Senior ASIC Physical Design Engineer</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Byblos Bank Armenia CJSC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5372,11 +5452,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5385,7 +5465,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Competitive salary, plus benefits</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5395,24 +5475,24 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>14-03-19 00:00</t>
+          <t>18-07-19 00:00</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>14-04-19 23:59</t>
+          <t>08-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Անհատական Բանկիր</t>
+          <t>Ինժեներ-մեխանիկ</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Byblos Bank Armenia CJSC</t>
+          <t>Armenia Wine Factory LLC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5422,7 +5502,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E104">
@@ -5445,134 +5525,134 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>14-03-19 00:00</t>
+          <t>17-07-19 00:00</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>14-04-19 23:59</t>
+          <t>17-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Փրկարար</t>
+          <t>Automation QA Engineer</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Praemium RA LLC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>14-03-19 00:00</t>
+          <t>17-07-19 00:00</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>14-04-19 23:59</t>
+          <t>01-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Կահույքի ներմուծման մենեջեր</t>
+          <t>.Net Developer (Full Stack)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Praemium RA LLC</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>14-03-19 00:00</t>
+          <t>17-07-19 00:00</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>14-04-19 23:59</t>
+          <t>01-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Շեֆ-խոհարար</t>
+          <t>Manual QA Engineer</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Praemium RA LLC</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>QA, Quality Control</t>
         </is>
       </c>
       <c r="E107">
@@ -5580,53 +5660,53 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Ռուսաստան, Մոսկվա</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>14-03-19 00:00</t>
+          <t>17-07-19 00:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>14-04-19 23:59</t>
+          <t>01-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ներմուծման մենեջեր</t>
+          <t>Հաշվետար</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>VAS Group Ltd</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Կես դրույք</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5645,114 +5725,119 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>17-07-19 00:00</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>17-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Контент-менеджер</t>
+          <t>Պահածոների տեխնոլոգ</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Контент менеджер</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>120,000-150,000 AMD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>17-07-19 00:00</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>17-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Специалист Call-центра</t>
+          <t>Վաճառող-Խորհրդատու /Գյումրի</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Административная/Офисная</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>от 100.000 до 250.000 драмов</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Գյումրի</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>17-07-19 00:00</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>17-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Recruiter</t>
+          <t>Front-End (Angular+React.js) Engineer — Senior</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5762,20 +5847,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HR, Recruiting, Staffing</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5785,42 +5870,42 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>17-07-19 00:00</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>17-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Նախահաշիվ կազմող ինժեներ</t>
+          <t>Product Result Analyst</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5830,39 +5915,39 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>17-07-19 00:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>02-04-19 23:59</t>
+          <t>17-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր-մատենավար</t>
+          <t>DevOps Engineer with AWS Experience</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E113">
@@ -5870,139 +5955,139 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>16-07-19 00:00</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Միջոցառումների մենեջեր</t>
+          <t>Python Developer — Senior</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>16-07-19 00:00</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Սոցիալ Մեդիա Մարքեթինգ մասնագետ</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Heltun</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Base Salary Plus Commission</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>16-07-19 00:00</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Շուկայի զարգացման պատասխանատու  (իգական սեռի)</t>
+          <t>Ավագ Խոհարար</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -6012,15 +6097,15 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -6035,34 +6120,34 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>16-07-19 00:00</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
+          <t>Մատուցող (ուհի)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Սպասարկող անձնակազմ</t>
         </is>
       </c>
       <c r="E117">
@@ -6070,7 +6155,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6085,24 +6170,24 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>16-07-19 00:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Գլխավոր Հաշվապահ</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t>Alyans BSM LLC</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6112,15 +6197,15 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6135,64 +6220,74 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>13-03-19 00:00</t>
+          <t>16-07-19 00:00</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>13-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Շուկայի զարգացման պատասխանատու</t>
+          <t>Senior ASIC Physical Design Engineer</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Computer - Hardware</t>
         </is>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>12-03-19 00:00</t>
+          <t>16-07-19 00:00</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>06-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ավագ հաշվապահ</t>
+          <t>Հաշվետար</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6206,7 +6301,7 @@
         </is>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6215,7 +6310,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Առձեռն 200,000 դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6225,179 +6320,184 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>12-03-19 00:00</t>
+          <t>16-07-19 00:00</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Սպասուհի</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Comprehensive remuneration package</t>
+          <t>80 000-90 000 ՀՀ դրամ</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>12-03-19 00:00</t>
+          <t>16-07-19 00:00</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>08-04-19 23:59</t>
+          <t>16-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Սպորտային իրադարձությունների վերլուծաբան</t>
+          <t>Financial Specialist</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t xml:space="preserve">Noymed LLC </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>130.000 ՀՀ Դրամ+%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>12-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ադմինիստրատիվ օգնական</t>
+          <t>Legal Counsel</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t xml:space="preserve">Noymed LLC </t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>130.000 ՀՀ Դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>12-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Աշխատանքի պլանավորման և վերստուգման մասնագետ</t>
+          <t>SAS Programmer</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t xml:space="preserve">Noymed LLC </t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E124">
@@ -6405,89 +6505,89 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>140.000 ՀՀԴ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>12-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Հեռախոսավար / Զանգերի  կենտրոնի օպերատոր (Ռուսերենի իմացությամբ)</t>
+          <t>Junior Procurement Specialist</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Nikita Mobile</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Purchasing/Procurement</t>
         </is>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>12-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>05-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Investment Officer</t>
+          <t>Շինարարական աշխատանքների ղեկավար</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Gazelle Finance Universal Credit Organization LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6497,20 +6597,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Loans, Lending, Mortgages</t>
+          <t>Construction Specialist</t>
         </is>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Competitive salary, plus participation in the company incentive program and standard benefits.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6520,24 +6620,24 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>12-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Executive Assistant</t>
+          <t>QA Specialist</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Gazelle Finance Universal Credit Organization LLC</t>
+          <t>Cognaize CJSC</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6547,11 +6647,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Executive Assistant</t>
+          <t>QA, Quality Control</t>
         </is>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6560,7 +6660,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Competitive salary, plus participation in the company incentive program and standard benefits.</t>
+          <t>Based on Experience</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6570,42 +6670,42 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>12-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>12-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Development Content Writer</t>
+          <t>Ընդունարանի աշխատակից</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>American University of Armenia</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Տուրիզմ, Հյուրանոցային գործ</t>
         </is>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6615,47 +6715,47 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>11-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>10-04-19 17:45</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Legal Advisor</t>
+          <t>Հյուրանոցային համալիրի պատասխանատու</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AAB Construction</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Տուրիզմ, Հյուրանոցային գործ</t>
         </is>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6665,29 +6765,29 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>07-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>05-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Վարկային  մասնագետ</t>
+          <t>Վաճառող-Խորհրդատու /Գավառ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6697,11 +6797,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6710,34 +6810,34 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Գավառ</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>07-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>07-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Angular Developer</t>
+          <t>MICE/Tourism Manager</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>VOLO LLC</t>
+          <t>Go2Armenia</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6747,7 +6847,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Meeting, Events Management</t>
         </is>
       </c>
       <c r="E131">
@@ -6755,12 +6855,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>High School Diploma</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Competitive, depending on previous experience and skills</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6770,34 +6870,34 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>07-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>07-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Մարզիչ</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Կրթություն/Ուսուցում</t>
         </is>
       </c>
       <c r="E132">
@@ -6805,7 +6905,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6815,29 +6915,29 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>06-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>06-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Տնօրենի օգնական</t>
+          <t>Կառուսելներ սպասարկող մասնագետ/Էլեկտրոնշիկ</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ՔԼԱԲ ՍԻՔՍԹԻՆ ԷՅԷՄ ՓԲԸ</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6847,11 +6947,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6860,7 +6960,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6870,74 +6970,74 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>05-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>05-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Full Stack Developer </t>
+          <t>Վաճառքի մասնագետ</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>VEHERE Interactive Private  Limited</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>120 000 ՀՀ  դրամ + բոնուսներ</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>05-03-19 00:00</t>
+          <t>15-07-19 00:00</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>05-04-19 23:59</t>
+          <t>15-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>C/C++ Developer</t>
+          <t>Product Owner</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>VEHERE Interactive Private  Limited</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6947,20 +7047,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6970,24 +7070,24 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>05-03-19 00:00</t>
+          <t>13-07-19 00:00</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>05-04-19 23:59</t>
+          <t>05-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Database Administrator </t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>VEHERE Interactive Private  Limited</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6997,20 +7097,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7020,42 +7120,37 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>05-03-19 00:00</t>
+          <t>13-07-19 00:00</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>05-04-19 23:59</t>
+          <t>03-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Web Developer</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>VEHERE Interactive Private  Limited</t>
+          <t>Լոգիստ-Կոորդինատոր</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -7065,34 +7160,34 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>05-03-19 00:00</t>
+          <t>12-07-19 00:00</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>05-04-19 23:59</t>
+          <t>12-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Բեռնափոխադրումների դիսպետչեր</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Առաքում, բեռնափոխադրում</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E138">
@@ -7100,7 +7195,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -7110,29 +7205,29 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>04-03-19 00:00</t>
+          <t>12-07-19 00:00</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>04-04-19 23:59</t>
+          <t>12-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ինժեներ-մեխանիկ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Spayka LLC</t>
+          <t>Խայծ Իշխան ՍՊԸ</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7142,15 +7237,15 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -7165,24 +7260,24 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>04-03-19 00:00</t>
+          <t>12-07-19 00:00</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>04-04-19 23:59</t>
+          <t>12-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Գլխավոր հաշվապահի տեղակալ</t>
+          <t xml:space="preserve"> Դրամային մենեջեր</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>"Grand Candy"  LLC</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7196,7 +7291,7 @@
         </is>
       </c>
       <c r="E140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -7215,92 +7310,92 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>04-03-19 00:00</t>
+          <t>11-07-19 00:00</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>04-04-19 23:59</t>
+          <t>11-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ալյուկաբոնդի արտադրամասի ղեկավար</t>
+          <t>Personal Banker</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Byblos Bank Armenia CJSC</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Գործադիր պաշտոններ</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
+          <t>Competitive salary, plus benefits</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>02-03-19 00:00</t>
+          <t>11-07-19 00:00</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>02-04-19 23:59</t>
+          <t>11-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Մերչենդայզեր</t>
+          <t>Live Casino Trainer</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -7310,29 +7405,29 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>01-03-19 00:00</t>
+          <t>10-07-19 00:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>01-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Business Development Specialist</t>
+          <t>Junior - Mid PHP Developer</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noymed LLC </t>
+          <t>Ginosi Apartels and Hotels</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7342,15 +7437,15 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7365,24 +7460,24 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>01-03-19 00:00</t>
+          <t>10-07-19 00:00</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>01-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Մսագործ</t>
+          <t>Օպերատոր</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Թոփ Շինտեխ ՍՊԸ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7392,7 +7487,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Խոհանոցի աշխատակազմ</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E144">
@@ -7405,7 +7500,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>պայմանագրային</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7415,24 +7510,24 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>01-03-19 00:00</t>
+          <t>10-07-19 00:00</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>01-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>խոհարարի օգնական</t>
+          <t>Շեֆ խոհարար</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7442,15 +7537,15 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7460,47 +7555,42 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Ռուսաստան, Մոսկվա</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>01-03-19 00:00</t>
+          <t>10-07-19 00:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>01-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>X-Group</t>
+          <t>Head of Human Resources Department</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>HR, Recruiting, Staffing</t>
         </is>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -7510,117 +7600,1257 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Ռուսաստան, Մոսկվա</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>01-03-19 00:00</t>
+          <t>10-07-19 00:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>01-04-19 23:59</t>
+          <t>10-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Գլխավոր ինժեներ</t>
+          <t>International Tender Coordinator</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DeltaPro LLC</t>
+          <t>M-Group LLC</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Արտադրության ինժեներ</t>
+          <t>Purchasing/Procurement</t>
         </is>
       </c>
       <c r="E147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>մրցունակ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>01-03-19 00:00</t>
+          <t>09-07-19 00:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>01-04-19 23:59</t>
+          <t>09-08-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Մաքրության բաժնի մենեջեր</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>EfuSoft LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
+        </is>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Միջնակարգ դպրոցի ատեստատ</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>130.000 ՀՀ Դրամ</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>09-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>09-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Senior JS Developer</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>BetConstruct</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
           <t>Full Time</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Master Degree (MD)</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Armenia, Yerevan</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>09-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>09-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Receptionist</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digitain </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Full Time</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Administrative/Clerical</t>
+        </is>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Bachelor Degree (BS)</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Armenia, Yerevan</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>09-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>04-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Bartender</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Radisson Blu Hotel Yerevan</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Bartender</t>
+        </is>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Profesional School/College</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Armenia, Yerevan</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>08-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>08-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Event Coordinator/Sales department</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Radisson Blu Hotel Yerevan</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Full Time</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Hospitality, Tourism, Hotel</t>
+        </is>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Bachelor Degree (BS)</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Armenia, Yerevan</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>08-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>08-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Տեխնիկ</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Radisson Blu Hotel Yerevan</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
+        </is>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>08-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>08-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Վերլուծաբան – ՌԿՏ, Վարկային ռիսկերի կառավարման վարչության վարկառուների մշտադիտարկման ուղղություն</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Ardshinbank CJSC</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+        </is>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>08-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>02-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Ապրանքագետ (HoReCa)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>X-Group</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Վաճառք</t>
+        </is>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>08-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>08-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Վաճառող-Խորհրդատու /Երևան</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Mobile Centre Art LLC</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Հաճախորդների սպասարկում</t>
+        </is>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Բարձր</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>08-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>08-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Տնտեսական գծով պատասխանատու</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digitain </t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Վարչական/Գրասենյակային</t>
+        </is>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>--------</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>05-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>05-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Sales Agent</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Ginosi Apartels and Hotels</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Full Time</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="E148">
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Bachelor Degree (BS)</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Armenia, Yerevan</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>04-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>04-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Sales and Marketing Manager</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Full Time</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Advertising, Marketing, PR</t>
+        </is>
+      </c>
+      <c r="E159">
         <v>3</v>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>Bachelor Degree (BS)</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
         <is>
           <t>Armenia, Yerevan</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>01-03-19 00:00</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>01-04-19 23:59</t>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>04-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>04-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Product Owner</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>BetConstruct</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Full Time</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Bachelor Degree (BS)</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Armenia, Yerevan</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>04-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>04-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ՄՌ կառավարիչ</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>C&amp;F Co LLC</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Մարդկային Ռեսուրսներ, Կադրեր</t>
+        </is>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>03-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>03-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Վաճառքի բաժնի ավագ մասնագետ</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Webapricot</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Վաճառք</t>
+        </is>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>--------</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>150.000-300 000</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>02-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>02-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Վաճառքի մենեջեր</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>“Profpanel” LLC</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Վաճառք</t>
+        </is>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>02-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>02-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Ռեստորանային համալիրի ղեկավար</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>X-Group</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Գործադիր պաշտոններ</t>
+        </is>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Բարձր</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>02-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>02-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Անասնաբույծ-կենդանապահ</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>X-Group</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Առողջապահություն</t>
+        </is>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>02-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>02-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Ֆինանսական բաժնի օգնական</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Sovrano LLC</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>02-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>02-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Վաճառքի գծով ներկայացուցիչ /Երևան</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Sovrano LLC</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Վաճառք</t>
+        </is>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>01-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>01-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Հաշվետար</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Aquatus</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Հաշվետար</t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>01-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>01-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Waitress/Waiter</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Cinemastar Company LLC</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Part Time</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Waitstaff, Catering</t>
+        </is>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>High School Diploma</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Armenia, Yerevan</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>01-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>01-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Գլխավոր Հաշվապահ</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>X-Group</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>01-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>01-08-19 23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ավագ հաշվապահ</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Լրիվ դրույք</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+        </is>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Բակալավրի մակարդակ</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Մրցունակ գումարած պարգևավճարներ</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Հայաստան, Երևան</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>01-07-19 00:00</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>01-08-19 23:59</t>
         </is>
       </c>
     </row>

--- a/Scrapping_test/jobfinder.xlsx
+++ b/Scrapping_test/jobfinder.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,67 +412,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SQL Developer/Business Analyst</t>
+          <t>Պահածոների, չրերի, չիպսերի ու մրգային բատոնների արտադրամասում հաշվապահ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Competitive, based on experience</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>01-08-19 00:00</t>
+          <t>02-12-19 00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>01-09-19 23:59</t>
+          <t>02-01-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>K-8 Teacher/Music</t>
+          <t>Պահահածոների, չրերի, չիպսերի ու մրգային բատոնների արտադրության Տեխնոլոգ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Contract</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Education/Training</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E3">
@@ -480,149 +485,149 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Negotiable and based on experience</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31-07-19 11:00</t>
+          <t>02-12-19 00:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21-08-19 23:59</t>
+          <t>02-01-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Պահահածոների, չրերի, չիպսերի ու մրգային բատոնների արտադրության տնօրեն</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Գործադիր պաշտոններ</t>
         </is>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Competitive </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31-07-19 00:00</t>
+          <t>02-12-19 00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>13-08-19 23:59</t>
+          <t>02-01-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Старший бухгалтер</t>
+          <t>Մեխանիկ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Mehrabyan and Sons LLC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Банки, Финансы, Бухгалтерия</t>
+          <t>Ինժեներ-մեխանիկ</t>
         </is>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конкурентный </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31-07-19 00:00</t>
+          <t>02-12-19 00:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13-08-19 23:59</t>
+          <t>02-01-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ավագ Հաշվապահ</t>
+          <t xml:space="preserve">Middle .NET Engineer </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E6">
@@ -630,44 +635,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31-07-19 00:00</t>
+          <t>02-12-19 00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>13-08-19 23:59</t>
+          <t>22-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Специалист По Закупкам</t>
+          <t>Վարորդ-Առաքիչ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Покупки</t>
+          <t>Առաքում, բեռնափոխադրում</t>
         </is>
       </c>
       <c r="E7">
@@ -675,149 +685,149 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>120,000-200,000 AMD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31-07-19 00:00</t>
+          <t>02-12-19 00:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>31-08-19 23:59</t>
+          <t>02-01-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mid-Level Full Stack Web Developer</t>
+          <t>Հյուրընկալ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Open to your demands</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31-07-19 00:00</t>
+          <t>02-12-19 00:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31-08-19 23:59</t>
+          <t>02-01-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senior Full Stack Web Developer</t>
+          <t>Առևտրային Մարքեթինգի ներկայացուցիչ, Սյունիք</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t xml:space="preserve">JTI ARMENIA CJSC </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Competitive with bonuses from deliveries</t>
+          <t>Մրցակցային, գերազանց մասնագիտական զարգացում և կարիերայի զարգացման հնարավորություններ</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Գեղարքունիքի մարզ</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31-07-19 00:00</t>
+          <t>30-11-19 00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու /Աբովյան</t>
+          <t xml:space="preserve"> Trade Marketing Representative, Syunik</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t xml:space="preserve">JTI ARMENIA CJSC </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E10">
@@ -825,39 +835,39 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>Competitive compensation, excellent professional development and career opportunities</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Հայաստան, Աբովյան</t>
+          <t>Armenia, Kapan</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31-07-19 00:00</t>
+          <t>30-11-19 00:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>31-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու /Ապարան</t>
+          <t>Մարքեթինգի մասնագետ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -867,11 +877,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Գովազդ,Մարկետինգ, PR</t>
         </is>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -880,52 +890,52 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Հայաստան, Ապարան</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>31-07-19 00:00</t>
+          <t>29-11-19 00:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>31-08-19 23:59</t>
+          <t>29-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Վարորդ-Առաքիչ</t>
+          <t>SMM specialist</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ARGE Business LLC</t>
+          <t xml:space="preserve">Alpha Food Service LLC </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Առաքում, բեռնափոխադրում</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Թերի միջնակարգ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -935,29 +945,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>31-07-19 00:00</t>
+          <t>29-11-19 00:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>31-08-19 23:59</t>
+          <t>29-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Առևտրի ներկայացուցիչ (պրեսելեր)/ Ք. Երևան</t>
+          <t>Մատակարարման և միջազգային կապերի բաժնի մասնագետ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ARGE Business LLC</t>
+          <t>"Grand Candy"  LLC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +977,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Նախնական վաճառք և հետ վաճառք</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E13">
@@ -990,42 +1000,42 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>31-07-19 00:00</t>
+          <t>29-11-19 00:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>31-08-19 23:59</t>
+          <t>29-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Առևտրի ներկայացուցիչ (պրեսելեր) / Ք. Կապան</t>
+          <t>IT Specialist</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ARGE Business LLC</t>
+          <t xml:space="preserve">Noymed LLC </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1035,47 +1045,47 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Հայաստան, Սյունիքի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>30-07-19 00:00</t>
+          <t>29-11-19 00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>30-08-19 23:59</t>
+          <t>29-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Training &amp; Performance Evaluation Coordinator</t>
+          <t>Տրանսպորտատեխնիկական միջոցների շահագործման և սպասարկման մասնագետ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>American University of Armenia</t>
+          <t>ARGE Business LLC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Education/Training</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1085,29 +1095,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>30-07-19 00:00</t>
+          <t>29-11-19 00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>31-08-19 23:59</t>
+          <t>29-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ինժեներ-Չափագրող </t>
+          <t>Ինժեներ-էլեկտրոնշիկ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1117,11 +1127,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Ինժեներ-Էլեկտրիկ</t>
         </is>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1135,29 +1145,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>30-07-19 00:00</t>
+          <t>29-11-19 00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>30-08-19 23:59</t>
+          <t>29-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ոսկերիչ / Էջմիածին մ/ճ </t>
+          <t>Մեխանիկ-փականագործ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,15 +1177,15 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Արտադրություն</t>
         </is>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1185,79 +1195,79 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Հայաստան, Էջմիածին</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>30-07-19 00:00</t>
+          <t>29-11-19 00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>07-08-19 23:59</t>
+          <t>29-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Documentation QA/Technical Writer</t>
+          <t>Սառնարանային մասնագետ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Արտադրություն</t>
         </is>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>30-07-19 00:00</t>
+          <t>29-11-19 00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20-08-19 23:59</t>
+          <t>29-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mid-level A&amp;MS Circuit Design Engineer</t>
+          <t>C/C++ Developer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>VEHERE Interactive Private  Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1280,7 +1290,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>AMD 200,000 per month</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1290,24 +1300,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>30-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Senior A&amp;MS Layout Design Engineer</t>
+          <t>Web Developer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>VEHERE Interactive Private  Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1317,7 +1327,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E20">
@@ -1330,7 +1340,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>AMD 200,000 per month</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1340,34 +1350,34 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>30-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Թարգմանիչ </t>
+          <t>Product Engineer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ֆաբերլիկ Զակավկազյե ՍՊԸ</t>
+          <t>VEHERE Interactive Private  Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Թարգմանչություն</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E21">
@@ -1375,49 +1385,49 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>180 000</t>
+          <t>AMD 200,000 per month</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>29-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Զոդոզ/Փականագործ</t>
+          <t>Sound Designer</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E22">
@@ -1425,7 +1435,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1435,29 +1445,29 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>29-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ագրոնոմ/ Կանաչապատման մասնագետ</t>
+          <t xml:space="preserve">Ադմինիստրատիվ ասիստենտ </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>SPS Cigaronne  LLC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1467,7 +1477,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Գյուղատնտեսություն</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E23">
@@ -1480,7 +1490,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1490,24 +1500,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>29-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ալյումինե դռներ և պատուհաններ  տեղադրող</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1517,20 +1527,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1540,34 +1550,34 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>29-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brand Manager</t>
+          <t>Կաթսայատան փականագործ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E25">
@@ -1575,57 +1585,57 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>08-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>Acti Group</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1640,24 +1650,24 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>08-08-19 23:59</t>
+          <t>27-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ /Մասիս</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>Kaskad Realty</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1680,48 +1690,48 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>70.000+%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Հայաստան, Մասիս</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>19-08-19 23:59</t>
+          <t>12-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1C 8.3 ծրագրավորող</t>
+          <t>Մարքեթինգի մասնագետ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>Kaskad Realty</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Անկանոն</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Գովազդ,Մարկետինգ, PR</t>
         </is>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1740,38 +1750,38 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>03-08-19 23:59</t>
+          <t>12-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Data Architect</t>
+          <t>Հաճախորդների սպասարկման մասնագետ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>TotoGaming LLC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1780,184 +1790,184 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Java Engineer — Senior</t>
+          <t>Օպերատոր, Փականագործ, Մեխանիկ, Տեխնոլոգ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Python Developer — Team Leader</t>
+          <t>Էլեկտրիկ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ինժեներ-Էլեկտրիկ</t>
         </is>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>VoIP Engineer</t>
+          <t>Սանտեխնիկ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>29-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>28-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PR and Brand Manager</t>
+          <t xml:space="preserve">Operational Risk Specialist </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1967,7 +1977,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E33">
@@ -1975,7 +1985,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1990,29 +2000,29 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>26-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Հաշվարկների Գծով Մասնագետ</t>
+          <t>Գործառնական ռիսկերի կառավարման մասնագետ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2021,7 +2031,7 @@
         </is>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2030,7 +2040,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2040,24 +2050,24 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>26-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր</t>
+          <t>Գործառնական ռիսկի փորձաքննության ուղղության պատասխանատու</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2067,11 +2077,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2090,42 +2100,42 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>26-07-19 00:00</t>
+          <t>28-11-19 00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>26-08-19 23:59</t>
+          <t>08-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Օգնական-գործավարուհի</t>
+          <t>Lawyer</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2135,224 +2145,229 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>26-07-19 00:00</t>
+          <t>27-11-19 00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>26-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Technical Writer</t>
+          <t>Իրավաբան</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Իրավական</t>
         </is>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>26-07-19 00:00</t>
+          <t>27-11-19 00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>06-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ASIC/Layout Design Engineer</t>
+          <t>ՀՀ ԿԲ հաշվետվությունների բաժնի 2-րդ կարգի մասնագետ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>26-07-19 00:00</t>
+          <t>27-11-19 00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>02-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Senior ASIC Digital Design Engineer</t>
+          <t>Անվտանգության բաժնի ղեկավար</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Անվտանգություն</t>
         </is>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>27-11-19 00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>25-08-19 23:59</t>
+          <t>27-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Специалист Call-центра</t>
+          <t>Ավտոփականագործ/շարժիչագործ</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Административная/Офисная</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Միջնակարգ դպրոցի ատեստատ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120,000-250,000 AMD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>27-11-19 00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>25-08-19 23:59</t>
+          <t>19-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
+          <t>Պահեստապետ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>M-Group LLC</t>
+          <t>Mehrabyan and Sons LLC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2362,11 +2377,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Վարչական օգնական</t>
+          <t>Պահեստ</t>
         </is>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2385,37 +2400,42 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>27-11-19 00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>25-08-19 23:59</t>
+          <t>27-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Շուկայի Զարգացման Պատասխանատու</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mehrabyan and Sons LLC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Graphic Design</t>
+          <t>Վաճառքի գծով ներկայացուցիչ</t>
         </is>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2425,74 +2445,74 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>27-11-19 00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>25-08-19 23:59</t>
+          <t>27-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ադմինիստրատիվ ասիստենտ </t>
+          <t>Branch Intern</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SPS Cigaronne  LLC</t>
+          <t>HSBC Bank Armenia CJSC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Internship</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>27-11-19 00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>25-08-19 23:59</t>
+          <t>08-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Մատակարար</t>
+          <t>Ավտոէլեկտրիկ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2507,15 +2527,15 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Միջնակարգ դպրոցի ատեստատ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2525,39 +2545,39 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>25-08-19 23:59</t>
+          <t>19-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Սպորտային բժիշկ</t>
+          <t>Alumni Engagement and Fundraising Coordinator</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>American University of Armenia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Առողջապահություն</t>
+          <t>Receptionist</t>
         </is>
       </c>
       <c r="E45">
@@ -2565,7 +2585,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2575,29 +2595,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>25-08-19 23:59</t>
+          <t>25-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Junior A&amp;MS Circuit Design Engineer</t>
+          <t>Weapon Contamination Field Officer</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t xml:space="preserve">International Committee of the Red Cross Delegation in Armenia </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2607,11 +2627,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2620,7 +2640,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2630,24 +2650,24 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>11-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mid-level A&amp;MS Circuit Design Engineer, II</t>
+          <t>Weapon Contamination Field Officer</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>International Committee of the Red Cross Mission  in Nagorno-Karabakh</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2657,7 +2677,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="E47">
@@ -2670,44 +2690,44 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Nagorno-Karabaкh, Stepanakert</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>11-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mid-level A&amp;MS Circuit Design Engineer </t>
+          <t>Վաճառքի խորհրդատու</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Wurth LLC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E48">
@@ -2715,107 +2735,107 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A&amp;MS Circuit Design Engineer, Staff</t>
+          <t>Զանգերի կենտրոնի օպերատոր</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Մատուցող / Մատուցողուհի</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noymed LLC </t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2825,79 +2845,79 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>25-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Senior SAS Programmer</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noymed LLC </t>
+          <t>Alyans BSM LLC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>150.000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>25-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Գնումների մասնագետ</t>
+          <t>Դիսպետչեր</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Spayka LLC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2907,11 +2927,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Գնումներ</t>
+          <t>Առաքում, բեռնափոխադրում</t>
         </is>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2920,7 +2940,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Աշխատավարձ</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2930,24 +2950,19 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>07-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Մաքրուհի</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>BetConstruct</t>
+          <t>Օնլայն խորհրդատու</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2957,65 +2972,65 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր աշխատավարձ</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Աբովյան</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>16-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Սպորտային լրագրող (պրակտիկանտ)</t>
+          <t>Senior/Mid React.js Developer</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Betting Solutions LLC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Լրագրող</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3025,47 +3040,47 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>25-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>07-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Օբյեկտ  մենեջեր </t>
+          <t>Support Specialist</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Թոփ Շինտեխ ՍՊԸ</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3075,29 +3090,29 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>24-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>24-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ServiceDesk Specialist</t>
+          <t xml:space="preserve">QA Specialist </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3107,11 +3122,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3130,24 +3145,24 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>24-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>24-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Incident Management Specialist</t>
+          <t>Graphic and UI/UX Designer</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3157,11 +3172,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3180,24 +3195,24 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>24-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>24-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Junior Key Account Manager</t>
+          <t>Full Stack .Net Developer</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3207,11 +3222,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3230,24 +3245,24 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>24-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>03-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Social Media Marketing Specialist</t>
+          <t>IT Specialist</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M-Group LLC</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3257,11 +3272,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Computer Services, Support</t>
         </is>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3280,24 +3295,24 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>24-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>24-08-19 23:59</t>
+          <t>26-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Խանութների ցանցի համակարգչային օպերատոր</t>
+          <t>Ներմուծման և գնումների գծով մենեջեր</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SALI</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3307,11 +3322,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3330,34 +3345,34 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>24-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>19-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DevOps Engineer with Docker Experience</t>
+          <t>Վաճառքի և ներմուծման մենեջեր</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E61">
@@ -3365,139 +3380,139 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Ռուսաստան, Մոսկվա</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>24-07-19 00:00</t>
+          <t>26-11-19 00:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>17-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Node.js Engineer — Senior</t>
+          <t>Անվտանգության  պրոֆեսիոնալ աշխատակից</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Անվտանգություն</t>
         </is>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>24-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>17-08-19 23:59</t>
+          <t>19-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Contact Center Agent</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HSBC Bank Armenia CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t xml:space="preserve">200.000 ՀՀ դրամ </t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>24-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>18-08-19 23:59</t>
+          <t>20-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ներմուծման գծով մասնագետ</t>
+          <t>Հրուշակեղենի մասնագետ</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>360  Շինբազա ՍՊԸ</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3507,65 +3522,65 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Ռուսաստան, Մոսկվա</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>23-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>23-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Talent Acquisition Specialist</t>
+          <t>Խորհրդատու-վաճառողուհի</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HR, Recruiting, Staffing</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3575,29 +3590,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>23-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>22-08-19 23:59</t>
+          <t>12-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկման գործակալ /Գերմաներեն</t>
+          <t>Սոցիալ Մեդիա Մարքեթինգի մասնագետ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CMX Solutions</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3607,15 +3622,15 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Գովազդ,Մարկետինգ, PR</t>
         </is>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3630,24 +3645,24 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>23-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>23-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Call Center Agent /German</t>
+          <t>HR Manager</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CMX Solutions</t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3657,11 +3672,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>HR, Recruiting, Staffing</t>
         </is>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3675,39 +3690,39 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Nagorno-Karabaкh, Stepanakert</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>23-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>23-08-19 23:59</t>
+          <t>25-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Managing Editor</t>
+          <t xml:space="preserve">Ինժեներ-Չափագրող </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>American University of Armenia</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E68">
@@ -3715,7 +3730,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3725,34 +3740,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>23-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>06-08-19 17:45</t>
+          <t>25-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Արտահանման մասնագետ</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Երևանի Շամպայն Գինիների Գործարան</t>
+          <t>Խորհրդատու-վաճառող(ուհի)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3761,11 +3771,11 @@
         </is>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3780,34 +3790,29 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>23-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>23-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Շուկայի զարգացման պատասխանատու</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Երևանի Շամպայն Գինիների Գործարան</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="E70">
@@ -3830,24 +3835,19 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>23-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>23-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Կադրերի Բաժնի մասնագետ</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Երևանի Շամպայն Գինիների Գործարան</t>
+          <t>Տեխնիկական բաժնի տնօրենի օգնական</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3857,11 +3857,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Մարդկային Ռեսուրսներ, Կադրեր</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3880,38 +3880,33 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>23-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>23-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Մարքեթինգային հաղորդակցությունների վարչության պետ</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Սուպերմարկետի տնօրեն</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Գործադիր պաշտոններ</t>
         </is>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3930,74 +3925,74 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>23-07-19 00:00</t>
+          <t>25-11-19 00:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>04-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ճարտարագետ (Տեխնիկական Սպասարկում)</t>
+          <t>Front End Developer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GNC-ALFA CJSC, Rostelecom Group</t>
+          <t>Unit LLC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>23-07-19 00:00</t>
+          <t>23-11-19 00:00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>16-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Call Center Agent-German Language (Night shift)</t>
+          <t xml:space="preserve">Graphic Designer </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Unit LLC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4007,11 +4002,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Graphics</t>
         </is>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4020,7 +4015,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly Competitive</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4030,24 +4025,24 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>22-07-19 00:00</t>
+          <t>23-11-19 00:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>05-08-19 23:59</t>
+          <t>16-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Senior Auditor</t>
+          <t>Digital Content Manager/PR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asatryans LLC </t>
+          <t>Ginosi Apartels and Hotels</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4057,11 +4052,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Audit</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4080,24 +4075,24 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>22-07-19 00:00</t>
+          <t>23-11-19 00:00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>23-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">QA Specialist </t>
+          <t>Contact Center Hero</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>Ginosi Apartels and Hotels</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4107,11 +4102,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4130,42 +4125,42 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>22-07-19 00:00</t>
+          <t>23-11-19 00:00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>22-08-19 23:59</t>
+          <t>23-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Full Stack .Net Developer</t>
+          <t>Կահույքի վարպետ</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4175,47 +4170,47 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>22-07-19 00:00</t>
+          <t>23-11-19 00:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>22-08-19 23:59</t>
+          <t>18-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IT Specialist</t>
+          <t>Նախահաշիվ կազմող ինժեներ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Computer Services, Support</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4225,79 +4220,79 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>22-07-19 00:00</t>
+          <t>23-11-19 00:00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>22-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Contact Center Hero</t>
+          <t>Վաճառքի  մասնագետ</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ginosi Apartels and Hotels</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Reservations</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>22-07-19 00:00</t>
+          <t>23-11-19 00:00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>22-08-19 23:59</t>
+          <t>11-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A&amp;MS Circuit Design Manager II</t>
+          <t>Content Writer (Spanish)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4307,7 +4302,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E80">
@@ -4320,7 +4315,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4330,47 +4325,47 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>22-07-19 00:00</t>
+          <t>22-11-19 00:00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>12-08-19 23:59</t>
+          <t>10-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Senior R&amp;D Engineer</t>
+          <t>English Speaking Call Agent</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Armada LLC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4380,234 +4375,229 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>22-07-19 00:00</t>
+          <t>22-11-19 00:00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>12-08-19 23:59</t>
+          <t>22-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mid-level Technical Writer</t>
+          <t>Начальник учебного отдела</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Ереванский филиал РЭУ имени Г.В. Плеханова</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Образование/Обучение</t>
         </is>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень магистра</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>22-07-19 00:00</t>
+          <t>22-11-19 00:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>12-08-19 23:59</t>
+          <t>22-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Senior-Level Embedded Developer</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Heltun</t>
+          <t>Специалист Call-центра</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Административная/Офисная</t>
         </is>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Competitive, based on previous experience + company shares</t>
+          <t>120,000-250,000 AMD</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>20-07-19 00:00</t>
+          <t>22-11-19 00:00</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>20-08-19 23:59</t>
+          <t>22-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Analog &amp;Mixed Signal Circuit Design Engineer</t>
+          <t>Սպասարկող մասնագետ/ Գորիս մ/ճ</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Գորիս</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20-07-19 00:00</t>
+          <t>22-11-19 00:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>03-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Senior Layout Design Engineer</t>
+          <t>2-րդ կարգի մասնագետ – ԽԱՎ, Սնանկության գործընթացների  ուղեկցման բաժին</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>20-07-19 00:00</t>
+          <t>22-11-19 00:00</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>03-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>R&amp;D Manager, II</t>
+          <t>Որակի վերահսկման պատասխանատու/Ապրանքագետ</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Spayka LLC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E86">
@@ -4615,39 +4605,39 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>20-07-19 00:00</t>
+          <t>22-11-19 00:00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>22-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Գլխավոր հաշվապահ</t>
+          <t>Բրենդ շեֆ խոհարարի տեղակալ պրոդուկտների զարգացման գծով</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">"HEM" LLC </t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4657,20 +4647,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4680,124 +4670,124 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>22-11-19 00:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>19-08-19 23:59</t>
+          <t>22-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Video Editor</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>ZEGA LLC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>150,000 ՀՀԴ</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>02-08-19 23:59</t>
+          <t>11-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ռիսկերի կառավարման գլխավոր մասնագետ</t>
+          <t>Специалсит по техническому обслуживанию</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Информационные технологии</t>
         </is>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>Kонкурентный</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>21-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ներքին աուդիտի բաժնի պետ</t>
+          <t>Տեխնիկական սպասարկման մասնագետ</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4807,11 +4797,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4830,74 +4820,74 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>21-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Գլխավոր հաշվապահ</t>
+          <t>Technical support specialist</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Armenia Wine Factory LLC</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Competitive </t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Հայաստան, Արագածոտնի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>19-08-19 23:59</t>
+          <t>21-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Payment Services Agent</t>
+          <t>Credit Specialist in Head Office</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HSBC Bank Armenia CJSC</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4911,7 +4901,7 @@
         </is>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4930,24 +4920,24 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>06-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ավագ հաշվապահ</t>
+          <t xml:space="preserve">Վարկային մասնագետ գլխամասային գրասենյակում </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Նարսան ՍՊԸ</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4961,7 +4951,7 @@
         </is>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4970,7 +4960,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Բարձր` կախված փորձից</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4980,24 +4970,24 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Copywriter</t>
+          <t>Credit Specialist in branch</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5007,11 +4997,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5030,24 +5020,24 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>02-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Համակարգային ադմինիստրատոր</t>
+          <t>Վարկային մասնագետ մասնաճյուղում</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Հայկական Ծրագրեր ՍՊԸ</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5057,11 +5047,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -5070,7 +5060,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5080,34 +5070,34 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>19-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Կորպորատիվ վաճառքի մենեջեր</t>
+          <t>Ավտոկայանի աշխատակից</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>360  Շինբազա ՍՊԸ</t>
+          <t>Yerevan Mall</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Առաքում, բեռնափոխադրում</t>
         </is>
       </c>
       <c r="E96">
@@ -5120,7 +5110,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 000 դրամ + % վաճաքներից + պարգևավճարներ</t>
+          <t>5000 ՀՀ դրամ/օր</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5130,42 +5120,42 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>19-08-19 23:59</t>
+          <t>21-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>VIP Account Manager</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5175,29 +5165,29 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>02-08-19 23:59</t>
+          <t>04-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEO Specialist</t>
+          <t>Content Writer (Russian)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5230,24 +5220,24 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>19-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>02-08-19 23:59</t>
+          <t>05-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Information Security Specialist</t>
+          <t>Biostatistician</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t xml:space="preserve">Noymed LLC </t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5257,11 +5247,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5280,24 +5270,24 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>18-07-19 00:00</t>
+          <t>21-11-19 00:00</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>01-08-19 23:59</t>
+          <t>21-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Որակի  վերահսկման պատասխանատու, Ապրանքագետ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Spayka LLC</t>
+          <t>Zigzag LLC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5307,11 +5297,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Գյուղատնտեսություն</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5330,79 +5320,84 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>18-07-19 00:00</t>
+          <t>20-11-19 00:00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>18-08-19 23:59</t>
+          <t>20-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Խաղավար </t>
+          <t xml:space="preserve">Office IT Engineer </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>18-07-19 00:00</t>
+          <t>20-11-19 00:00</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>18-08-19 23:59</t>
+          <t>20-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ավիատոմսերի վաճառքի գործակալ</t>
+          <t>Database Administrator</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Best Tour  Travel Agency</t>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Տուրիզմ, Հյուրանոցային գործ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E102">
@@ -5410,39 +5405,39 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Հարցազրույցի արդյունքներով</t>
+          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, dynamic team of qualified professionals</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>18-07-19 00:00</t>
+          <t>20-11-19 00:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>18-08-19 23:59</t>
+          <t>20-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Senior ASIC Physical Design Engineer</t>
+          <t>UI/UX Designer</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5456,16 +5451,16 @@
         </is>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5475,24 +5470,24 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>18-07-19 00:00</t>
+          <t>20-11-19 00:00</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>08-08-19 23:59</t>
+          <t>20-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Ինժեներ-մեխանիկ</t>
+          <t>Հաշվապահ-ֆինանսիստ</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Armenia Wine Factory LLC</t>
+          <t>Light Affect</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5502,7 +5497,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E104">
@@ -5525,34 +5520,34 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>17-07-19 00:00</t>
+          <t>20-11-19 00:00</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>17-08-19 23:59</t>
+          <t>12-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Automation QA Engineer</t>
+          <t>Խորհրդատու-վաճառող(ուհի)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>SALI</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E105">
@@ -5560,39 +5555,39 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>17-07-19 00:00</t>
+          <t>20-11-19 00:00</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>01-08-19 23:59</t>
+          <t>05-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>.Net Developer (Full Stack)</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>VOLO LLC</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5615,7 +5610,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>Competitive, depending on previous experience and skills</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5625,24 +5620,24 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>17-07-19 00:00</t>
+          <t>20-11-19 00:00</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>01-08-19 23:59</t>
+          <t>16-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Manual QA Engineer</t>
+          <t>NOC Engineer</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Praemium RA LLC</t>
+          <t>VOLO LLC</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5652,11 +5647,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>QA, Quality Control</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5665,7 +5660,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
+          <t>Competitive, depending on previous experience and skills</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5675,42 +5670,37 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>17-07-19 00:00</t>
+          <t>20-11-19 00:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>01-08-19 23:59</t>
+          <t>20-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>C&amp;F Co LLC</t>
+          <t>PHP Team Lead</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Կես դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5720,124 +5710,129 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>17-07-19 00:00</t>
+          <t>19-11-19 00:00</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>17-08-19 23:59</t>
+          <t>19-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Պահածոների տեխնոլոգ</t>
+          <t>iOS Senior Developer</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>17-07-19 00:00</t>
+          <t>19-11-19 00:00</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>17-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու /Գյումրի</t>
+          <t>Senior Java Developer</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Հայաստան, Գյումրի</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>17-07-19 00:00</t>
+          <t>19-11-19 00:00</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>17-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Front-End (Angular+React.js) Engineer — Senior</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5851,16 +5846,16 @@
         </is>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5870,24 +5865,24 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>17-07-19 00:00</t>
+          <t>19-11-19 00:00</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>17-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Product Result Analyst</t>
+          <t>QA Specialist</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5897,11 +5892,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5910,7 +5905,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, dynamic team of qualified professionals</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5920,24 +5915,24 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>17-07-19 00:00</t>
+          <t>19-11-19 00:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>17-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DevOps Engineer with AWS Experience</t>
+          <t>Android Senior Developer</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5951,16 +5946,16 @@
         </is>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5970,74 +5965,69 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>16-07-19 00:00</t>
+          <t>19-11-19 00:00</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>12-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Python Developer — Senior</t>
+          <t>Սննդի ոլորտի ինժեներ-տեխնոլոգ</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>"Grand Candy"  LLC</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>16-07-19 00:00</t>
+          <t>19-11-19 00:00</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>08-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Heltun</t>
+          <t>Electro-mechanical Engineer</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -6047,7 +6037,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="E115">
@@ -6060,7 +6050,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Base Salary Plus Commission</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6070,69 +6060,69 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>16-07-19 00:00</t>
+          <t>19-11-19 00:00</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ավագ Խոհարար</t>
+          <t>Rental Agent</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Enterprise Rent-A-Car Armenia</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>Customer Service</t>
         </is>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200.000</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>16-07-19 00:00</t>
+          <t>19-11-19 00:00</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Մատուցող (ուհի)</t>
+          <t>Էլեկտրոմեխանիկ օպերատոր</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6147,65 +6137,65 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Սպասարկող անձնակազմ</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120.000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>16-07-19 00:00</t>
+          <t>19-11-19 00:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>19-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Release Coordinator</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Alyans BSM LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6215,79 +6205,79 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>16-07-19 00:00</t>
+          <t>18-11-19 00:00</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>15-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Senior ASIC Physical Design Engineer</t>
+          <t>Менеджер коммерческого отдела</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>ZEGA LLC</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Computer - Hardware</t>
+          <t>Продажа</t>
         </is>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>200.000 AMD</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>16-07-19 00:00</t>
+          <t>18-11-19 00:00</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>06-08-19 23:59</t>
+          <t>11-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Գինու-Կոնյակի տուն "Շահնազարյան" ՍՊԸ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6297,7 +6287,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E120">
@@ -6315,29 +6305,29 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Եղվարդ</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>16-07-19 00:00</t>
+          <t>15-11-19 00:00</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>12-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Սպասուհի</t>
+          <t>Կրեդիտային վերահսկիչ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>ARGE Business LLC</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6347,7 +6337,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E121">
@@ -6355,12 +6345,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>80 000-90 000 ՀՀ դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6370,24 +6360,24 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>16-07-19 00:00</t>
+          <t>14-11-19 00:00</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>16-08-19 23:59</t>
+          <t>14-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Financial Specialist</t>
+          <t>Risk and Fraud Monitoring Specialist</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noymed LLC </t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6401,7 +6391,7 @@
         </is>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -6420,24 +6410,24 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>14-11-19 00:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>14-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Legal Counsel</t>
+          <t>Risk and Fraud Analysis Specialist</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noymed LLC </t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6447,11 +6437,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -6470,34 +6460,34 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>14-11-19 00:00</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>14-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SAS Programmer</t>
+          <t>Պլաստիկ քարտերի վարչության Հաշվարկների բաժնի պատասխանատու հերթապահ-օպերատորի փորձնակ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noymed LLC </t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Պրակտիկա</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E124">
@@ -6505,7 +6495,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6515,39 +6505,39 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>14-11-19 00:00</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>14-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Junior Procurement Specialist</t>
+          <t>Նախագծերի ղեկավար</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Purchasing/Procurement</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E125">
@@ -6555,7 +6545,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -6565,47 +6555,47 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>14-11-19 00:00</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>14-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Շինարարական աշխատանքների ղեկավար</t>
+          <t>Առևտրի խթանման ծրագրի պատասխանատու</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Construction Specialist</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6615,79 +6605,79 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>14-11-19 00:00</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>14-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>QA Specialist</t>
+          <t>ՄՌԿ-գործավար</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cognaize CJSC</t>
+          <t>Atenk LTD</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>QA, Quality Control</t>
+          <t>Մարդկային Ռեսուրսներ, Կադրեր</t>
         </is>
       </c>
       <c r="E127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Based on Experience</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>13-11-19 00:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ընդունարանի աշխատակից</t>
+          <t>Օգնական-գործավարուհի</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6697,11 +6687,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Տուրիզմ, Հյուրանոցային գործ</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6720,19 +6710,19 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>13-11-19 00:00</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Հյուրանոցային համալիրի պատասխանատու</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6747,11 +6737,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Տուրիզմ, Հյուրանոցային գործ</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6760,34 +6750,34 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120.000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Արմավիրի մարզ</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>13-11-19 00:00</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու /Գավառ</t>
+          <t xml:space="preserve">Խաղավար </t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6797,65 +6787,65 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>օրական 6000 դրամ</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Հայաստան, Գավառ</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>13-11-19 00:00</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MICE/Tourism Manager</t>
+          <t>Կորպորատիվ վաճառքների համակարգող / B2B կոորդինատոր</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Go2Armenia</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Meeting, Events Management</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>High School Diploma</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6865,29 +6855,29 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>13-11-19 00:00</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>13-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Մարզիչ</t>
+          <t>Վաճառող-Խորհրդատու /Արթիկ</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6897,92 +6887,92 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Կրթություն/Ուսուցում</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Արթիկ</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>12-11-19 00:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>12-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Կառուսելներ սպասարկող մասնագետ/Էլեկտրոնշիկ</t>
+          <t>Brand Manager</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Atenk LTD</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>12-11-19 00:00</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>12-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Վաճառքի մասնագետ</t>
+          <t>Կառավարիչ</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6997,11 +6987,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Գործադիր պաշտոններ</t>
         </is>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -7010,7 +7000,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>120 000 ՀՀ  դրամ + բոնուսներ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7020,74 +7010,69 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>15-07-19 00:00</t>
+          <t>12-11-19 00:00</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>15-08-19 23:59</t>
+          <t>12-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Product Owner</t>
+          <t>Լանդշաֆտային դիզայներ</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>13-07-19 00:00</t>
+          <t>11-11-19 00:00</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>05-08-19 23:59</t>
+          <t>02-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7101,16 +7086,16 @@
         </is>
       </c>
       <c r="E136">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>Based on skills and experience</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7120,37 +7105,42 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>13-07-19 00:00</t>
+          <t>11-11-19 00:00</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>03-08-19 23:59</t>
+          <t>11-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Լոգիստ-Կոորդինատոր</t>
+          <t>Brand Manager</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -7160,42 +7150,47 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>12-07-19 00:00</t>
+          <t>09-11-19 00:00</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>12-08-19 23:59</t>
+          <t>09-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>Հաշվապահ</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -7205,29 +7200,29 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>12-07-19 00:00</t>
+          <t>08-11-19 00:00</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>12-08-19 23:59</t>
+          <t>08-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Վաճառքի գծով ներկայացուցիչ/Գեղարքունիք</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Խայծ Իշխան ՍՊԸ</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7237,47 +7232,47 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E139">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>Նախնական 100.000 ՀՀ Դրամ</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Գավառ</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>12-07-19 00:00</t>
+          <t>08-11-19 00:00</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>12-08-19 23:59</t>
+          <t>08-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Դրամային մենեջեր</t>
+          <t>Շրջակա միջավայրի և սոցիալական պատասխանատվության մասնագետ</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t>ContourGlobal Hydro Cascade</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7287,11 +7282,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -7305,97 +7300,97 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Գորիս</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>11-07-19 00:00</t>
+          <t>07-11-19 00:00</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>11-08-19 23:59</t>
+          <t>07-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Personal Banker</t>
+          <t>Վաճառքի և Զարգացման բաժնի աշխատակից</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Byblos Bank Armenia CJSC</t>
+          <t>ImDproc.am</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Competitive salary, plus benefits</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>11-07-19 00:00</t>
+          <t>07-11-19 00:00</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>11-08-19 23:59</t>
+          <t>07-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Live Casino Trainer</t>
+          <t>Հաճախորդների աջակցման կենտրոնի պատասխանատու հերթապահ-օպերատոր/գիշերային/</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -7405,47 +7400,47 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>10-07-19 00:00</t>
+          <t>07-11-19 00:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>07-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Junior - Mid PHP Developer</t>
+          <t>Հաճախորդների աջակցման կենտրոնի մասնագետ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ginosi Apartels and Hotels</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7455,79 +7450,79 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>10-07-19 00:00</t>
+          <t>07-11-19 00:00</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>07-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Օպերատոր</t>
+          <t>Managing Editor</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Թոփ Շինտեխ ՍՊԸ</t>
+          <t>American University of Armenia</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Editor</t>
         </is>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>պայմանագրային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>10-07-19 00:00</t>
+          <t>06-11-19 00:00</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>06-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Շեֆ խոհարար</t>
+          <t>Գյուղատնտեսական վարկերի տրամադրման բաժնի մասնագետ</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7537,15 +7532,15 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7560,29 +7555,34 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>10-07-19 00:00</t>
+          <t>06-11-19 00:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>06-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Head of Human Resources Department</t>
+          <t>Գյուղատնտեսական վարկերի տրամադրման բաժնի պետ</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HR, Recruiting, Staffing</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E146">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -7600,47 +7600,47 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>10-07-19 00:00</t>
+          <t>06-11-19 00:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>10-08-19 23:59</t>
+          <t>06-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>International Tender Coordinator</t>
+          <t>Առևտրային վարկերի գծով մասնագետ</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>M-Group LLC</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Purchasing/Procurement</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7650,52 +7650,52 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>09-07-19 00:00</t>
+          <t>06-11-19 00:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>09-08-19 23:59</t>
+          <t>06-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Մաքրության բաժնի մենեջեր</t>
+          <t>Ստաժորների Ներգրավման Մրցույթ/ Վարկային մասնագետ</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պրակտիկա</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Միջնակարգ դպրոցի ատեստատ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>130.000 ՀՀ Դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7705,42 +7705,42 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>09-07-19 00:00</t>
+          <t>06-11-19 00:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>09-08-19 23:59</t>
+          <t>06-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Senior JS Developer</t>
+          <t>Ստաժորների Ներգրավման Մրցույթ/ Հաշվապահ-Գանձապահ</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>BetConstruct</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Պրակտիկա</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7750,47 +7750,47 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>09-07-19 00:00</t>
+          <t>06-11-19 00:00</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>09-08-19 23:59</t>
+          <t>06-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>IKO Machinery LLC</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7800,39 +7800,39 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>09-07-19 00:00</t>
+          <t>05-11-19 00:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>04-08-19 23:59</t>
+          <t>05-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Bartender</t>
+          <t>Մսամթերքի տեխնոլոգ</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Radisson Blu Hotel Yerevan</t>
+          <t>Atenk LTD</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Contract</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Bartender</t>
+          <t>Արտադրություն</t>
         </is>
       </c>
       <c r="E151">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Profesional School/College</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7850,29 +7850,29 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>08-07-19 00:00</t>
+          <t>05-11-19 00:00</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>08-08-19 23:59</t>
+          <t>05-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Event Coordinator/Sales department</t>
+          <t>Health and Safety Site Officer</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Radisson Blu Hotel Yerevan</t>
+          <t>ContourGlobal Hydro Cascade</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7882,11 +7882,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Hospitality, Tourism, Hotel</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7900,29 +7900,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Armenia, Goris</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>08-07-19 00:00</t>
+          <t>05-11-19 00:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>08-08-19 23:59</t>
+          <t>05-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Տեխնիկ</t>
+          <t>Ֆինանսական պատասխանատու</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Radisson Blu Hotel Yerevan</t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7932,11 +7932,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -7955,34 +7955,34 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>08-07-19 00:00</t>
+          <t>05-11-19 00:00</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>08-08-19 23:59</t>
+          <t>05-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Վերլուծաբան – ՌԿՏ, Վարկային ռիսկերի կառավարման վարչության վարկառուների մշտադիտարկման ուղղություն</t>
+          <t>SMM-менеджер туроператора</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>NV Tour</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Реклама/Маркетинг, PR</t>
         </is>
       </c>
       <c r="E154">
@@ -7990,39 +7990,39 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>130.000</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>08-07-19 00:00</t>
+          <t>04-11-19 00:00</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>02-08-19 23:59</t>
+          <t>04-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Ապրանքագետ (HoReCa)</t>
+          <t>Ներքին աուդիտի մասնագետ</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -8032,15 +8032,15 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -8055,24 +8055,24 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>08-07-19 00:00</t>
+          <t>04-11-19 00:00</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>08-08-19 23:59</t>
+          <t>04-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու /Երևան</t>
+          <t>Գույքագրման պատասխանատու</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -8082,11 +8082,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -8105,24 +8105,24 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>08-07-19 00:00</t>
+          <t>04-11-19 00:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>08-08-19 23:59</t>
+          <t>04-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Տնտեսական գծով պատասխանատու</t>
+          <t>Ինքնարժեքի հաշվառման բաժնի հաշվապահ</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -8132,15 +8132,15 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -8155,42 +8155,42 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>05-07-19 00:00</t>
+          <t>04-11-19 00:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>05-08-19 23:59</t>
+          <t>04-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sales Agent</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ginosi Apartels and Hotels</t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Ռեստորանի կառավարում</t>
         </is>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -8200,24 +8200,29 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>04-07-19 00:00</t>
+          <t>04-11-19 00:00</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>04-08-19 23:59</t>
+          <t>04-12-19 23:59</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sales and Marketing Manager</t>
+          <t xml:space="preserve">Recruiter </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -8227,7 +8232,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>HR, Recruiting, Staffing</t>
         </is>
       </c>
       <c r="E159">
@@ -8250,607 +8255,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>04-07-19 00:00</t>
+          <t>04-11-19 00:00</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>04-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Product Owner</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>BetConstruct</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E160">
-        <v>4</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>04-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>04-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>ՄՌ կառավարիչ</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>C&amp;F Co LLC</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Մարդկային Ռեսուրսներ, Կադրեր</t>
-        </is>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>03-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>03-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Վաճառքի բաժնի ավագ մասնագետ</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Webapricot</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Վաճառք</t>
-        </is>
-      </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>--------</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>150.000-300 000</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>02-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>02-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Վաճառքի մենեջեր</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>“Profpanel” LLC</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Վաճառք</t>
-        </is>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>02-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>02-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Ռեստորանային համալիրի ղեկավար</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Գործադիր պաշտոններ</t>
-        </is>
-      </c>
-      <c r="E164">
-        <v>3</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Բարձր</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>02-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>02-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Անասնաբույծ-կենդանապահ</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Առողջապահություն</t>
-        </is>
-      </c>
-      <c r="E165">
-        <v>2</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>02-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>02-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Ֆինանսական բաժնի օգնական</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Sovrano LLC</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>02-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>02-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Վաճառքի գծով ներկայացուցիչ /Երևան</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Sovrano LLC</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Վաճառք</t>
-        </is>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>01-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>01-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Հաշվետար</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Aquatus</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Հաշվետար</t>
-        </is>
-      </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>01-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>01-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Waitress/Waiter</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Cinemastar Company LLC</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Part Time</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Waitstaff, Catering</t>
-        </is>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>High School Diploma</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>01-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>01-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Գլխավոր Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E170">
-        <v>3</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>01-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>01-08-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ավագ հաշվապահ</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E171">
-        <v>3</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Մրցունակ գումարած պարգևավճարներ</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>01-07-19 00:00</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>01-08-19 23:59</t>
+          <t>04-12-19 23:59</t>
         </is>
       </c>
     </row>

--- a/Scrapping_test/jobfinder.xlsx
+++ b/Scrapping_test/jobfinder.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,22 +412,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Պահածոների, չրերի, չիպսերի ու մրգային բատոնների արտադրամասում հաշվապահ</t>
+          <t>Кассир, Сеть филиалов Еревана</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Банки, Финансы, Бухгалтерия</t>
         </is>
       </c>
       <c r="E2">
@@ -435,49 +435,49 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Конкурентный</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>02-12-19 00:00</t>
+          <t>01-07-20 00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>02-01-20 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Պահահածոների, չրերի, չիպսերի ու մրգային բատոնների արտադրության Տեխնոլոգ</t>
+          <t>Cashier, Yerevan branch network</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E3">
@@ -485,39 +485,39 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>02-12-19 00:00</t>
+          <t>01-07-20 00:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>02-01-20 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Պահահածոների, չրերի, չիպսերի ու մրգային բատոնների արտադրության տնօրեն</t>
+          <t>Գանձապահ, Երևանյան մասնաճյուղային ցանց</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Գործադիր պաշտոններ</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E4">
@@ -535,12 +535,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -550,34 +550,34 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>02-12-19 00:00</t>
+          <t>01-07-20 00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>02-01-20 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Մեխանիկ</t>
+          <t>NetSuite Architect</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mehrabyan and Sons LLC</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ինժեներ-մեխանիկ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E5">
@@ -585,34 +585,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>02-12-19 00:00</t>
+          <t>01-07-20 00:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>02-01-20 23:59</t>
+          <t>01-08-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Middle .NET Engineer </t>
+          <t>NetSuite Senior Developer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -650,34 +650,29 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>02-12-19 00:00</t>
+          <t>01-07-20 00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>22-12-19 23:59</t>
+          <t>01-08-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Վարորդ-Առաքիչ</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
+          <t>Юрист</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Առաքում, բեռնափոխադրում</t>
+          <t>Юриспруденция</t>
         </is>
       </c>
       <c r="E7">
@@ -685,7 +680,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -695,189 +690,189 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>02-12-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>02-01-20 23:59</t>
+          <t>30-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Հյուրընկալ</t>
+          <t>Кредитный специалист / Сеть филиалов Еревана</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yeremyan Projects</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Банки, Финансы, Бухгалтерия</t>
         </is>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Конкурентный</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>02-12-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>02-01-20 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Առևտրային Մարքեթինգի ներկայացուցիչ, Սյունիք</t>
+          <t>Loan Officer / Yerevan branch</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">JTI ARMENIA CJSC </t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Մրցակցային, գերազանց մասնագիտական զարգացում և կարիերայի զարգացման հնարավորություններ</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Հայաստան, Գեղարքունիքի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>30-11-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trade Marketing Representative, Syunik</t>
+          <t>Վարկային մասնագետ /Երևանյան մասնաճյուղային ցանց</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">JTI ARMENIA CJSC </t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Competitive compensation, excellent professional development and career opportunities</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Armenia, Kapan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>30-11-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Մարքեթինգի մասնագետ</t>
+          <t>eCommerce Project Manager</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E11">
@@ -885,89 +880,89 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>29-11-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>29-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SMM specialist</t>
+          <t>Վաճառող-Խորհրդատու /Գավառ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alpha Food Service LLC </t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Գավառ</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>29-11-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>29-12-19 23:59</t>
+          <t>20-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Մատակարարման և միջազգային կապերի բաժնի մասնագետ</t>
+          <t>Վաճառող-Խորհրդատու /Վանաձոր</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Grand Candy"  LLC</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -977,7 +972,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Հաճախորդների սպասարկում</t>
         </is>
       </c>
       <c r="E13">
@@ -990,52 +985,52 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Վանաձոր</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>29-11-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>29-12-19 23:59</t>
+          <t>20-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IT Specialist</t>
+          <t>Մանրածախ բիզնեսի զարգացման վարչության պետ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noymed LLC </t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1045,29 +1040,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>29-11-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>29-12-19 23:59</t>
+          <t>10-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Տրանսպորտատեխնիկական միջոցների շահագործման և սպասարկման մասնագետ</t>
+          <t>Կահույքի դիզայներ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ARGE Business LLC</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1077,20 +1072,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1100,124 +1095,124 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>29-11-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>29-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ինժեներ-էլեկտրոնշիկ</t>
+          <t>Специалист группы по входящей коммуникации</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ինժեներ-Էլեկտրիկ</t>
+          <t>Банки, Финансы, Бухгалтерия</t>
         </is>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Конкурентный</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>29-11-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>29-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Մեխանիկ-փականագործ</t>
+          <t xml:space="preserve">Inbound Communication Team Specialist </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Արտադրություն</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>29-11-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>29-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Սառնարանային մասնագետ</t>
+          <t>Մուտքային հաղորդակցության խմբի մասնագետ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Ameriabank CJSC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1227,11 +1222,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Արտադրություն</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1240,94 +1235,94 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>29-11-19 00:00</t>
+          <t>30-06-20 00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>29-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C/C++ Developer</t>
+          <t>Տենդերների մասնակցության և ներմուծման մասնագետ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VEHERE Interactive Private  Limited</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>AMD 200,000 per month</t>
+          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Նյութերի մատակարարման և շինարարական աշխատուժի ներգրավման մենեջեր</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VEHERE Interactive Private  Limited</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E20">
@@ -1335,49 +1330,49 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>AMD 200,000 per month</t>
+          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Product Engineer</t>
+          <t>C# / Visual Basic .NET Ծրագրավորող</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VEHERE Interactive Private  Limited</t>
+          <t>Zigzag LLC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E21">
@@ -1385,53 +1380,53 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>AMD 200,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>05-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sound Designer</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Հարսնաքար հյուրանոցային համալիր</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1440,34 +1435,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>250000-350000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Սևան</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>01-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ադմինիստրատիվ ասիստենտ </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SPS Cigaronne  LLC</t>
+          <t>Վարորդ-Առաքիչ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1477,7 +1467,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Առաքում, բեռնափոխադրում</t>
         </is>
       </c>
       <c r="E23">
@@ -1485,7 +1475,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Թերի միջնակարգ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1500,34 +1490,34 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>DevOps Engineer,  Communications Services</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E24">
@@ -1535,103 +1525,103 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Կաթսայատան փականագործ</t>
+          <t>ASIC Physical Design Engineer</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>ASIC Physical Design Engineer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Acti Group</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1640,7 +1630,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1650,24 +1640,24 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>27-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Էներգետիկ Սանտեխնիկ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kaskad Realty</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1677,20 +1667,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Ճարտարագիտություն, Շինարարություն</t>
         </is>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>70.000+%</t>
+          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1700,38 +1690,38 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>12-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Մարքեթինգի մասնագետ</t>
+          <t>Շինարարական աշխատանքների ղեկավար</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kaskad Realty</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1750,24 +1740,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>12-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկման մասնագետ</t>
+          <t>Օֆիս մենեջեր</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TotoGaming LLC</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1781,16 +1771,16 @@
         </is>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1800,24 +1790,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Օպերատոր, Փականագործ, Մեխանիկ, Տեխնոլոգ</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>X-Group</t>
+          <t>Մանրէաբան</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1827,7 +1812,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E30">
@@ -1835,7 +1820,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1845,47 +1830,47 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Հայաստան, Կոտայքի մարզ</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Էլեկտրիկ</t>
+          <t>Accountant/Operations Manager in IT Company</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Factumsoft LLC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ինժեներ-Էլեկտրիկ</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1895,39 +1880,39 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Սանտեխնիկ</t>
+          <t>Mid-Level Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Factumsoft LLC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E32">
@@ -1935,7 +1920,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1945,29 +1930,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>28-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Operational Risk Specialist </t>
+          <t>Smart Junior Full Stack Web Developer</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Factumsoft LLC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1977,11 +1962,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Computer - Software</t>
         </is>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1990,7 +1975,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Open to your demands</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2000,84 +1985,84 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Գործառնական ռիսկերի կառավարման մասնագետ</t>
+          <t>Analog Design  Engineer</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Գործառնական ռիսկի փորձաքննության ուղղության պատասխանատու</t>
+          <t>ASIC Physical Design Engineer</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E35">
@@ -2085,39 +2070,39 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>28-11-19 00:00</t>
+          <t>29-06-20 00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>08-12-19 23:59</t>
+          <t>29-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lawyer</t>
+          <t>Client Success Representative</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>MoveCo Solutions Inc.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2127,15 +2112,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2150,34 +2135,34 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>27-11-19 00:00</t>
+          <t>27-06-20 00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>15-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Իրավաբան</t>
+          <t>Специалист по кадрам</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Ереванский филиал РЭУ имени Г.В. Плеханова</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Իրավական</t>
+          <t>Отдел кадров и подбор персонала</t>
         </is>
       </c>
       <c r="E37">
@@ -2185,57 +2170,57 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>27-11-19 00:00</t>
+          <t>27-06-20 00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>27-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ՀՀ ԿԲ հաշվետվությունների բաժնի 2-րդ կարգի մասնագետ</t>
+          <t>Лаборант кафедры Экономические науки</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Ереванский филиал РЭУ имени Г.В. Плеханова</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Образование/Обучение</t>
         </is>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2245,252 +2230,247 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>27-11-19 00:00</t>
+          <t>27-06-20 00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>02-12-19 23:59</t>
+          <t>15-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Անվտանգության բաժնի ղեկավար</t>
+          <t>Senior Analog Design  Engineer</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Անվտանգություն</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>27-11-19 00:00</t>
+          <t>27-06-20 00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>27-12-19 23:59</t>
+          <t>27-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ավտոփականագործ/շարժիչագործ</t>
+          <t>Senior ASIC Physical Design Engineer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Միջնակարգ դպրոցի ատեստատ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>27-11-19 00:00</t>
+          <t>27-06-20 00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>19-12-19 23:59</t>
+          <t>27-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Պահեստապետ</t>
+          <t xml:space="preserve">Senior R&amp;D Engineer </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mehrabyan and Sons LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Պահեստ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>27-11-19 00:00</t>
+          <t>27-06-20 00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>27-12-19 23:59</t>
+          <t>27-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t xml:space="preserve">Senior QA Engineer </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mehrabyan and Sons LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>27-11-19 00:00</t>
+          <t>27-06-20 00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>27-12-19 23:59</t>
+          <t>27-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Branch Intern</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>HSBC Bank Armenia CJSC</t>
+          <t>General Director</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Top Management/Executive</t>
         </is>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2500,42 +2480,42 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>27-11-19 00:00</t>
+          <t>26-06-20 00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>08-12-19 23:59</t>
+          <t>26-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ավտոէլեկտրիկ</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Միջնակարգ դպրոցի ատեստատ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2545,47 +2525,47 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>26-06-20 00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>19-12-19 23:59</t>
+          <t>11-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Alumni Engagement and Fundraising Coordinator</t>
+          <t>Մարքեթինգի , վարձակալության և Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>American University of Armenia</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Receptionist</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2595,129 +2575,129 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>25-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Weapon Contamination Field Officer</t>
+          <t>Գլխավոր ինժեներ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">International Committee of the Red Cross Delegation in Armenia </t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>11-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Weapon Contamination Field Officer</t>
+          <t>Գյուղատնտեսական նախագծերի ղեկավար</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>International Committee of the Red Cross Mission  in Nagorno-Karabakh</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Կախված փորձից և հմտություններից</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Nagorno-Karabaкh, Stepanakert</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>11-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Վաճառքի խորհրդատու</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wurth LLC</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2727,11 +2707,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2740,7 +2720,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2750,42 +2730,42 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Զանգերի կենտրոնի օպերատոր</t>
+          <t>Information Security Officer</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Yeremyan Projects</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2795,43 +2775,43 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Մատուցող / Մատուցողուհի</t>
+          <t>Information Security Compliance Officer</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Yeremyan Projects</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2845,29 +2825,29 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Սպառողական վարկավորման գծով գործակալ/ Ստեփանավան մ/ճ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Alyans BSM LLC</t>
+          <t>Unibank OJSC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2877,7 +2857,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E51">
@@ -2885,39 +2865,39 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>150.000 ՀՀ Դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Ստեփանավան</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>03-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Դիսպետչեր</t>
+          <t>Գովազդի բաժնի ղեկավար</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Spayka LLC</t>
+          <t>Zigzag LLC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2927,7 +2907,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Առաքում, բեռնափոխադրում</t>
+          <t>Գովազդ,Մարկետինգ, PR</t>
         </is>
       </c>
       <c r="E52">
@@ -2940,7 +2920,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Աշխատավարձ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2950,19 +2930,24 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Օնլայն խորհրդատու</t>
+          <t>Մաքրուհի</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2972,7 +2957,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Մաքրող, Հավաքարար</t>
         </is>
       </c>
       <c r="E53">
@@ -2980,57 +2965,57 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Բարձր աշխատավարձ</t>
+          <t>70.000 դրամ</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Հայաստան, Աբովյան</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>16-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Senior/Mid React.js Developer</t>
+          <t>Վաճառքի գծով ներկայացուցիչ / Երևան</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Betting Solutions LLC</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3040,29 +3025,29 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Support Specialist</t>
+          <t xml:space="preserve">IT Auditor / Business Risk Services Consultant </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>Grant Thornton CJSC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3076,11 +3061,11 @@
         </is>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3095,42 +3080,42 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">QA Specialist </t>
+          <t>Սպասարկող մասնագետ / Սիսիան մ/ճ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>Ardshinbank CJSC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3140,47 +3125,47 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Սիսիան</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>07-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Graphic and UI/UX Designer</t>
+          <t>Կոմերցիոն տնօրեն</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>Atenk LTD</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Գործադիր պաշտոններ</t>
         </is>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3190,147 +3175,147 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Full Stack .Net Developer</t>
+          <t>Աշխղեկ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Կախված փորձից և հմտություններից</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IT Specialist</t>
+          <t>Նախագծի ղեկավար</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Computer Services, Support</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Կախված փորձից և հմտություններից</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>26-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ներմուծման և գնումների գծով մենեջեր</t>
+          <t>Live Dealer (English or Spanish)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3340,47 +3325,47 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>25-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Վաճառքի և ներմուծման մենեջեր</t>
+          <t>Բանկային և ապահովագրական ոլորտի մասնագիտություններ  առարկայի դասախոս</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>ՀՖՀՀ ( Հայաստանում ֆրանսիական համալսարան Հիմնադրամ)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Մասնագիտական կրթություն</t>
         </is>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3390,47 +3375,47 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Ռուսաստան, Մոսկվա</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>26-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>15-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Անվտանգության  պրոֆեսիոնալ աշխատակից</t>
+          <t>Ինֆորմատիկա և կիրառական մաթեմատիկա ֆակուլտետի դասախոս</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>ՀՖՀՀ ( Հայաստանում ֆրանսիական համալսարան Հիմնադրամ)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Անվտանգություն</t>
+          <t>Կրթություն/Ուսուցում</t>
         </is>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3445,24 +3430,19 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>25-06-20 00:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>19-12-19 23:59</t>
+          <t>15-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>X-Group</t>
+          <t>Արտադրական բաժնի աշխատակից / օպերատոր</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3472,11 +3452,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Արտադրություն</t>
         </is>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3485,34 +3465,29 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">200.000 ՀՀ դրամ </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Կոտայքի մարզ</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>24-06-20 00:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>20-12-19 23:59</t>
+          <t>24-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Հրուշակեղենի մասնագետ</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>X-Group</t>
+          <t>Մերչենդայզեր</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3522,147 +3497,147 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Մերչենդայզեր</t>
         </is>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Պլանային</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Ռուսաստան, Մոսկվա</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>24-06-20 00:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>11-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Խորհրդատու-վաճառողուհի</t>
+          <t>Payments Expert</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>23-06-20 00:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>12-12-19 23:59</t>
+          <t>23-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Սոցիալ Մեդիա Մարքեթինգի մասնագետ</t>
+          <t>Senior SiteCore Developer</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>23-06-20 00:00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>17-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HR Manager</t>
+          <t>Info Consultant</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Yeremyan Projects</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3672,11 +3647,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HR, Recruiting, Staffing</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3690,29 +3665,29 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Nagorno-Karabaкh, Stepanakert</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>23-06-20 00:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>25-12-19 23:59</t>
+          <t>23-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ինժեներ-Չափագրող </t>
+          <t>Ինֆո խորհրդատու</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Evocabank CJSC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3722,11 +3697,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3735,7 +3710,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3745,29 +3720,34 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>23-06-20 00:00</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>25-12-19 23:59</t>
+          <t>23-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Խորհրդատու-վաճառող(ուհի)</t>
+          <t>Բուժքույր</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Դիագեն Պլյուս ՍՊԸ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Առողջապահություն</t>
         </is>
       </c>
       <c r="E69">
@@ -3790,37 +3770,42 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>23-06-20 00:00</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>23-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Գանձապահ</t>
+          <t>Full Stack .Net Developer</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Գանձապահ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3830,83 +3815,93 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>23-06-20 00:00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>23-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Տեխնիկական բաժնի տնօրենի օգնական</t>
+          <t>Tender Specialist</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">High salary </t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>23-06-20 00:00</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>23-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Սուպերմարկետի տնօրեն</t>
+          <t>Ֆինանսական Գործառույթների բաժնի մասնագետ</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Գործադիր պաշտոններ</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3925,84 +3920,84 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>25-11-19 00:00</t>
+          <t>22-06-20 00:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>22-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Front End Developer</t>
+          <t>Զանգերի կենտրոնի մասնագետ</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Unit LLC</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>23-11-19 00:00</t>
+          <t>22-06-20 00:00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>16-12-19 23:59</t>
+          <t>22-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Graphic Designer </t>
+          <t>Սղոցավար</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Unit LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Graphics</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E74">
@@ -4010,39 +4005,39 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Highly Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>23-11-19 00:00</t>
+          <t>22-06-20 00:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>16-12-19 23:59</t>
+          <t>22-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Digital Content Manager/PR</t>
+          <t>Financial Internal Auditor</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ginosi Apartels and Hotels</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4052,11 +4047,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Audit</t>
         </is>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4075,24 +4070,24 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>23-11-19 00:00</t>
+          <t>22-06-20 00:00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>23-12-19 23:59</t>
+          <t>22-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Contact Center Hero</t>
+          <t>Business Process Specialist</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ginosi Apartels and Hotels</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4102,11 +4097,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4125,242 +4120,237 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>23-11-19 00:00</t>
+          <t>22-06-20 00:00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>23-12-19 23:59</t>
+          <t>22-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Կահույքի վարպետ</t>
+          <t xml:space="preserve"> Наладчик</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Ekra Caucasus LLC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Работа общего характера</t>
         </is>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Спец. школа/колледж</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Договорная</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>23-11-19 00:00</t>
+          <t>22-06-20 00:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>18-12-19 23:59</t>
+          <t>22-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Նախահաշիվ կազմող ինժեներ</t>
+          <t>Монтажник электротехнического монтажа</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Ekra Caucasus LLC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Работа общего характера</t>
         </is>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Спец. школа/колледж</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Договорная</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>23-11-19 00:00</t>
+          <t>22-06-20 00:00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>22-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Վաճառքի  մասնագետ</t>
+          <t>Специалист по комплектации</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Ekra Caucasus LLC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Инженерный, Технологический</t>
         </is>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>23-11-19 00:00</t>
+          <t>22-06-20 00:00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>11-12-19 23:59</t>
+          <t>22-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Content Writer (Spanish)</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>SoftConstruct</t>
+          <t>Գործավարուհի</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>160.000 ՀՀԴ +բոնուսներ</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>22-11-19 00:00</t>
+          <t>20-06-20 00:00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>10-12-19 23:59</t>
+          <t>20-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>English Speaking Call Agent</t>
+          <t>Բարմեն</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Armada LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4370,47 +4360,47 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>22-11-19 00:00</t>
+          <t>20-06-20 00:00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>22-12-19 23:59</t>
+          <t>20-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Начальник учебного отдела</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ереванский филиал РЭУ имени Г.В. Плеханова</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Образование/Обучение</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Степень магистра</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4420,34 +4410,39 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>22-11-19 00:00</t>
+          <t>20-06-20 00:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>22-12-19 23:59</t>
+          <t>20-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Специалист Call-центра</t>
+          <t>Վաճառող (ուհի)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Административная/Офисная</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E83">
@@ -4455,39 +4450,39 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>120,000-250,000 AMD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>22-11-19 00:00</t>
+          <t>20-06-20 00:00</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>22-12-19 23:59</t>
+          <t>20-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Սպասարկող մասնագետ/ Գորիս մ/ճ</t>
+          <t>Մատուցող (ուհի)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4497,7 +4492,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ռեստորան, Սննդի սպասարկում</t>
         </is>
       </c>
       <c r="E84">
@@ -4505,39 +4500,39 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Կախված է թեկնածուի աշխատանքային փորձից և հմտություններից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Հայաստան, Գորիս</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>22-11-19 00:00</t>
+          <t>20-06-20 00:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>03-12-19 23:59</t>
+          <t>20-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2-րդ կարգի մասնագետ – ԽԱՎ, Սնանկության գործընթացների  ուղեկցման բաժին</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4551,7 +4546,7 @@
         </is>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4560,7 +4555,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4570,24 +4565,24 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>22-11-19 00:00</t>
+          <t>19-06-20 00:00</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>03-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Որակի վերահսկման պատասխանատու/Ապրանքագետ</t>
+          <t>Տեխնոլոգ</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Spayka LLC</t>
+          <t>Mehrabyan and Sons LLC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4597,11 +4592,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Արտադրություն</t>
         </is>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4620,24 +4615,24 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>22-11-19 00:00</t>
+          <t>19-06-20 00:00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>22-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Բրենդ շեֆ խոհարարի տեղակալ պրոդուկտների զարգացման գծով</t>
+          <t>Շուկայի Զարգացման Պատասխանատու</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Yeremyan Projects</t>
+          <t>Mehrabyan and Sons LLC</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4647,20 +4642,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Վաճառքի գծով ներկայացուցիչ</t>
         </is>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4670,38 +4665,38 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>22-11-19 00:00</t>
+          <t>19-06-20 00:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>22-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Գանձապահ</t>
+          <t>Շին. արտադրամասում տրանսպորտային  միջոցների  համակարգող</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ZEGA LLC</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Մենեջմենթ</t>
         </is>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4710,7 +4705,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>150,000 ՀՀԴ</t>
+          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4720,74 +4715,74 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>19-06-20 00:00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>11-12-19 23:59</t>
+          <t>05-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Специалсит по техническому обслуживанию</t>
+          <t>Հաշվետար</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Информационные технологии</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Kонкурентный</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>19-06-20 00:00</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>21-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Տեխնիկական սպասարկման մասնագետ</t>
+          <t>Փրկարար</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4797,20 +4792,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>Առողջապահություն</t>
         </is>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մասնագիտական դպրոց/քոլեջ</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4820,92 +4815,92 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>19-06-20 00:00</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>21-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Technical support specialist</t>
+          <t>Սննդի գծով հաշվապահ</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Competitive </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>19-06-20 00:00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>21-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Credit Specialist in Head Office</t>
+          <t>Տեղեկատու բաժնի աշխատակցուհի</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4915,34 +4910,34 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>19-06-20 00:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վարկային մասնագետ գլխամասային գրասենյակում </t>
+          <t>Ստաժորների Ներգրավման Մրցույթ/ Հաշվապահ-Գանձապահ</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պրակտիկա</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4951,7 +4946,7 @@
         </is>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4960,7 +4955,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4970,42 +4965,42 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>19-06-20 00:00</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Credit Specialist in branch</t>
+          <t>Ստաժորների Ներգրավման Մրցույթ/ Վարկային մասնագետ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Պրակտիկա</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5015,89 +5010,89 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>19-06-20 00:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>19-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Վարկային մասնագետ մասնաճյուղում</t>
+          <t>Support Specialist</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>18-06-20 00:00</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>18-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ավտոկայանի աշխատակից</t>
+          <t>Վաճառքի գծով ներկայացուցիչ Տավուշի մարզում/Ք. Իջևան</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Yerevan Mall</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Առաքում, բեռնափոխադրում</t>
+          <t>Վաճառքի գծով ներկայացուցիչ</t>
         </is>
       </c>
       <c r="E96">
@@ -5105,34 +5100,34 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>5000 ՀՀ դրամ/օր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Իջևան</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>18-06-20 00:00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>21-12-19 23:59</t>
+          <t>18-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Junior Business Process Specialist</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5142,20 +5137,20 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5165,89 +5160,89 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>18-06-20 00:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>04-12-19 23:59</t>
+          <t>04-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Content Writer (Russian)</t>
+          <t>Ցանցային ադմինիստրատոր / ՏՏ մասնագետ</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SoftConstruct</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Տեղեկատվական Տեխնոլոգիա</t>
         </is>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>18-06-20 00:00</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>05-12-19 23:59</t>
+          <t>18-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Biostatistician</t>
+          <t>Բանվոր</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noymed LLC </t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E99">
@@ -5255,7 +5250,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5265,29 +5260,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>21-11-19 00:00</t>
+          <t>18-06-20 00:00</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>21-12-19 23:59</t>
+          <t>18-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Անվտանգության բաժնի աշխատակից</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Zigzag LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5297,15 +5292,15 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Անվտանգություն</t>
         </is>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5320,74 +5315,74 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>20-11-19 00:00</t>
+          <t>18-06-20 00:00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>20-12-19 23:59</t>
+          <t>18-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Office IT Engineer </t>
+          <t>Խաղերի բաժնի աշխատակից</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>IUNetworks LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>20-11-19 00:00</t>
+          <t>18-06-20 00:00</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>20-12-19 23:59</t>
+          <t>18-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Database Administrator</t>
+          <t>Senior Graphic Designer</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IUNetworks LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5397,11 +5392,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Graphics</t>
         </is>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5410,7 +5405,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, dynamic team of qualified professionals</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5420,24 +5415,24 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>20-11-19 00:00</t>
+          <t>17-06-20 00:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>20-12-19 23:59</t>
+          <t>17-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>UI/UX Designer</t>
+          <t>Marketing Manager</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5447,15 +5442,15 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5470,74 +5465,74 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>20-11-19 00:00</t>
+          <t>17-06-20 00:00</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>20-12-19 23:59</t>
+          <t>01-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Հաշվապահ-ֆինանսիստ</t>
+          <t>Embedded Software Engineer</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Light Affect</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>20-11-19 00:00</t>
+          <t>17-06-20 00:00</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>12-12-19 23:59</t>
+          <t>17-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Խորհրդատու-վաճառող(ուհի)</t>
+          <t>Երաշխիքային և ետերաշխիքային սպասարկման ինժեներ</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SALI</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5547,7 +5542,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Ինժեներական, Տեխնոլոգիական</t>
         </is>
       </c>
       <c r="E105">
@@ -5560,7 +5555,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5570,129 +5565,134 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>20-11-19 00:00</t>
+          <t>17-06-20 00:00</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>05-12-19 23:59</t>
+          <t>17-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>VOLO LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Competitive, depending on previous experience and skills</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>20-11-19 00:00</t>
+          <t>17-06-20 00:00</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>16-12-19 23:59</t>
+          <t>17-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NOC Engineer</t>
+          <t>Սպորտային բժիշկ</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>VOLO LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Առողջապահություն</t>
         </is>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Competitive, depending on previous experience and skills</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>20-11-19 00:00</t>
+          <t>17-06-20 00:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>20-12-19 23:59</t>
+          <t>17-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PHP Team Lead</t>
+          <t>Վարորդ-առաքիչ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Լոգիստիկա</t>
         </is>
       </c>
       <c r="E108">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5710,79 +5710,79 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>19-11-19 00:00</t>
+          <t>17-06-20 00:00</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>19-12-19 23:59</t>
+          <t>17-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>iOS Senior Developer</t>
+          <t>Հաճախորդների սպասարկման ծառայության ղեկավար</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>IUNetworks LLC</t>
+          <t>Vardanants CIM</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Վարչական/Գրասենյակային</t>
         </is>
       </c>
       <c r="E109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>19-11-19 00:00</t>
+          <t>16-06-20 00:00</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>15-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Senior Java Developer</t>
+          <t>B2B Account Manager</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>IUNetworks LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5792,11 +5792,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5815,24 +5815,24 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>19-11-19 00:00</t>
+          <t>16-06-20 00:00</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Projects Implementation Manager</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>IUNetworks LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5842,11 +5842,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="E111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5865,24 +5865,24 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>19-11-19 00:00</t>
+          <t>16-06-20 00:00</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>QA Specialist</t>
+          <t>Unity 3D Team Lead</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>IUNetworks LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, dynamic team of qualified professionals</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5915,137 +5915,137 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>19-11-19 00:00</t>
+          <t>16-06-20 00:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>16-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Android Senior Developer</t>
+          <t>Руководитель офиса компании</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>IUNetworks LLC</t>
+          <t>Араф Корал Клуб</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Топ Менеджмент</t>
         </is>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень магистра</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Competitive salary based on skills and experience; medical insurance, biannual company events, perfect team of qualified professionals.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>19-11-19 00:00</t>
+          <t>16-06-20 00:00</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>12-12-19 23:59</t>
+          <t>05-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Սննդի ոլորտի ինժեներ-տեխնոլոգ</t>
+          <t xml:space="preserve">IT Business Analyst </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>"Grand Candy"  LLC</t>
+          <t>Praemium RA LLC</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">  Competitive, depending on the previous experience and skills, medical insurance, sport activities compensation and professional development opportunities. </t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>19-11-19 00:00</t>
+          <t>16-06-20 00:00</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>08-12-19 23:59</t>
+          <t>02-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Electro-mechanical Engineer</t>
+          <t>Support Specialist</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Part Time</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -6060,24 +6060,24 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>19-11-19 00:00</t>
+          <t>15-06-20 00:00</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>15-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Rental Agent</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Enterprise Rent-A-Car Armenia</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -6087,11 +6087,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Customer Service</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>200.000</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6110,24 +6110,24 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>19-11-19 00:00</t>
+          <t>15-06-20 00:00</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>15-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Էլեկտրոմեխանիկ օպերատոր</t>
+          <t>Հաճախորդների աջակցման կենտրոնի մասնագետ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -6137,11 +6137,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6150,52 +6150,52 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>120.000 ՀՀ Դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>19-11-19 00:00</t>
+          <t>15-06-20 00:00</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>19-12-19 23:59</t>
+          <t>15-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Release Coordinator</t>
+          <t>Հաճախորդների աջակցման կենտրոնի պատասխանատու հերթապահ-օպերատոր /գիշերային/</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6205,89 +6205,89 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>18-11-19 00:00</t>
+          <t>15-06-20 00:00</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>15-12-19 23:59</t>
+          <t>15-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Менеджер коммерческого отдела</t>
+          <t>Իրավաբան</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ZEGA LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Продажа</t>
+          <t>Իրավական</t>
         </is>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>200.000 AMD</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>18-11-19 00:00</t>
+          <t>13-06-20 00:00</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>11-12-19 23:59</t>
+          <t>13-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Finance and Administrative Assistant</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Գինու-Կոնյակի տուն "Շահնազարյան" ՍՊԸ</t>
+          <t>Հայ օգնության ֆոնդի Հայաստանի մասնաճյուղ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Contract</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E120">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6305,29 +6305,29 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Հայաստան, Եղվարդ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>15-11-19 00:00</t>
+          <t>12-06-20 00:00</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>12-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Կրեդիտային վերահսկիչ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ARGE Business LLC</t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6341,7 +6341,7 @@
         </is>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -6360,42 +6360,42 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>14-11-19 00:00</t>
+          <t>12-06-20 00:00</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>14-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Risk and Fraud Monitoring Specialist</t>
+          <t>Ֆինանսական տնօրենի տեղակալ</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6405,47 +6405,47 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>14-11-19 00:00</t>
+          <t>12-06-20 00:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>14-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Risk and Fraud Analysis Specialist</t>
+          <t>Ավագ Հաշվապահ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
         </is>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -6455,43 +6455,43 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>14-11-19 00:00</t>
+          <t>12-06-20 00:00</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>14-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Պլաստիկ քարտերի վարչության Հաշվարկների բաժնի պատասխանատու հերթապահ-օպերատորի փորձնակ</t>
+          <t>Կաթի և կաթնամթերքի տեխնոլոգ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Yeremyan Projects</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Պրակտիկա</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Սննդի արտադրություն</t>
         </is>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6510,24 +6510,24 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>14-11-19 00:00</t>
+          <t>12-06-20 00:00</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>14-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Նախագծերի ղեկավար</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6537,20 +6537,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Մագիստրոսի կոչում</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>230000</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6560,24 +6560,24 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>14-11-19 00:00</t>
+          <t>12-06-20 00:00</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>14-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Առևտրի խթանման ծրագրի պատասխանատու</t>
+          <t>Վարորդ-առաքիչ</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6587,11 +6587,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Լոգիստիկա</t>
         </is>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6605,29 +6605,29 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Վայոց Ձորի մարզ</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>14-11-19 00:00</t>
+          <t>12-06-20 00:00</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>14-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ՄՌԿ-գործավար</t>
+          <t>Վաճառքի գծով ներկայացուցիչ/Կոտայքի մարզ</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Atenk LTD</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6637,11 +6637,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Մարդկային Ռեսուրսներ, Կադրեր</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6650,34 +6650,29 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>250000-350000</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Հայաստան, Աբովյան</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>13-11-19 00:00</t>
+          <t>12-06-20 00:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>12-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Օգնական-գործավարուհի</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
+          <t>Գործավարուհի</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6687,11 +6682,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Ընդունարանի աշխատակից</t>
         </is>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6710,74 +6705,74 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>13-11-19 00:00</t>
+          <t>11-06-20 00:00</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>11-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Business Intelligence Engineer</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>DataArt LLC</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>120.000 ՀՀ Դրամ</t>
+          <t>Highly competitive</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Հայաստան, Արմավիրի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>13-11-19 00:00</t>
+          <t>11-06-20 00:00</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>11-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Խաղավար </t>
+          <t>Աուդիո-վիդեո, բջջային հեռախոսների և համակարգչային տեխնիկայի բաժնի ղեկավար</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Zigzag LLC</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6787,20 +6782,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Մենեջմենթ</t>
         </is>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>օրական 6000 դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6810,34 +6805,34 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>13-11-19 00:00</t>
+          <t>11-06-20 00:00</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>11-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Կորպորատիվ վաճառքների համակարգող / B2B կոորդինատոր</t>
+          <t>Секретарь- референт</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Ekra Caucasus LLC</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Административная/Офисная</t>
         </is>
       </c>
       <c r="E131">
@@ -6845,7 +6840,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень бакалавра</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6855,39 +6850,39 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>13-11-19 00:00</t>
+          <t>10-06-20 00:00</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>13-12-19 23:59</t>
+          <t>10-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու /Արթիկ</t>
+          <t>Главный инженер производства</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>Ekra Caucasus LLC</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Инженерный, Технологический</t>
         </is>
       </c>
       <c r="E132">
@@ -6895,49 +6890,49 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Степень магистра</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Հայաստան, Արթիկ</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>12-11-19 00:00</t>
+          <t>10-06-20 00:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>12-12-19 23:59</t>
+          <t>10-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Brand Manager</t>
+          <t>Главный инженер производства</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Atenk LTD</t>
+          <t>Ekra Caucasus LLC</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Полная ставка</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Инженерный, Технологический</t>
         </is>
       </c>
       <c r="E133">
@@ -6945,7 +6940,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Степень магистра</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6955,29 +6950,29 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Армения, Ереван</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>12-11-19 00:00</t>
+          <t>10-06-20 00:00</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>12-12-19 23:59</t>
+          <t>10-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Կառավարիչ</t>
+          <t>Սպորտային և Վիրտուալ խաղերի վարող</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6987,20 +6982,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Գործադիր պաշտոններ</t>
+          <t>Այլ</t>
         </is>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Թերի միջնակարգ</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7010,69 +7005,74 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>12-11-19 00:00</t>
+          <t>10-06-20 00:00</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>12-12-19 23:59</t>
+          <t>10-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Լանդշաֆտային դիզայներ</t>
+          <t>Product Owner</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>Competitive salary</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>11-11-19 00:00</t>
+          <t>09-06-20 00:00</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>02-12-19 23:59</t>
+          <t>03-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Customer Support Specialist</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digitain </t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7082,11 +7082,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Based on skills and experience</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7105,74 +7105,74 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>11-11-19 00:00</t>
+          <t>09-06-20 00:00</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>11-12-19 23:59</t>
+          <t>09-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Brand Manager</t>
+          <t xml:space="preserve">Սրահի մենեջերի օգնական </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Yeremyan Projects</t>
+          <t>Ashley Homestore</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Լրիվ դրույք</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Բակալավրի մակարդակ</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Աշխատավարձ+բոնուս</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>09-11-19 00:00</t>
+          <t>08-06-20 00:00</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>09-12-19 23:59</t>
+          <t>03-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Խանութ-սրահի ղեկավար</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Yeremyan Projects</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7182,11 +7182,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Մենեջմենթ</t>
         </is>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Բարձր</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7205,24 +7205,24 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>08-11-19 00:00</t>
+          <t>08-06-20 00:00</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>08-12-19 23:59</t>
+          <t>06-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ/Գեղարքունիք</t>
+          <t>Ապակու արտադրամասի ղեկավարի օգնական</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>Prof Al LLC</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7232,11 +7232,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Գործադիր պաշտոններ</t>
         </is>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -7245,48 +7245,48 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Նախնական 100.000 ՀՀ Դրամ</t>
+          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Հայաստան, Գավառ</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>08-11-19 00:00</t>
+          <t>08-06-20 00:00</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>08-12-19 23:59</t>
+          <t>08-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Շրջակա միջավայրի և սոցիալական պատասխանատվության մասնագետ</t>
+          <t>Հաշվապահ-հաշվետար</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ContourGlobal Hydro Cascade</t>
+          <t>ՀՖՀՀ ( Հայաստանում ֆրանսիական համալսարան Հիմնադրամ)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -7300,29 +7300,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Հայաստան, Գորիս</t>
+          <t>Հայաստան, Երևան</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>07-11-19 00:00</t>
+          <t>08-06-20 00:00</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>07-12-19 23:59</t>
+          <t>02-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Վաճառքի և Զարգացման բաժնի աշխատակից</t>
+          <t>Մաքրուհի</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ImDproc.am</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7332,15 +7332,15 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Ընդհանուր բնույթի աշխատանք</t>
         </is>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -7355,42 +7355,42 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>07-11-19 00:00</t>
+          <t>08-06-20 00:00</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>07-12-19 23:59</t>
+          <t>08-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Հաճախորդների աջակցման կենտրոնի պատասխանատու հերթապահ-օպերատոր/գիշերային/</t>
+          <t>Finance Specialist</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -7400,29 +7400,29 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>07-11-19 00:00</t>
+          <t>03-06-20 00:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>07-12-19 23:59</t>
+          <t>03-07-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Հաճախորդների աջակցման կենտրոնի մասնագետ</t>
+          <t>Արտաքին գնումների պլանավորման մասնագետ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Spayka LLC</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7432,11 +7432,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Վաճառք</t>
         </is>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Աշխատավարձ</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7455,812 +7455,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>07-11-19 00:00</t>
+          <t>02-06-20 00:00</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>07-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Managing Editor</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>American University of Armenia</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Editor</t>
-        </is>
-      </c>
-      <c r="E144">
-        <v>2</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>06-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>06-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Գյուղատնտեսական վարկերի տրամադրման բաժնի մասնագետ</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>06-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>06-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Գյուղատնտեսական վարկերի տրամադրման բաժնի պետ</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E146">
-        <v>3</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>06-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>06-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Առևտրային վարկերի գծով մասնագետ</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>06-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>06-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Ստաժորների Ներգրավման Մրցույթ/ Վարկային մասնագետ</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Պրակտիկա</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>06-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>06-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Ստաժորների Ներգրավման Մրցույթ/ Հաշվապահ-Գանձապահ</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Պրակտիկա</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>06-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>06-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>IKO Machinery LLC</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E150">
-        <v>2</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>05-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>05-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Մսամթերքի տեխնոլոգ</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Atenk LTD</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Արտադրություն</t>
-        </is>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>05-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>05-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Health and Safety Site Officer</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>ContourGlobal Hydro Cascade</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="E152">
-        <v>2</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Armenia, Goris</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>05-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>05-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Ֆինանսական պատասխանատու</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E153">
-        <v>5</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>05-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>05-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SMM-менеджер туроператора</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>NV Tour</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Полная ставка</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Реклама/Маркетинг, PR</t>
-        </is>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Степень бакалавра</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>130.000</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Армения, Ереван</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>04-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>04-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Ներքին աուդիտի մասնագետ</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>--------</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>04-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>04-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Գույքագրման պատասխանատու</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>04-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>04-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Ինքնարժեքի հաշվառման բաժնի հաշվապահ</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E157">
-        <v>3</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>04-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>04-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Մենեջեր</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Ռեստորանի կառավարում</t>
-        </is>
-      </c>
-      <c r="E158">
-        <v>2</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>04-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>04-12-19 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recruiter </t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>HR, Recruiting, Staffing</t>
-        </is>
-      </c>
-      <c r="E159">
-        <v>3</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>04-11-19 00:00</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>04-12-19 23:59</t>
+          <t>02-07-20 23:59</t>
         </is>
       </c>
     </row>

--- a/Scrapping_test/jobfinder.xlsx
+++ b/Scrapping_test/jobfinder.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,22 +412,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Кассир, Сеть филиалов Еревана</t>
+          <t>Psychologist</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t xml:space="preserve">International Committee of the Red Cross Delegation in Armenia </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Contract</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Банки, Финансы, Бухгалтерия</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E2">
@@ -435,39 +435,39 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Конкурентный</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Goris</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>01-07-20 00:00</t>
+          <t>07-12-20 00:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12-07-20 23:59</t>
+          <t>15-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cashier, Yerevan branch network</t>
+          <t>Customer Support AgentâEnglish/Russian Language (Mixed shifts)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -477,11 +477,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -500,74 +500,74 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>01-07-20 00:00</t>
+          <t>07-12-20 00:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>12-07-20 23:59</t>
+          <t>25-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Գանձապահ, Երևանյան մասնաճյուղային ցանց</t>
+          <t xml:space="preserve">Customer Support Agent(German Language) </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>01-07-20 00:00</t>
+          <t>07-12-20 00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>12-07-20 23:59</t>
+          <t>25-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NetSuite Architect</t>
+          <t>ASIC Digital Design Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -600,24 +600,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>01-07-20 00:00</t>
+          <t>07-12-20 00:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>01-08-20 23:59</t>
+          <t>27-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NetSuite Senior Developer</t>
+          <t>Analog Design  Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -650,37 +650,42 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>01-07-20 00:00</t>
+          <t>07-12-20 00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>01-08-20 23:59</t>
+          <t>27-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Юрист</t>
+          <t>Storekeeper</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>International Committee of the Red Cross Mission  in Nagorno-Karabakh</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Юриспруденция</t>
+          <t>General Labor</t>
         </is>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Profesional School/College</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -690,89 +695,89 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Nagorno-KarabaÐºh, Stepanakert</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>07-12-20 00:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>30-07-20 23:59</t>
+          <t>17-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Кредитный специалист / Сеть филиалов Еревана</t>
+          <t>Psychologist</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t xml:space="preserve">International Committee of the Red Cross Delegation in Armenia </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Contract</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Банки, Финансы, Бухгалтерия</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Конкурентный</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>07-12-20 00:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12-07-20 23:59</t>
+          <t>15-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Loan Officer / Yerevan branch</t>
+          <t>Ô±Õ·Õ­Õ²Õ¥Õ¯</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô±ÕµÕ¬</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Ô»Õ¶ÕªÕ¥Õ¶Õ¥ÖÕ¡Õ¯Õ¡Õ¶, ÕÕ¥Õ­Õ¶Õ¸Õ¬Õ¸Õ£Õ«Õ¡Õ¯Õ¡Õ¶</t>
         </is>
       </c>
       <c r="E9">
@@ -780,99 +785,99 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>ÕÕ¡Õ½Õ¶Õ¡Õ£Õ«Õ¿Õ¡Õ¯Õ¡Õ¶ Õ¤ÕºÖÕ¸Ö/ÖÕ¸Õ¬Õ¥Õ»</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>Ô¿Õ¡Õ­Õ¾Õ¡Õ® ÖÕ¸ÖÕ±Õ«Ö Ö Õ°Õ´Õ¿Õ¸ÖÕ©ÕµÕ¸ÖÕ¶Õ¶Õ¥ÖÕ«Ö</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>04-12-20 13:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12-07-20 23:59</t>
+          <t>04-01-21 23:59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Վարկային մասնագետ /Երևանյան մասնաճյուղային ցանց</t>
+          <t>ÕÕ¡ÖÕ±Õ¡Õ¯Õ¡Õ¬Õ¸ÖÕ©ÕµÕ¡Õ¶ Ö ÕÕ¡Õ³Õ¡Õ¼ÖÕ« Õ´Õ¥Õ¶Õ¥Õ»Õ¥Ö</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼Ö</t>
         </is>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>04-12-20 13:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12-07-20 23:59</t>
+          <t>04-01-21 23:59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>eCommerce Project Manager</t>
+          <t>Economic Security Generalist</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>International Committee of the Red Cross Mission  in Nagorno-Karabakh</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Advertising, Marketing, PR</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E11">
@@ -890,374 +895,375 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>Nagorno-KarabaÐºh, Stepanakert</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>11-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու /Գավառ</t>
+          <t>Ô²Õ¥Õ¼Õ¶Õ¡ÖÕ¸Õ­Õ¡Õ¤ÖÕ¸ÖÕ´Õ¶Õ¥ÖÕ« Õ¢Õ¡ÕªÕ¶Õ« Õ´Õ¥Õ¶Õ¥Õ»Õ¥Ö</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>Spayka LLC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Ô±Õ¼Õ¡ÖÕ¸ÖÕ´, Õ¢Õ¥Õ¼Õ¶Õ¡ÖÕ¸Õ­Õ¡Õ¤ÖÕ¸ÖÕ´</t>
         </is>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>Ô±Õ·Õ­Õ¡Õ¿Õ¡Õ¾Õ¡ÖÕ±</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Հայաստան, Գավառ</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20-07-20 23:59</t>
+          <t>03-01-21 23:59</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Վաճառող-Խորհրդատու /Վանաձոր</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>ProfAl LLC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկում</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Հայաստան, Վանաձոր</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20-07-20 23:59</t>
+          <t>30-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Մանրածախ բիզնեսի զարգացման վարչության պետ</t>
+          <t>ÕÕ¡Õ­Õ¡Õ°Õ¡Õ·Õ«Õ¾ Õ¯Õ¡Õ¦Õ´Õ¸Õ² Õ¯Õ«Ö Õ¿Õ¶Õ¿Õ¥Õ½Õ¡Õ£Õ¥Õ¿ Õ·Õ«Õ¶Õ¡ÖÕ¡ÖÕ¸ÖÕ©ÕµÕ¡Õ¶ Õ¸Õ¬Õ¸ÖÕ¿Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>ÕÕ¡ÖÕ¿Õ¡ÖÕ¡Õ£Õ«Õ¿Õ¸ÖÕ©ÕµÕ¸ÖÕ¶, ÕÕ«Õ¶Õ¡ÖÕ¡ÖÕ¸ÖÕ©ÕµÕ¸ÖÕ¶</t>
         </is>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">Ô¿Õ¡Õ­Õ¾Õ¡Õ® ÖÕ¸ÖÕ±Õ«Ö Ö Õ°Õ´Õ¿Õ¸ÖÕ©ÕµÕ¸ÖÕ¶Õ¶Õ¥ÖÕ«Ö </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10-07-20 23:59</t>
+          <t>04-01-21 23:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Կահույքի դիզայներ</t>
+          <t>ÕÕ¥ÖÕ¤ÖÕ¸ÖÕ´Õ¡ÕµÕ«Õ¶ ÕºÖÕ¸ÕµÕ¥Õ¯Õ¿Õ¶Õ¥ÖÕ« Õ²Õ¥Õ¯Õ¡Õ¾Õ¡ÖÕ Õ¡Õ¶Õ·Õ¡ÖÕª Õ£Õ¸ÖÕµÖÕ« Õ¸Õ¬Õ¸ÖÕ¿Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>ÕÕ¥Õ¶Õ¥Õ»Õ´Õ¥Õ¶Õ©</t>
         </is>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
+          <t>04-01-21 23:59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Специалист группы по входящей коммуникации</t>
+          <t>ÕÕ¥Õ¶Õ¤Õ¥ÖÕ¶Õ¥ÖÕ« Õ´Õ¡Õ½Õ¶Õ¡Õ¯ÖÕ¸ÖÕ©ÕµÕ¡Õ¶ Ö Õ¶Õ¥ÖÕ´Õ¸ÖÕ®Õ´Õ¡Õ¶ Õ´Õ¡Õ½Õ¶Õ¡Õ£Õ¥Õ¿ Õ·Õ«Õ¶Õ¡ÖÕ¡ÖÕ¡Õ¯Õ¡Õ¶ Õ½Õ¡ÖÖÕ¡Õ¾Õ¸ÖÕ¸ÖÕ´Õ¶Õ¥ÖÕ« Õ´Õ¡Õ½Õ¸Õ¾</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Банки, Финансы, Бухгалтерия</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼Ö</t>
         </is>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Конкурентный</t>
+          <t xml:space="preserve">Ô¿Õ¡Õ­Õ¾Õ¡Õ® ÖÕ¸ÖÕ±Õ«Ö Ö Õ°Õ´Õ¿Õ¸ÖÕ©ÕµÕ¸ÖÕ¶Õ¶Õ¥ÖÕ«Ö </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12-07-20 23:59</t>
+          <t>04-01-21 23:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inbound Communication Team Specialist </t>
+          <t>ÕÕ¥Õ¶Õ¤Õ¥ÖÕ¶Õ¥ÖÕ« Õ´Õ¡Õ½Õ¶Õ¡Õ¯ÖÕ¸ÖÕ©ÕµÕ¡Õ¶ Ö Õ¶Õ¥ÖÕ´Õ¸ÖÕ®Õ´Õ¡Õ¶ Õ´Õ¡Õ½Õ¶Õ¡Õ£Õ¥Õ¿ Õ·Õ«Õ¶Õ¡ÖÕ¡ÖÕ¸ÖÕ©ÕµÕ¡Õ¶ Õ¸Õ¬Õ¸ÖÕ¿Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>Business Center Barekamutyun</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼Ö</t>
         </is>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t xml:space="preserve">Ô¿Õ¡Õ­Õ¾Õ¡Õ® ÖÕ¸ÖÕ±Õ«Ö Ö Õ°Õ´Õ¿Õ¸ÖÕ©ÕµÕ¸ÖÕ¶Õ¶Õ¥ÖÕ«Ö </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12-07-20 23:59</t>
+          <t>04-01-21 23:59</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Մուտքային հաղորդակցության խմբի մասնագետ</t>
+          <t xml:space="preserve">Group Financial Audit Specialist </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ameriabank CJSC</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>30-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12-07-20 23:59</t>
+          <t>20-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Տենդերների մասնակցության և ներմուծման մասնագետ</t>
+          <t>Ô³Õ¬Õ­Õ¡Õ¾Õ¸Ö Õ¿Õ¶Ö+ÖÕ¥Õ¶, Õ·Õ«Õ¶Õ¡ÖÕ¡ÖÕ¸ÖÕ©ÕµÕ¡Õ¶ Õ¯Õ¡Õ¦Õ´Õ¡Õ¯Õ¥ÖÕºÕ¸ÖÕ©ÕµÕ¡Õ¶ Õ£Õ¬Õ­Õ¡Õ¾Õ¸Ö Õ¯Õ¡ÕºÕ¡Õ¬Õ¡Õ¼Õ¸Ö</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1267,12 +1273,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Ô³Õ¸ÖÕ®Õ¡Õ¤Õ«Ö ÕºÕ¡Õ·Õ¿Õ¸Õ¶Õ¶Õ¥Ö</t>
         </is>
       </c>
       <c r="E19">
@@ -1280,34 +1286,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
+          <t xml:space="preserve">Ô¿Õ¡Õ­Õ¾Õ¡Õ® ÖÕ¸ÖÕ±Õ«Ö Ö Õ°Õ´Õ¿Õ¸ÖÕ©ÕµÕ¸ÖÕ¶Õ¶Õ¥ÖÕ«Ö </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>04-12-20 To 04</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Նյութերի մատակարարման և շինարարական աշխատուժի ներգրավման մենեջեր</t>
+          <t>ÕÕ¡Õ·Õ¾Õ¡ÕºÕ¡Õ°Õ Õ·Õ«Õ¶. Õ¸Õ¬Õ¸ÖÕ¿Õ¸ÖÕ´ Õ¡Õ·Õ­. ÖÕ¸ÖÕ±Õ¸Õ¾</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1317,157 +1323,152 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Ô²Õ¡Õ¶Õ¯Õ¡ÕµÕ«Õ¶, ÕÕ¡Õ·Õ¾Õ¡ÕºÕ¡Õ°Õ¡Õ¯Õ¡Õ¶, ÕÕ«Õ¶Õ¡Õ¶Õ½Õ¡Õ¯Õ¡Õ¶</t>
         </is>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
+          <t xml:space="preserve">Ô¿Õ¡Õ­Õ¾Õ¡Õ® ÖÕ¸ÖÕ±Õ«Ö Ö Õ°Õ´Õ¿Õ¸ÖÕ©ÕµÕ¸ÖÕ¶Õ¶Õ¥ÖÕ«Ö </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>04-12-20 To 04</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C# / Visual Basic .NET Ծրագրավորող</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Zigzag LLC</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼ÖÕ« Õ´Õ¡Õ½Õ¶Õ¡Õ£Õ¥Õ¿/Õ«Õ£Õ¡Õ¯Õ¡Õ¶ Õ½Õ¥Õ¼/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼Ö</t>
         </is>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ÕÕ«ÖÕ½Õ¾Õ¡Õ® Õ¡Õ·Õ­Õ¿Õ¾., Õ¯Õ¡Õ­Õ¾Õ¡Õ® Õ®Õ¡Õ¾Õ¡Õ¬Õ«ÖÕ Õ¢Õ¸Õ¶Õ¸ÖÕ½Õ¶Õ¥Ö</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>05-07-20 23:59</t>
+          <t>14-01-21 23:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>Electrical Maintenance Worker (Electrician)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Հարսնաքար հյուրանոցային համալիր</t>
+          <t>US Embassy</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Utilities, Energy, Gas</t>
         </is>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>High School Diploma</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>250000-350000</t>
+          <t>Grade - 6</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Հայաստան, Սևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>01-07-20 23:59</t>
+          <t>17-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Վարորդ-Առաքիչ</t>
+          <t>ÕÕ¡ÖÕ¯Õ¥Õ¿Õ¸Õ¬Õ¸Õ£</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Առաքում, բեռնափոխադրում</t>
+          <t>Ô³Õ¸Õ¾Õ¡Õ¦Õ¤,ÕÕ¡ÖÕ¯Õ¥Õ¿Õ«Õ¶Õ£, PR</t>
         </is>
       </c>
       <c r="E23">
@@ -1475,257 +1476,258 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Թերի միջնակարգ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
+          <t>03-01-21 23:59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DevOps Engineer,  Communications Services</t>
+          <t>Ô²ÕªÕ·Õ¯Õ¡Õ¯Õ¡Õ¶ Õ¶Õ¥ÖÕ¯Õ¡ÕµÕ¡ÖÕ¸ÖÖÕ«Õ¹</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>Demipharm  LLC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ô±Õ¼Õ¸Õ²Õ»Õ¡ÕºÕ¡Õ°Õ¸ÖÕ©ÕµÕ¸ÖÕ¶</t>
         </is>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>30-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ASIC Physical Design Engineer</t>
+          <t>ÕÕ¡ÖÕ¿Õ¡ÖÕ¡Õ£Õ¥Õ¿</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>ProfAl LLC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ô»Õ¶ÕªÕ¥Õ¶Õ¥ÖÕ¡Õ¯Õ¡Õ¶, ÕÕ¥Õ­Õ¶Õ¸Õ¬Õ¸Õ£Õ«Õ¡Õ¯Õ¡Õ¶</t>
         </is>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>04-12-20 00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>30-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ASIC Physical Design Engineer</t>
+          <t>ÕÕ¥Õ½Õ¡Õ°Õ½Õ¯Õ´Õ¡Õ¶ Õ°Õ¡Õ´Õ¡Õ¯Õ¡ÖÕ£Õ« Ö+ÕºÕ¥ÖÕ¡Õ¿Õ¸Ö</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ô±Õ¶Õ¾Õ¿Õ¡Õ¶Õ£Õ¸ÖÕ©ÕµÕ¸ÖÕ¶</t>
         </is>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>03-12-20 00:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>17-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Էներգետիկ Սանտեխնիկ</t>
+          <t>Customer Support Agent-French Language ( Mixed Shifts)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Business Center Barekamutyun</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ճարտարագիտություն, Շինարարություն</t>
+          <t>Administrative/Clerical</t>
         </is>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>02-12-20 00:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>30-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Շինարարական աշխատանքների ղեկավար</t>
+          <t>Coordinator of Internal processes</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Business Center Barekamutyun</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1735,124 +1737,129 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>02-12-20 00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>12-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Օֆիս մենեջեր</t>
+          <t>Education Program Field Officer</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Business Center Barekamutyun</t>
+          <t xml:space="preserve">International Committee of the Red Cross Delegation in Armenia </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Education/Training</t>
         </is>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>01-12-20 00:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>10-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Մանրէաբան</t>
+          <t>Database Developer</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, based on qualifications and work experience</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Հայաստան, Կոտայքի մարզ</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>01-12-20 00:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>30-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Accountant/Operations Manager in IT Company</t>
+          <t>.Net Developer</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1862,11 +1869,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Administrative/Clerical</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1875,7 +1882,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, based on qualifications and work experience</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1885,42 +1892,42 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>01-12-20 00:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>01-01-21 23:59</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mid-Level Full Stack Web Developer</t>
+          <t>Health Field Officer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t xml:space="preserve">International Committee of the Red Cross Delegation in Armenia </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Contract</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1935,24 +1942,24 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>30-11-20 00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>10-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Smart Junior Full Stack Web Developer</t>
+          <t>ÕÕ¡Õ·Õ¾Õ¡ÕºÕ¡Õ°</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Factumsoft LLC</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1962,20 +1969,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Computer - Software</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Open to your demands</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1985,24 +1992,24 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>27-11-20 00:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>11-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Analog Design  Engineer</t>
+          <t>C++ Developer</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2016,16 +2023,16 @@
         </is>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>Competitive</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2035,24 +2042,24 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>26-11-20 00:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>27-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ASIC Physical Design Engineer</t>
+          <t>Legal Counsel</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2062,7 +2069,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="E35">
@@ -2070,12 +2077,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2085,34 +2092,34 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>29-06-20 00:00</t>
+          <t>26-11-20 00:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>29-07-20 23:59</t>
+          <t>15-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Client Success Representative</t>
+          <t>ÕÕ¥ÖÖÕ«Õ¶ Ô±Õ¸ÖÕ¤Õ«Õ¿Õ« ÕÕ¡Õ½Õ¶Õ¡Õ£Õ¥Õ¿</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MoveCo Solutions Inc.</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Ô±Õ¸ÖÕ¤Õ«Õ¿</t>
         </is>
       </c>
       <c r="E36">
@@ -2130,47 +2137,42 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>27-06-20 00:00</t>
+          <t>26-11-20 00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>15-07-20 23:59</t>
+          <t>10-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Специалист по кадрам</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Ереванский филиал РЭУ имени Г.В. Плеханова</t>
+          <t>ÕÕ¡ÖÕ¸ÖÕ¤-Ô±Õ¼Õ¡ÖÕ«Õ¹</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Отдел кадров и подбор персонала</t>
+          <t>Ô±Õ¼Õ¡ÖÕ¸ÖÕ´, Õ¢Õ¥Õ¼Õ¶Õ¡ÖÕ¸Õ­Õ¡Õ¤ÖÕ¸ÖÕ´</t>
         </is>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Ô¹Õ¥ÖÕ« Õ´Õ«Õ»Õ¶Õ¡Õ¯Õ¡ÖÕ£</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2180,39 +2182,39 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>27-06-20 00:00</t>
+          <t>26-11-20 00:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>27-07-20 23:59</t>
+          <t>26-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Лаборант кафедры Экономические науки</t>
+          <t>ÕÕ«Õ½Õ¯Õ¥ÖÕ« Õ¾Õ¥ÖÕ¬Õ¸ÖÕ®Õ¸ÖÕ©ÕµÕ¡Õ¶ Õ¢Õ¡ÕªÕ¶Õ« ÕºÕ¥Õ¿</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ереванский филиал РЭУ имени Г.В. Плеханова</t>
+          <t>Unibank OJSC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Образование/Обучение</t>
+          <t>Ô²Õ¡Õ¶Õ¯Õ¡ÕµÕ«Õ¶, ÕÕ¡Õ·Õ¾Õ¡ÕºÕ¡Õ°Õ¡Õ¯Õ¡Õ¶, ÕÕ«Õ¶Õ¡Õ¶Õ½Õ¡Õ¯Õ¡Õ¶</t>
         </is>
       </c>
       <c r="E38">
@@ -2220,7 +2222,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2230,29 +2232,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>27-06-20 00:00</t>
+          <t>26-11-20 00:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>15-07-20 23:59</t>
+          <t>26-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Senior Analog Design  Engineer</t>
+          <t>Group Financial Reporting Specialist</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2262,11 +2264,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2275,7 +2277,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2285,187 +2287,194 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>27-06-20 00:00</t>
+          <t>25-11-20 00:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>27-07-20 23:59</t>
+          <t>15-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Senior ASIC Physical Design Engineer</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼ÖÕ« Õ­Õ¸ÖÕ°ÖÕ¤Õ¡Õ¿Õ¸Ö</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Premium Machinery AM LLC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼Ö</t>
         </is>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>27-06-20 00:00</t>
+          <t>25-11-20 00:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>27-07-20 23:59</t>
+          <t>25-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Senior R&amp;D Engineer </t>
+          <t>ÐÑÑ+Ð³Ð°Ð»ÑÐµÑ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Premium Machinery AM LLC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>ÐÐ¾Ð»Ð½Ð°Ñ ÑÑÐ°Ð²ÐºÐ°</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>ÐÐ°Ð½ÐºÐ¸, Ð¤Ð¸Ð½Ð°Ð½ÑÑ, ÐÑÑ+Ð³Ð°Ð»ÑÐµÑÐ¸Ñ</t>
         </is>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Ð¡ÑÐµÐ¿ÐµÐ½Ñ Ð±Ð°ÐºÐ°Ð»Ð°Ð²ÑÐ°</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÐÑÐ¼ÐµÐ½Ð¸Ñ, ÐÑÐµÐ²Ð°Ð½</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>27-06-20 00:00</t>
+          <t>25-11-20 00:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>27-07-20 23:59</t>
+          <t>25-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Senior QA Engineer </t>
+          <t>ÐÐµÐ½ÐµÐ´Ð¶ÐµÑ Ð¿Ð¾ Ð¿ÑÐ¾Ð´Ð°Ð¶Ð°Ð¼</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Synopsys Armenia CJSC</t>
+          <t>Premium Machinery AM LLC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>ÐÐ¾Ð»Ð½Ð°Ñ ÑÑÐ°Ð²ÐºÐ°</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>ÐÑÐ¾Ð´Ð°Ð¶Ð°</t>
         </is>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Ð¡ÑÐµÐ¿ÐµÐ½Ñ Ð±Ð°ÐºÐ°Ð»Ð°Ð²ÑÐ°</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÐÑÐ¼ÐµÐ½Ð¸Ñ, ÐÑÐµÐ²Ð°Ð½</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>27-06-20 00:00</t>
+          <t>25-11-20 00:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>27-07-20 23:59</t>
+          <t>25-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>General Director</t>
+          <t>ÕÕ¥Õ­Õ¡Õ¶Õ«Õ¯</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Premium Machinery AM LLC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Top Management/Executive</t>
+          <t>Ô»Õ¶ÕªÕ¥Õ¶Õ¥ÖÕ¡Õ¯Õ¡Õ¶, ÕÕ¥Õ­Õ¶Õ¸Õ¬Õ¸Õ£Õ«Õ¡Õ¯Õ¡Õ¶</t>
         </is>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2475,39 +2484,39 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>26-06-20 00:00</t>
+          <t>25-11-20 00:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>26-07-20 23:59</t>
+          <t>25-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>ÕÑÐ¸Ñ-Ð¼ÐµÐ½ÐµÐ´Ð¶ÐµÑ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SoftConstruct</t>
+          <t>Premium Machinery AM LLC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>ÐÐ¾Ð»Ð½Ð°Ñ ÑÑÐ°Ð²ÐºÐ°</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>ÐÐ´Ð¼Ð¸Ð½Ð¸ÑÑÑÐ°ÑÐ¸Ð²Ð½Ð°Ñ/ÐÑÐ¸ÑÐ½Ð°Ñ</t>
         </is>
       </c>
       <c r="E44">
@@ -2515,7 +2524,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Ð¡ÑÐµÐ¿ÐµÐ½Ñ Ð±Ð°ÐºÐ°Ð»Ð°Ð²ÑÐ°</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2525,47 +2534,47 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÐÑÐ¼ÐµÐ½Ð¸Ñ, ÐÑÐµÐ²Ð°Ð½</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>26-06-20 00:00</t>
+          <t>25-11-20 00:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>11-07-20 23:59</t>
+          <t>25-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Մարքեթինգի , վարձակալության և Վաճառքի մենեջեր</t>
+          <t>Ð¡ÐµÑÐ²Ð¸Ñ-Ð¼ÐµÐ½ÐµÐ´Ð¶ÐµÑ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Business Center Barekamutyun</t>
+          <t>Premium Machinery AM LLC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>ÐÐ¾Ð»Ð½Ð°Ñ ÑÑÐ°Ð²ÐºÐ°</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>ÐÑÐ¾Ð´Ð°Ð¶Ð°</t>
         </is>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ð¡ÑÐµÐ¿ÐµÐ½Ñ Ð±Ð°ÐºÐ°Ð»Ð°Ð²ÑÐ°</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2575,197 +2584,192 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÐÑÐ¼ÐµÐ½Ð¸Ñ, ÐÑÐµÐ²Ð°Ð½</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>25-11-20 00:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>25-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Գլխավոր ինժեներ</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Business Center Barekamutyun</t>
+          <t>ÕÕ¡Õ°ÕºÕ¡Õ¶Õ¸ÖÕ©ÕµÕ¡Õ¶ Õ¡Õ·Õ­Õ¡Õ¿Õ¡Õ¯Õ«Ö</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>ÕÕ¡ÕµÕ´Õ¡Õ¶Õ¡Õ£ÖÕ¡ÕµÕ«Õ¶</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Ô±Õ¶Õ¾Õ¿Õ¡Õ¶Õ£Õ¸ÖÕ©ÕµÕ¸ÖÕ¶</t>
         </is>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
+          <t>80,000-120,000 ÕÕ Õ¤ÖÕ¡Õ´</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>25-11-20 00:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>25-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Գյուղատնտեսական նախագծերի ղեկավար</t>
+          <t>Management Accountant</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Business Center Barekamutyun</t>
+          <t>SoftConstruct</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Master Degree (MD)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Կախված փորձից և հմտություններից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>24-11-20 00:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>10-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>ÕÕ¥Õ¼Õ¡Õ­Õ¸Õ½Õ¡Õ¾Õ¡Ö</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Business Center Barekamutyun</t>
+          <t>W &amp; N NAZARIAN GROUP LLC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ô±ÕµÕ¬</t>
         </is>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>24-11-20 00:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>24-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Information Security Officer</t>
+          <t>Ô¼Õ¸Õ£Õ«Õ½Õ¿Õ«Õ¯Õ¡ÕµÕ« Õ´Õ¥Õ¶Õ¥Õ»Õ¥Ö</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>W &amp; N NAZARIAN GROUP LLC</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>ÕÕ¥Õ¶Õ¥Õ»Õ´Õ¥Õ¶Õ©</t>
         </is>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2775,29 +2779,30 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>24-11-20 00:00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>24-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Information Security Compliance Officer</t>
+          <t>ÕÕ¡ÖÖÕ¥Õ©Õ«Õ¶Õ£Õ« ÕÕ¶Ö+ÖÕ¥Õ¶</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>W &amp; N NAZARIAN GROUP LLC</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2807,15 +2812,15 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Advertising, Marketing, PR</t>
         </is>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2830,34 +2835,34 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>24-11-20 00:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>24-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Սպառողական վարկավորման գծով գործակալ/ Ստեփանավան մ/ճ</t>
+          <t>PR Õ´Õ¥Õ¶Õ¥Õ»Õ¥Ö</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Unibank OJSC</t>
+          <t>W &amp; N NAZARIAN GROUP LLC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ô³Õ¸Õ¾Õ¡Õ¦Õ¤,ÕÕ¡ÖÕ¯Õ¥Õ¿Õ«Õ¶Õ£, PR</t>
         </is>
       </c>
       <c r="E51">
@@ -2865,7 +2870,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2875,47 +2880,47 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Հայաստան, Ստեփանավան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>24-11-20 00:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>03-07-20 23:59</t>
+          <t>24-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Գովազդի բաժնի ղեկավար</t>
+          <t>Ô³Õ¬Õ­Õ¡Õ¾Õ¸Ö Õ°Õ¡Õ·Õ¾Õ¡ÕºÕ¡Õ°</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Zigzag LLC</t>
+          <t>W &amp; N NAZARIAN GROUP LLC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Գովազդ,Մարկետինգ, PR</t>
+          <t>Ô²Õ¡Õ¶Õ¯Õ¡ÕµÕ«Õ¶, ÕÕ¡Õ·Õ¾Õ¡ÕºÕ¡Õ°Õ¡Õ¯Õ¡Õ¶, ÕÕ«Õ¶Õ¡Õ¶Õ½Õ¡Õ¯Õ¡Õ¶</t>
         </is>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2925,39 +2930,39 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>24-11-20 00:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>24-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Մաքրուհի</t>
+          <t>Project Õ´Õ¥Õ¶Õ¥Õ»Õ¥Ö</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Business Center Barekamutyun</t>
+          <t>W &amp; N NAZARIAN GROUP LLC</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Մաքրող, Հավաքարար</t>
+          <t>ÕÕ¥Õ¶Õ¥Õ»Õ´Õ¥Õ¶Õ©</t>
         </is>
       </c>
       <c r="E53">
@@ -2965,49 +2970,49 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>70.000 դրամ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>24-11-20 00:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>24-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ / Երևան</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼ÖÕ« Õ´Õ¥Õ¶Õ¥Õ»Õ¥Ö</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>W &amp; N NAZARIAN GROUP LLC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>ÕÕ¥Õ¶Õ¥Õ»Õ´Õ¥Õ¶Õ©</t>
         </is>
       </c>
       <c r="E54">
@@ -3015,7 +3020,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3025,47 +3030,47 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>24-11-20 00:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>24-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">IT Auditor / Business Risk Services Consultant </t>
+          <t>Ô¸Õ¶Õ¤Õ¸ÖÕ¶Õ¡ÖÕ¡Õ¶Õ« Õ¡Õ·Õ­Õ¡Õ¿Õ¡Õ¯Õ«Ö</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Grant Thornton CJSC</t>
+          <t>W &amp; N NAZARIAN GROUP LLC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Ô¸Õ¶Õ¤Õ¸ÖÕ¶Õ¡ÖÕ¡Õ¶Õ« Õ¡Õ·Õ­Õ¡Õ¿Õ¡Õ¯Õ«Ö</t>
         </is>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3075,39 +3080,39 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>24-11-20 00:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>24-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Սպասարկող մասնագետ / Սիսիան մ/ճ</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡Õ¶Õ¿ /ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ardshinbank CJSC</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>ÕÕ¡Õ³Õ¡Õ­Õ¸ÖÕ¤Õ¶Õ¥ÖÕ« Õ½ÕºÕ¡Õ½Õ¡ÖÕ¯Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="E56">
@@ -3115,7 +3120,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3125,39 +3130,39 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Հայաստան, Սիսիան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>23-11-20 00:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>07-07-20 23:59</t>
+          <t>23-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Կոմերցիոն տնօրեն</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡Õ¶Õ¿ /Ô·Õ»Õ´Õ«Õ¡Õ®Õ«Õ¶</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Atenk LTD</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Գործադիր պաշտոններ</t>
+          <t>ÕÕ¡Õ³Õ¡Õ­Õ¸ÖÕ¤Õ¶Õ¥ÖÕ« Õ½ÕºÕ¡Õ½Õ¡ÖÕ¯Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="E57">
@@ -3175,139 +3180,139 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, Ô·Õ»Õ´Õ«Õ¡Õ®Õ«Õ¶</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>21-11-20 00:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>21-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Աշխղեկ</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡Õ¶Õ¿/ Ô±Õ¢Õ¸Õ¾ÕµÕ¡Õ¶</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Business Center Barekamutyun</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
+          <t>ÕÕ¡Õ³Õ¡Õ­Õ¸ÖÕ¤Õ¶Õ¥ÖÕ« Õ½ÕºÕ¡Õ½Õ¡ÖÕ¯Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Կախված փորձից և հմտություններից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, Ô±Õ¢Õ¸Õ¾ÕµÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>21-11-20 00:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>21-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Նախագծի ղեկավար</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡Õ¶Õ¿/ Ô±ÖÕ¿Õ¡Õ·Õ¡Õ¿</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Business Center Barekamutyun</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>ÕÕ¡Õ³Õ¡Õ­Õ¸ÖÕ¤Õ¶Õ¥ÖÕ« Õ½ÕºÕ¡Õ½Õ¡ÖÕ¯Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Կախված փորձից և հմտություններից</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, Ô±ÖÕ¿Õ¡Õ·Õ¡Õ¿</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>21-11-20 00:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>21-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Live Dealer (English or Spanish)</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡Õ¶Õ¿ /Ô±ÖÕ©Õ«Õ¯</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SoftConstruct</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>ÕÕ¡Õ³Õ¡Õ­Õ¸ÖÕ¤Õ¶Õ¥ÖÕ« Õ½ÕºÕ¡Õ½Õ¡ÖÕ¯Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="E60">
@@ -3315,7 +3320,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3325,39 +3330,39 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, Ô±ÖÕ©Õ«Õ¯</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>21-11-20 00:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>25-07-20 23:59</t>
+          <t>21-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Բանկային և ապահովագրական ոլորտի մասնագիտություններ  առարկայի դասախոս</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡Õ¶Õ¿ /ÕÕ¡Õ¶Õ¡Õ±Õ¸Ö</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ՀՖՀՀ ( Հայաստանում ֆրանսիական համալսարան Հիմնադրամ)</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Մասնագիտական կրթություն</t>
+          <t>ÕÕ¡Õ³Õ¡Õ­Õ¸ÖÕ¤Õ¶Õ¥ÖÕ« Õ½ÕºÕ¡Õ½Õ¡ÖÕ¯Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="E61">
@@ -3365,7 +3370,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3375,39 +3380,39 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÕÕ¡Õ¶Õ¡Õ±Õ¸Ö</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>21-11-20 00:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>15-07-20 23:59</t>
+          <t>21-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ինֆորմատիկա և կիրառական մաթեմատիկա ֆակուլտետի դասախոս</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡Õ¶Õ¿/ Ô³ÕµÕ¸ÖÕ´ÖÕ«</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ՀՖՀՀ ( Հայաստանում ֆրանսիական համալսարան Հիմնադրամ)</t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Կրթություն/Ուսուցում</t>
+          <t>ÕÕ¡Õ³Õ¡Õ­Õ¸ÖÕ¤Õ¶Õ¥ÖÕ« Õ½ÕºÕ¡Õ½Õ¡ÖÕ¯Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="E62">
@@ -3415,7 +3420,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Մագիստրոսի կոչում</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3425,34 +3430,39 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, Ô³ÕµÕ¸ÖÕ´ÖÕ«</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>25-06-20 00:00</t>
+          <t>21-11-20 00:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>15-07-20 23:59</t>
+          <t>21-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Արտադրական բաժնի աշխատակից / օպերատոր</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡Õ¶Õ¿/ ÕÕ¡ÖÕ¿Õ¸ÖÕ¶Õ«</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>ÕÖÕ¡Õ¯Õ¿Õ«Õ¯Õ¡</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Արտադրություն</t>
+          <t>ÕÕ¡Õ³Õ¡Õ­Õ¸ÖÕ¤Õ¶Õ¥ÖÕ« Õ½ÕºÕ¡Õ½Õ¡ÖÕ¯Õ¸ÖÕ´</t>
         </is>
       </c>
       <c r="E63">
@@ -3460,7 +3470,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3470,74 +3480,79 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Հայաստան, Կոտայքի մարզ</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÕÕ¡ÖÕ¿Õ¸ÖÕ¶Õ«</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>24-06-20 00:00</t>
+          <t>21-11-20 00:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>24-07-20 23:59</t>
+          <t>21-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Մերչենդայզեր</t>
+          <t>ÕÕ¥Õ­Õ¡Õ¶Õ«Õ¯</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mehrabyan and Sons LLC</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Մերչենդայզեր</t>
+          <t>Ô»Õ¶ÕªÕ¥Õ¶Õ¥Ö-Õ´Õ¥Õ­Õ¡Õ¶Õ«Õ¯</t>
         </is>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Պլանային</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>24-06-20 00:00</t>
+          <t>20-11-20 00:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>11-07-20 23:59</t>
+          <t>20-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Payments Expert</t>
+          <t xml:space="preserve">Senior R&amp;D Engineer </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3547,11 +3562,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3560,7 +3575,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3570,24 +3585,24 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>23-06-20 00:00</t>
+          <t>20-11-20 00:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>23-07-20 23:59</t>
+          <t>09-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Senior SiteCore Developer</t>
+          <t>ASIC Physical Design Engineer</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DataArt LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3601,7 +3616,7 @@
         </is>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3610,7 +3625,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Highly competitive</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3620,24 +3635,24 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>23-06-20 00:00</t>
+          <t>20-11-20 00:00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>17-07-20 23:59</t>
+          <t>20-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Info Consultant</t>
+          <t>ASIC/Layout Design Engineer</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3647,11 +3662,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Banking, Accounting, Financial</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3660,7 +3675,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3670,34 +3685,34 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>23-06-20 00:00</t>
+          <t>20-11-20 00:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>23-07-20 23:59</t>
+          <t>20-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ինֆո խորհրդատու</t>
+          <t>ÕÕ¡Õ·Õ¾Õ¥Õ¿Õ¡Ö</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Evocabank CJSC</t>
+          <t>Sovrano LLC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ô²Õ¡Õ¶Õ¯Õ¡ÕµÕ«Õ¶, ÕÕ¡Õ·Õ¾Õ¡ÕºÕ¡Õ°Õ¡Õ¯Õ¡Õ¶, ÕÕ«Õ¶Õ¡Õ¶Õ½Õ¡Õ¯Õ¡Õ¶</t>
         </is>
       </c>
       <c r="E68">
@@ -3705,49 +3720,49 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>100.000-130.000 ÕÕÔ´</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>23-06-20 00:00</t>
+          <t>20-11-20 00:00</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>23-07-20 23:59</t>
+          <t>20-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Բուժքույր</t>
+          <t>Analog Design  Engineer</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Դիագեն Պլյուս ՍՊԸ</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Առողջապահություն</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E69">
@@ -3755,57 +3770,57 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>23-06-20 00:00</t>
+          <t>20-11-20 00:00</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>23-07-20 23:59</t>
+          <t>20-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Full Stack .Net Developer</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼ÖÕ« Õ´Õ¥Õ¶Õ¥Õ»Õ¥Ö</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Margasoft Corp.</t>
+          <t>NewPlast CJSC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼Ö</t>
         </is>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bachelor Degree (BS)</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3815,29 +3830,24 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Armenia, Yerevan</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>23-06-20 00:00</t>
+          <t>19-11-20 00:00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>23-07-20 23:59</t>
+          <t>19-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Tender Specialist</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Prof Al LLC</t>
+          <t>Production Manager</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3847,20 +3857,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Master Degree (MD)</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve">High salary </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3870,42 +3880,42 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>23-06-20 00:00</t>
+          <t>19-11-20 00:00</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>23-07-20 23:59</t>
+          <t>19-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ֆինանսական Գործառույթների բաժնի մասնագետ</t>
+          <t xml:space="preserve">Ô±Õ¼ÖÕ¿ÖÕ« Õ¶Õ¥ÖÕ¯Õ¡ÕµÕ¡ÖÕ¸ÖÖÕ«Õ¹ (ÕºÖÕ¥Õ½Õ¥Õ¬Õ¥Ö) / Ö.Ô³ÕÕÔ»Õ </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sovrano LLC</t>
+          <t>ARGE Business LLC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>ÕÕ¡Õ³Õ¡Õ¼Ö</t>
         </is>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3915,97 +3925,92 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, Ô³Õ¸ÖÕ«Õ½</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>22-06-20 00:00</t>
+          <t>19-11-20 00:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>22-07-20 23:59</t>
+          <t>19-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Զանգերի կենտրոնի մասնագետ</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Mobile Centre Art LLC</t>
+          <t>Serviceman in the service center</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Բարձր</t>
+          <t xml:space="preserve">220 000 </t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>22-06-20 00:00</t>
+          <t>18-11-20 00:00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>22-07-20 23:59</t>
+          <t>18-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Սղոցավար</t>
+          <t>Senior Software Developer</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4015,29 +4020,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>22-06-20 00:00</t>
+          <t>17-11-20 00:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>22-07-20 23:59</t>
+          <t>17-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Financial Internal Auditor</t>
+          <t>Ô³Õ¬Õ­Õ¡Õ¾Õ¸Ö Õ°Õ¡Õ·Õ¾Õ¡ÕºÕ¡Õ°Õ« Õ¿Õ¥Õ²Õ¡Õ¯Õ¡Õ¬</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Mobile Centre Art LLC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4047,7 +4052,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Audit</t>
+          <t>Banking, Accounting, Financial</t>
         </is>
       </c>
       <c r="E75">
@@ -4070,24 +4075,24 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>22-06-20 00:00</t>
+          <t>17-11-20 00:00</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>22-07-20 23:59</t>
+          <t>10-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Business Process Specialist</t>
+          <t xml:space="preserve">Senior R&amp;D Engineer </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Digitain </t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4110,7 +4115,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4120,34 +4125,34 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>22-06-20 00:00</t>
+          <t>17-11-20 00:00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>22-07-20 23:59</t>
+          <t>17-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Наладчик</t>
+          <t xml:space="preserve">Senior R&amp;D Engineer </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ekra Caucasus LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Работа общего характера</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E77">
@@ -4155,144 +4160,145 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Спец. школа/колледж</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Договорная</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>22-06-20 00:00</t>
+          <t>17-11-20 00:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>22-07-20 23:59</t>
+          <t>17-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Монтажник электротехнического монтажа</t>
+          <t xml:space="preserve">R&amp;D Engineer </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ekra Caucasus LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Работа общего характера</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Спец. школа/колледж</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Договорная</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>22-06-20 00:00</t>
+          <t>17-11-20 00:00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>22-07-20 23:59</t>
+          <t>17-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Специалист по комплектации</t>
+          <t>Senior Analog Design  Engineer</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ekra Caucasus LLC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Полная ставка</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Инженерный, Технологический</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Степень бакалавра</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Армения, Ереван</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>22-06-20 00:00</t>
+          <t>17-11-20 00:00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>22-07-20 23:59</t>
+          <t>09-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
+          <t>ÕÕ¶Ö+ÖÕ¥Õ¶</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Ô³Õ¸ÖÕ®Õ¡Õ¤Õ«Ö ÕºÕ¡Õ·Õ¿Õ¸Õ¶Õ¶Õ¥Ö</t>
         </is>
       </c>
       <c r="E80">
@@ -4300,149 +4306,144 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>160.000 ՀՀԴ +բոնուսներ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>20-06-20 00:00</t>
+          <t>17-11-20 00:00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>20-07-20 23:59</t>
+          <t>17-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Բարմեն</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>X-Group</t>
+          <t>Weekend salesperson</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>110 000 AMD</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>20-06-20 00:00</t>
+          <t>16-11-20 00:00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>20-07-20 23:59</t>
+          <t>10-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>Analog Design  Engineer</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>20-06-20 00:00</t>
+          <t>16-11-20 00:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>20-07-20 23:59</t>
+          <t>16-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Վաճառող (ուհի)</t>
+          <t>HW Release Engineer</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Վաճառք</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E83">
@@ -4450,157 +4451,158 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>20-06-20 00:00</t>
+          <t>15-11-20 00:00</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>20-07-20 23:59</t>
+          <t>11-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Մատուցող (ուհի)</t>
+          <t xml:space="preserve">R&amp;D Engineer </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Ռեստորան, Սննդի սպասարկում</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>--------</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20-06-20 00:00</t>
+          <t>15-11-20 00:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>20-07-20 23:59</t>
+          <t>18-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Գանձապահ</t>
+          <t xml:space="preserve">Android developer /Android ÑÐ°Ð·ÑÐ°Ð±Ð¾ÑÑÐ¸Ðº </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Prof Al LLC</t>
+          <t>ÐÑÐ°Ñ ÐÐ¾ÑÐ°Ð» ÐÐ»ÑÐ±</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>ÐÐ¾Ð»Ð½Ð°Ñ ÑÑÐ°Ð²ÐºÐ°</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>ÐÐ½ÑÐ¾ÑÐ¼Ð°ÑÐ¸Ð¾Ð½Ð½ÑÐµ ÑÐµÑ+Ð½Ð¾Ð»Ð¾Ð³Ð¸Ð¸</t>
         </is>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÐÑÐ¼ÐµÐ½Ð¸Ñ, ÐÑÐµÐ²Ð°Ð½</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>19-06-20 00:00</t>
+          <t>13-11-20 00:00</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
+          <t>13-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Տեխնոլոգ</t>
+          <t>ÐÐµÐ½ÐµÐ´Ð¶ÐµÑ Ð¿Ð¾ Ð¿Ð¾Ð´Ð±Ð¾ÑÑ Ð¿ÐµÑÑÐ¾Ð½Ð°Ð»Ð° ÑÐ¾ Ð·Ð½Ð°Ð½Ð¸ÐµÐ¼ Ð°Ð½Ð³Ð»Ð¸Ð¹ÑÐºÐ¾Ð³Ð¾ ÑÐ·ÑÐºÐ°</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Mehrabyan and Sons LLC</t>
+          <t>ÐÑÐ°Ñ ÐÐ¾ÑÐ°Ð» ÐÐ»ÑÐ±</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>ÐÐ¾Ð»Ð½Ð°Ñ ÑÑÐ°Ð²ÐºÐ°</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Արտադրություն</t>
+          <t>ÐÑÐ´ÐµÐ» ÐºÐ°Ð´ÑÐ¾Ð² Ð¸ Ð¿Ð¾Ð´Ð±Ð¾Ñ Ð¿ÐµÑÑÐ¾Ð½Ð°Ð»Ð°</t>
         </is>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4610,47 +4612,48 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÐÑÐ¼ÐµÐ½Ð¸Ñ, ÐÑÐµÐ²Ð°Ð½</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>19-06-20 00:00</t>
+          <t>13-11-20 00:00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
+          <t>13-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t xml:space="preserve"> iOS developer / iOS ÑÐ°Ð·ÑÐ°Ð±Ð¾ÑÑÐ¸Ðº (ÑÐ´Ð°Ð»ÑÐ½Ð½Ð°Ñ ÑÐ°Ð±Ð¾ÑÐ°).</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mehrabyan and Sons LLC</t>
+          <t>ÐÑÐ°Ñ ÐÐ¾ÑÐ°Ð» ÐÐ»ÑÐ±</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>ÐÐ¾Ð»Ð½Ð°Ñ ÑÑÐ°Ð²ÐºÐ°</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
+          <t>ÐÐ½ÑÐ¾ÑÐ¼Ð°ÑÐ¸Ð¾Ð½Ð½ÑÐµ ÑÐµÑ+Ð½Ð¾Ð»Ð¾Ð³Ð¸Ð¸</t>
         </is>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4660,39 +4663,40 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÐÑÐ¼ÐµÐ½Ð¸Ñ, ÐÑÐµÐ²Ð°Ð½</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>19-06-20 00:00</t>
+          <t>13-11-20 00:00</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
+          <t>13-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Շին. արտադրամասում տրանսպորտային  միջոցների  համակարգող</t>
+          <t>ÐÑÐ¾Ð³ÑÐ°Ð¼Ð¼Ð¸ÑÑÐ° 1Ð¡ (ÑÐ´Ð°Ð»ÐµÐ½Ð½Ð°Ñ ÑÐ°Ð±Ð¾ÑÐ°)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Business Center Barekamutyun</t>
+          <t>ÐÑÐ°Ñ ÐÐ¾ÑÐ°Ð» ÐÐ»ÑÐ±</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Այլ</t>
+          <t>ÐÐ¾Ð»Ð½Ð°Ñ ÑÑÐ°Ð²ÐºÐ°</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Մենեջմենթ</t>
+          <t>ÐÐ½ÑÐ¾ÑÐ¼Ð°ÑÐ¸Ð¾Ð½Ð½ÑÐµ ÑÐµÑ+Ð½Ð¾Ð»Ð¾Ð³Ð¸Ð¸</t>
         </is>
       </c>
       <c r="E88">
@@ -4700,57 +4704,57 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>--------</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կախված փորձից և հմտություններից </t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÐÑÐ¼ÐµÐ½Ð¸Ñ, ÐÑÐµÐ²Ð°Ð½</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>19-06-20 00:00</t>
+          <t>13-11-20 00:00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>05-07-20 23:59</t>
+          <t>13-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4760,47 +4764,47 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>19-06-20 00:00</t>
+          <t>13-11-20 00:00</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
+          <t>13-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Փրկարար</t>
+          <t xml:space="preserve">Software Developer </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Margasoft Corp.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Առողջապահություն</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Մասնագիտական դպրոց/քոլեջ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4810,47 +4814,48 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>19-06-20 00:00</t>
+          <t>13-11-20 00:00</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
+          <t>13-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Սննդի գծով հաշվապահ</t>
+          <t>ÕÕ¡Õ³Õ¡Õ­Õ¸ÖÕ¤Õ¶Õ¥ÖÕ« Õ¡Õ»Õ¡Õ¯ÖÕ´Õ¡Õ¶ Õ¯Õ¥Õ¶Õ¿ÖÕ¸Õ¶Õ« ÕºÕ¡Õ¿Õ¡Õ½Õ­Õ¡Õ¶Õ¡Õ¿Õ¸Ö Õ°Õ¥ÖÕ©Õ¡ÕºÕ¡Õ°-Ö+ÕºÕ¥ÖÕ¡Õ¿Õ¸Ö /Õ£Õ«Õ·Õ¥ÖÕ¡ÕµÕ«Õ¶/</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Ô²Õ¡Õ¶Õ¯Õ¡ÕµÕ«Õ¶, ÕÕ¡Õ·Õ¾Õ¡ÕºÕ¡Õ°Õ¡Õ¯Õ¡Õ¶, ÕÕ«Õ¶Õ¡Õ¶Õ½Õ¡Õ¯Õ¡Õ¶</t>
         </is>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4860,39 +4865,39 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>19-06-20 00:00</t>
+          <t>11-11-20 00:00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
+          <t>11-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Տեղեկատու բաժնի աշխատակցուհի</t>
+          <t>ÕÕ¡Õ³Õ¡Õ­Õ¸ÖÕ¤Õ¶Õ¥ÖÕ« Õ¡Õ»Õ¡Õ¯ÖÕ´Õ¡Õ¶ Õ¯Õ¥Õ¶Õ¿ÖÕ¸Õ¶Õ« Õ´Õ¡Õ½Õ¶Õ¡Õ£Õ¥Õ¿</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>X-Group</t>
+          <t>Armeconombank OJSC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Լրիվ դրույք</t>
+          <t>Ô¼ÖÕ«Õ¾ Õ¤ÖÕ¸ÖÕµÖ</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Վարչական/Գրասենյակային</t>
+          <t>Ô²Õ¡Õ¶Õ¯Õ¡ÕµÕ«Õ¶, ÕÕ¡Õ·Õ¾Õ¡ÕºÕ¡Õ°Õ¡Õ¯Õ¡Õ¶, ÕÕ«Õ¶Õ¡Õ¶Õ½Õ¡Õ¯Õ¡Õ¶</t>
         </is>
       </c>
       <c r="E92">
@@ -4900,7 +4905,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Ô²Õ¡Õ¯Õ¡Õ¬Õ¡Õ¾ÖÕ« Õ´Õ¡Õ¯Õ¡ÖÕ¤Õ¡Õ¯</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4910,2557 +4915,117 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>ÕÕ¡ÕµÕ¡Õ½Õ¿Õ¡Õ¶, ÔµÖÖÕ¡Õ¶</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>19-06-20 00:00</t>
+          <t>11-11-20 00:00</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
+          <t>11-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ստաժորների Ներգրավման Մրցույթ/ Հաշվապահ-Գանձապահ</t>
+          <t>Manual QA Engineer</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Praemium RA LLC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Պրակտիկա</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>QA, Quality Control</t>
         </is>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Competitive, depending on the previous experience and skills, medical insurance, professional development opportunities.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>19-06-20 00:00</t>
+          <t>09-11-20 00:00</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
+          <t>09-12-20 23:59</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ստաժորների Ներգրավման Մրցույթ/ Վարկային մասնագետ</t>
+          <t>Analog Design  Engineer</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Armeconombank OJSC</t>
+          <t>Synopsys Armenia CJSC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Պրակտիկա</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Բակալավրի մակարդակ</t>
+          <t>Bachelor Degree (BS)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>We offer competitive/ negotiable salary, + comprehensive medical insurance package for employee and his/ her family, including parents; Technical and English language trainings; comprehensive bonus plan, including Local Incentive plan</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Հայաստան, Երևան</t>
+          <t>Armenia, Yerevan</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>19-06-20 00:00</t>
+          <t>09-11-20 00:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>19-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Support Specialist</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Margasoft Corp.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>18-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>18-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Վաճառքի գծով ներկայացուցիչ Տավուշի մարզում/Ք. Իջևան</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Sovrano LLC</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Վաճառքի գծով ներկայացուցիչ</t>
-        </is>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Հայաստան, Իջևան</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>18-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>18-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Junior Business Process Specialist</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>SoftConstruct</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Administrative/Clerical</t>
-        </is>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>18-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>04-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Ցանցային ադմինիստրատոր / ՏՏ մասնագետ</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Mobile Centre Art LLC</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Տեղեկատվական Տեխնոլոգիա</t>
-        </is>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Բարձր</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>18-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>18-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Բանվոր</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
-        </is>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>--------</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>18-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>18-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Անվտանգության բաժնի աշխատակից</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Անվտանգություն</t>
-        </is>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>--------</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>18-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>18-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Խաղերի բաժնի աշխատակից</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
-        </is>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>--------</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>18-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>18-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Senior Graphic Designer</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Graphics</t>
-        </is>
-      </c>
-      <c r="E102">
-        <v>5</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>17-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>17-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>SoftConstruct</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Advertising, Marketing, PR</t>
-        </is>
-      </c>
-      <c r="E103">
-        <v>2</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Master Degree (MD)</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>17-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>01-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Embedded Software Engineer</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>DataArt LLC</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E104">
-        <v>2</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Highly competitive</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>17-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>17-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Երաշխիքային և ետերաշխիքային սպասարկման ինժեներ</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Ինժեներական, Տեխնոլոգիական</t>
-        </is>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>17-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>17-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Գանձապահ</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>17-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>17-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Սպորտային բժիշկ</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Առողջապահություն</t>
-        </is>
-      </c>
-      <c r="E107">
-        <v>2</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>17-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>17-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Վարորդ-առաքիչ</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Լոգիստիկա</t>
-        </is>
-      </c>
-      <c r="E108">
-        <v>2</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>17-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>17-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Հաճախորդների սպասարկման ծառայության ղեկավար</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Vardanants CIM</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Վարչական/Գրասենյակային</t>
-        </is>
-      </c>
-      <c r="E109">
-        <v>2</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>16-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>15-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>B2B Account Manager</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-      <c r="E110">
-        <v>3</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>16-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>12-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Projects Implementation Manager</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-      <c r="E111">
-        <v>2</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>16-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>12-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Unity 3D Team Lead</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E112">
-        <v>3</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>16-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>16-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Руководитель офиса компании</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Араф Корал Клуб</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Полная ставка</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Топ Менеджмент</t>
-        </is>
-      </c>
-      <c r="E113">
-        <v>3</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Степень магистра</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Армения, Ереван</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>16-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>05-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IT Business Analyst </t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Praemium RA LLC</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E114">
-        <v>2</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Competitive, depending on the previous experience and skills, medical insurance, sport activities compensation and professional development opportunities. </t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>16-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>02-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Support Specialist</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Part Time</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Administrative/Clerical</t>
-        </is>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>15-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>15-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Administrative Assistant</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Prof Al LLC</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Administrative/Clerical</t>
-        </is>
-      </c>
-      <c r="E116">
-        <v>3</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>15-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>15-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Հաճախորդների աջակցման կենտրոնի մասնագետ</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>15-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>15-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Հաճախորդների աջակցման կենտրոնի պատասխանատու հերթապահ-օպերատոր /գիշերային/</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Armeconombank OJSC</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>15-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>15-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Իրավաբան</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Իրավական</t>
-        </is>
-      </c>
-      <c r="E119">
-        <v>5</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>13-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>13-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Finance and Administrative Assistant</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Հայ օգնության ֆոնդի Հայաստանի մասնաճյուղ</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Banking, Accounting, Financial</t>
-        </is>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>12-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>12-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E121">
-        <v>2</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>12-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>12-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Ֆինանսական տնօրենի տեղակալ</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E122">
-        <v>5</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>12-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>12-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Ավագ Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Բանկային, Հաշվապահական, Ֆինանսական</t>
-        </is>
-      </c>
-      <c r="E123">
-        <v>3</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>12-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>12-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Կաթի և կաթնամթերքի տեխնոլոգ</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Yeremyan Projects</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Սննդի արտադրություն</t>
-        </is>
-      </c>
-      <c r="E124">
-        <v>3</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>12-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>12-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="E125">
-        <v>3</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Մագիստրոսի կոչում</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>230000</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>12-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>12-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Վարորդ-առաքիչ</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>X-Group</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Լոգիստիկա</t>
-        </is>
-      </c>
-      <c r="E126">
-        <v>2</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Հայաստան, Վայոց Ձորի մարզ</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>12-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>12-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Վաճառքի գծով ներկայացուցիչ/Կոտայքի մարզ</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Sovrano LLC</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Վաճառք</t>
-        </is>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>250000-350000</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Հայաստան, Աբովյան</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>12-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>12-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Գործավարուհի</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Ընդունարանի աշխատակից</t>
-        </is>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>11-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>11-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Business Intelligence Engineer</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>DataArt LLC</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Highly competitive</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>11-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>11-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Աուդիո-վիդեո, բջջային հեռախոսների և համակարգչային տեխնիկայի բաժնի ղեկավար</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Zigzag LLC</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Մենեջմենթ</t>
-        </is>
-      </c>
-      <c r="E130">
-        <v>3</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>11-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>11-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Секретарь- референт</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Ekra Caucasus LLC</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Полная ставка</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Административная/Офисная</t>
-        </is>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Степень бакалавра</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Армения, Ереван</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>10-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>10-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Главный инженер производства</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Ekra Caucasus LLC</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Полная ставка</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Инженерный, Технологический</t>
-        </is>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Степень магистра</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Армения, Ереван</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>10-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>10-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Главный инженер производства</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Ekra Caucasus LLC</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Полная ставка</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Инженерный, Технологический</t>
-        </is>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Степень магистра</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Армения, Ереван</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>10-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>10-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Սպորտային և Վիրտուալ խաղերի վարող</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>SoftConstruct</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Այլ</t>
-        </is>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Թերի միջնակարգ</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>10-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>10-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Product Owner</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>--------</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Competitive salary</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>09-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>03-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Customer Support Specialist</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Digitain </t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Administrative/Clerical</t>
-        </is>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>09-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>09-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Սրահի մենեջերի օգնական </t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Ashley Homestore</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Վաճառք</t>
-        </is>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Աշխատավարձ+բոնուս</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>08-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>03-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Խանութ-սրահի ղեկավար</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Prof Al LLC</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Մենեջմենթ</t>
-        </is>
-      </c>
-      <c r="E138">
-        <v>5</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Բարձր</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>08-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>06-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Ապակու արտադրամասի ղեկավարի օգնական</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Prof Al LLC</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Գործադիր պաշտոններ</t>
-        </is>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Բարձր աշխատավարձը երաշխավորվում է </t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>08-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>08-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Հաշվապահ-հաշվետար</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ՀՖՀՀ ( Հայաստանում ֆրանսիական համալսարան Հիմնադրամ)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Պայմանագրային</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Հաշվապահ</t>
-        </is>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>08-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>02-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Մաքրուհի</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>SoftConstruct</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Ընդհանուր բնույթի աշխատանք</t>
-        </is>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>--------</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>08-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>08-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Finance Specialist</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Margasoft Corp.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Banking, Accounting, Financial</t>
-        </is>
-      </c>
-      <c r="E142">
-        <v>2</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Bachelor Degree (BS)</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Armenia, Yerevan</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>03-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>03-07-20 23:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Արտաքին գնումների պլանավորման մասնագետ</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Spayka LLC</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Լրիվ դրույք</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Վաճառք</t>
-        </is>
-      </c>
-      <c r="E143">
-        <v>3</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Բակալավրի մակարդակ</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Աշխատավարձ</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Հայաստան, Երևան</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>02-06-20 00:00</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>02-07-20 23:59</t>
+          <t>09-12-20 23:59</t>
         </is>
       </c>
     </row>
